--- a/Files/Input/Excel/Aug-Oct2016_Forecast_DM.xlsx
+++ b/Files/Input/Excel/Aug-Oct2016_Forecast_DM.xlsx
@@ -506,12 +506,6 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -529,6 +523,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,12 +826,12 @@
   <dimension ref="A1:AA1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="36"/>
+    <col min="1" max="1" width="14.44140625" style="32"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="45.88671875" customWidth="1"/>
@@ -840,14 +840,14 @@
     <col min="14" max="14" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:27" ht="79.2">
+      <c r="A1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -859,7 +859,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -883,7 +883,7 @@
       <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="7" t="s">
@@ -908,10 +908,10 @@
       <c r="AA1" s="9"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="36">
+      <c r="A2" s="32">
         <v>1001</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -963,7 +963,7 @@
         <v>108</v>
       </c>
       <c r="R2" s="18"/>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="34" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="9"/>
@@ -976,10 +976,10 @@
       <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="36">
+      <c r="A3" s="32">
         <v>1001</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1032,10 +1032,10 @@
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="28"/>
+      <c r="S3" s="35"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
@@ -1046,10 +1046,10 @@
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="36">
+      <c r="A4" s="32">
         <v>1001</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1100,8 +1100,8 @@
         <f t="shared" si="4"/>
         <v>79.25</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -1112,10 +1112,10 @@
       <c r="AA4" s="9"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A5" s="36">
+      <c r="A5" s="32">
         <v>1003</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -1168,8 +1168,8 @@
         <f t="shared" si="4"/>
         <v>37.25</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -1180,10 +1180,10 @@
       <c r="AA5" s="9"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A6" s="36">
+      <c r="A6" s="32">
         <v>1001</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1234,8 +1234,8 @@
         <f t="shared" si="4"/>
         <v>79.25</v>
       </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -1246,10 +1246,10 @@
       <c r="AA6" s="9"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="36">
+      <c r="A7" s="32">
         <v>1002</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1300,8 +1300,8 @@
         <f t="shared" si="4"/>
         <v>79.25</v>
       </c>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -1312,7 +1312,7 @@
       <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B8" s="32"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="10"/>
       <c r="D8" s="23"/>
       <c r="E8" s="10"/>
@@ -1349,7 +1349,7 @@
       <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B9" s="34"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -1377,10 +1377,10 @@
       <c r="AA9" s="9"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A10" s="36">
+      <c r="A10" s="32">
         <v>2001</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1433,10 +1433,10 @@
         <f t="shared" ref="Q10:Q17" si="10">G10/8</f>
         <v>79.25</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="30" t="s">
+      <c r="S10" s="37" t="s">
         <v>45</v>
       </c>
       <c r="T10" s="19"/>
@@ -1449,10 +1449,10 @@
       <c r="AA10" s="19"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
+      <c r="A11" s="32">
         <v>2001</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1505,8 +1505,8 @@
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -1517,10 +1517,10 @@
       <c r="AA11" s="9"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12" s="36">
+      <c r="A12" s="32">
         <v>2001</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1571,8 +1571,8 @@
         <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -1583,10 +1583,10 @@
       <c r="AA12" s="9"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A13" s="36">
+      <c r="A13" s="32">
         <v>2002</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1637,8 +1637,8 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -1649,10 +1649,10 @@
       <c r="AA13" s="9"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A14" s="36">
+      <c r="A14" s="32">
         <v>2003</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -1705,8 +1705,8 @@
         <f t="shared" si="10"/>
         <v>79.25</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -1717,10 +1717,10 @@
       <c r="AA14" s="9"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A15" s="36">
+      <c r="A15" s="32">
         <v>2003</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1773,8 +1773,8 @@
         <f t="shared" si="10"/>
         <v>79.25</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -1785,10 +1785,10 @@
       <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A16" s="36">
+      <c r="A16" s="32">
         <v>2004</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -1841,8 +1841,8 @@
         <f t="shared" si="10"/>
         <v>34.75</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -1853,10 +1853,10 @@
       <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A17" s="36">
+      <c r="A17" s="32">
         <v>2002</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1909,8 +1909,8 @@
         <f t="shared" si="10"/>
         <v>79.25</v>
       </c>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -1921,7 +1921,7 @@
       <c r="AA17" s="9"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B18" s="34"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -1958,7 +1958,7 @@
       <c r="AA18" s="9"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B19" s="34"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -1986,10 +1986,10 @@
       <c r="AA19" s="9"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A20" s="36">
+      <c r="A20" s="32">
         <v>3001</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -2040,10 +2040,10 @@
         <f t="shared" ref="Q20:Q25" si="18">G20/8</f>
         <v>108</v>
       </c>
-      <c r="R20" s="27" t="s">
+      <c r="R20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S20" s="27" t="s">
+      <c r="S20" s="34" t="s">
         <v>54</v>
       </c>
       <c r="T20" s="9"/>
@@ -2056,10 +2056,10 @@
       <c r="AA20" s="9"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A21" s="36">
+      <c r="A21" s="32">
         <v>3001</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -2112,8 +2112,8 @@
         <f t="shared" si="18"/>
         <v>99</v>
       </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -2124,10 +2124,10 @@
       <c r="AA21" s="9"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A22" s="36">
+      <c r="A22" s="32">
         <v>3001</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -2178,8 +2178,8 @@
         <f t="shared" si="18"/>
         <v>90</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -2190,10 +2190,10 @@
       <c r="AA22" s="9"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A23" s="36">
+      <c r="A23" s="32">
         <v>3001</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2246,8 +2246,8 @@
         <f t="shared" si="18"/>
         <v>79.25</v>
       </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -2258,10 +2258,10 @@
       <c r="AA23" s="9"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A24" s="36">
+      <c r="A24" s="32">
         <v>3001</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -2312,8 +2312,8 @@
         <f t="shared" si="18"/>
         <v>79.25</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -2324,10 +2324,10 @@
       <c r="AA24" s="9"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A25" s="36">
+      <c r="A25" s="32">
         <v>3002</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -2380,8 +2380,8 @@
         <f t="shared" si="18"/>
         <v>37.25</v>
       </c>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -2392,7 +2392,7 @@
       <c r="AA25" s="9"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B26" s="34"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -2429,7 +2429,7 @@
       <c r="AA26" s="19"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B27" s="33"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9"/>
       <c r="D27" s="18"/>
       <c r="E27" s="9"/>
@@ -2457,10 +2457,10 @@
       <c r="AA27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A28" s="36">
+      <c r="A28" s="32">
         <v>4001</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -2529,7 +2529,7 @@
       <c r="AA28" s="9"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B29" s="33"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="9"/>
       <c r="D29" s="18"/>
       <c r="E29" s="9"/>
@@ -2566,7 +2566,7 @@
       <c r="AA29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B30" s="33"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="9"/>
       <c r="D30" s="18"/>
       <c r="E30" s="9"/>
@@ -2594,7 +2594,7 @@
       <c r="AA30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B31" s="33"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="9"/>
       <c r="D31" s="18"/>
       <c r="E31" s="9"/>
@@ -2622,7 +2622,7 @@
       <c r="AA31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B32" s="33"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="9"/>
       <c r="D32" s="18"/>
       <c r="E32" s="9"/>
@@ -2650,7 +2650,7 @@
       <c r="AA32" s="9"/>
     </row>
     <row r="33" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B33" s="33"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="9"/>
       <c r="D33" s="18"/>
       <c r="E33" s="9"/>
@@ -2678,7 +2678,7 @@
       <c r="AA33" s="9"/>
     </row>
     <row r="34" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B34" s="33"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="9"/>
       <c r="D34" s="18"/>
       <c r="E34" s="9"/>
@@ -2706,7 +2706,7 @@
       <c r="AA34" s="9"/>
     </row>
     <row r="35" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B35" s="33"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="9"/>
       <c r="D35" s="18"/>
       <c r="E35" s="9"/>
@@ -2734,7 +2734,7 @@
       <c r="AA35" s="9"/>
     </row>
     <row r="36" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B36" s="33"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
       <c r="E36" s="9"/>
@@ -2762,7 +2762,7 @@
       <c r="AA36" s="9"/>
     </row>
     <row r="37" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B37" s="33"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="9"/>
       <c r="D37" s="18"/>
       <c r="E37" s="9"/>
@@ -2790,7 +2790,7 @@
       <c r="AA37" s="9"/>
     </row>
     <row r="38" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B38" s="33"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="9"/>
       <c r="D38" s="18"/>
       <c r="E38" s="9"/>
@@ -2818,7 +2818,7 @@
       <c r="AA38" s="9"/>
     </row>
     <row r="39" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B39" s="33"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="9"/>
       <c r="D39" s="18"/>
       <c r="E39" s="9"/>
@@ -2846,7 +2846,7 @@
       <c r="AA39" s="9"/>
     </row>
     <row r="40" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B40" s="33"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="9"/>
       <c r="D40" s="18"/>
       <c r="E40" s="9"/>
@@ -2874,7 +2874,7 @@
       <c r="AA40" s="9"/>
     </row>
     <row r="41" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B41" s="33"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="9"/>
       <c r="D41" s="18"/>
       <c r="E41" s="9"/>
@@ -2902,7 +2902,7 @@
       <c r="AA41" s="9"/>
     </row>
     <row r="42" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B42" s="33"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="9"/>
       <c r="D42" s="18"/>
       <c r="E42" s="9"/>
@@ -2930,7 +2930,7 @@
       <c r="AA42" s="9"/>
     </row>
     <row r="43" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B43" s="33"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="9"/>
       <c r="D43" s="18"/>
       <c r="E43" s="9"/>
@@ -2958,7 +2958,7 @@
       <c r="AA43" s="9"/>
     </row>
     <row r="44" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B44" s="33"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="9"/>
       <c r="D44" s="18"/>
       <c r="E44" s="9"/>
@@ -2986,7 +2986,7 @@
       <c r="AA44" s="9"/>
     </row>
     <row r="45" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B45" s="33"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="9"/>
       <c r="D45" s="18"/>
       <c r="E45" s="9"/>
@@ -3014,7 +3014,7 @@
       <c r="AA45" s="9"/>
     </row>
     <row r="46" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B46" s="33"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="9"/>
       <c r="D46" s="18"/>
       <c r="E46" s="9"/>
@@ -3042,7 +3042,7 @@
       <c r="AA46" s="9"/>
     </row>
     <row r="47" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B47" s="33"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="9"/>
       <c r="D47" s="18"/>
       <c r="E47" s="9"/>
@@ -3070,7 +3070,7 @@
       <c r="AA47" s="9"/>
     </row>
     <row r="48" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B48" s="33"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="9"/>
       <c r="D48" s="18"/>
       <c r="E48" s="9"/>
@@ -3098,7 +3098,7 @@
       <c r="AA48" s="9"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B49" s="33"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="9"/>
       <c r="D49" s="18"/>
       <c r="E49" s="9"/>
@@ -3126,7 +3126,7 @@
       <c r="AA49" s="9"/>
     </row>
     <row r="50" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B50" s="33"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="9"/>
       <c r="D50" s="18"/>
       <c r="E50" s="9"/>
@@ -3154,7 +3154,7 @@
       <c r="AA50" s="9"/>
     </row>
     <row r="51" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B51" s="33"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="9"/>
       <c r="D51" s="18"/>
       <c r="E51" s="9"/>
@@ -3182,7 +3182,7 @@
       <c r="AA51" s="9"/>
     </row>
     <row r="52" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B52" s="33"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="9"/>
       <c r="D52" s="18"/>
       <c r="E52" s="9"/>
@@ -3210,7 +3210,7 @@
       <c r="AA52" s="9"/>
     </row>
     <row r="53" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B53" s="33"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="9"/>
       <c r="D53" s="18"/>
       <c r="E53" s="9"/>
@@ -3238,7 +3238,7 @@
       <c r="AA53" s="9"/>
     </row>
     <row r="54" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B54" s="33"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="9"/>
       <c r="D54" s="18"/>
       <c r="E54" s="9"/>
@@ -3266,7 +3266,7 @@
       <c r="AA54" s="9"/>
     </row>
     <row r="55" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B55" s="33"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="9"/>
       <c r="D55" s="18"/>
       <c r="E55" s="9"/>
@@ -3294,7 +3294,7 @@
       <c r="AA55" s="9"/>
     </row>
     <row r="56" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B56" s="33"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="9"/>
       <c r="D56" s="18"/>
       <c r="E56" s="9"/>
@@ -3322,7 +3322,7 @@
       <c r="AA56" s="9"/>
     </row>
     <row r="57" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B57" s="33"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="9"/>
       <c r="D57" s="18"/>
       <c r="E57" s="9"/>
@@ -3350,7 +3350,7 @@
       <c r="AA57" s="9"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B58" s="33"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="9"/>
       <c r="D58" s="18"/>
       <c r="E58" s="9"/>
@@ -3378,7 +3378,7 @@
       <c r="AA58" s="9"/>
     </row>
     <row r="59" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B59" s="33"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="9"/>
       <c r="D59" s="18"/>
       <c r="E59" s="9"/>
@@ -3406,7 +3406,7 @@
       <c r="AA59" s="9"/>
     </row>
     <row r="60" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B60" s="33"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="9"/>
       <c r="D60" s="18"/>
       <c r="E60" s="9"/>
@@ -3434,7 +3434,7 @@
       <c r="AA60" s="9"/>
     </row>
     <row r="61" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B61" s="33"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="9"/>
       <c r="D61" s="18"/>
       <c r="E61" s="9"/>
@@ -3462,7 +3462,7 @@
       <c r="AA61" s="9"/>
     </row>
     <row r="62" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B62" s="33"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="9"/>
       <c r="D62" s="18"/>
       <c r="E62" s="9"/>
@@ -3490,7 +3490,7 @@
       <c r="AA62" s="9"/>
     </row>
     <row r="63" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B63" s="33"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="9"/>
       <c r="D63" s="18"/>
       <c r="E63" s="9"/>
@@ -3518,7 +3518,7 @@
       <c r="AA63" s="9"/>
     </row>
     <row r="64" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B64" s="33"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="9"/>
       <c r="D64" s="18"/>
       <c r="E64" s="9"/>
@@ -3546,7 +3546,7 @@
       <c r="AA64" s="9"/>
     </row>
     <row r="65" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B65" s="33"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="9"/>
       <c r="D65" s="18"/>
       <c r="E65" s="9"/>
@@ -3574,7 +3574,7 @@
       <c r="AA65" s="9"/>
     </row>
     <row r="66" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B66" s="33"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="9"/>
       <c r="D66" s="18"/>
       <c r="E66" s="9"/>
@@ -3602,7 +3602,7 @@
       <c r="AA66" s="9"/>
     </row>
     <row r="67" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B67" s="33"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="9"/>
       <c r="D67" s="18"/>
       <c r="E67" s="9"/>
@@ -3630,7 +3630,7 @@
       <c r="AA67" s="9"/>
     </row>
     <row r="68" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B68" s="33"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="9"/>
       <c r="D68" s="18"/>
       <c r="E68" s="9"/>
@@ -3658,7 +3658,7 @@
       <c r="AA68" s="9"/>
     </row>
     <row r="69" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B69" s="33"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="9"/>
       <c r="D69" s="18"/>
       <c r="E69" s="9"/>
@@ -3686,7 +3686,7 @@
       <c r="AA69" s="9"/>
     </row>
     <row r="70" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B70" s="33"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="9"/>
       <c r="D70" s="18"/>
       <c r="E70" s="9"/>
@@ -3714,7 +3714,7 @@
       <c r="AA70" s="9"/>
     </row>
     <row r="71" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B71" s="33"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="9"/>
       <c r="D71" s="18"/>
       <c r="E71" s="9"/>
@@ -3742,7 +3742,7 @@
       <c r="AA71" s="9"/>
     </row>
     <row r="72" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B72" s="33"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="9"/>
       <c r="D72" s="18"/>
       <c r="E72" s="9"/>
@@ -3770,7 +3770,7 @@
       <c r="AA72" s="9"/>
     </row>
     <row r="73" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B73" s="33"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="9"/>
       <c r="D73" s="18"/>
       <c r="E73" s="9"/>
@@ -3798,7 +3798,7 @@
       <c r="AA73" s="9"/>
     </row>
     <row r="74" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B74" s="33"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="9"/>
       <c r="D74" s="18"/>
       <c r="E74" s="9"/>
@@ -3826,7 +3826,7 @@
       <c r="AA74" s="9"/>
     </row>
     <row r="75" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B75" s="33"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="9"/>
       <c r="D75" s="18"/>
       <c r="E75" s="9"/>
@@ -3854,7 +3854,7 @@
       <c r="AA75" s="9"/>
     </row>
     <row r="76" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B76" s="33"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="9"/>
       <c r="D76" s="18"/>
       <c r="E76" s="9"/>
@@ -3882,7 +3882,7 @@
       <c r="AA76" s="9"/>
     </row>
     <row r="77" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B77" s="33"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="9"/>
       <c r="D77" s="18"/>
       <c r="E77" s="9"/>
@@ -3910,7 +3910,7 @@
       <c r="AA77" s="9"/>
     </row>
     <row r="78" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B78" s="33"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="9"/>
       <c r="D78" s="18"/>
       <c r="E78" s="9"/>
@@ -3938,7 +3938,7 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B79" s="33"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="9"/>
       <c r="D79" s="18"/>
       <c r="E79" s="9"/>
@@ -3966,7 +3966,7 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B80" s="33"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="9"/>
       <c r="D80" s="18"/>
       <c r="E80" s="9"/>
@@ -3994,7 +3994,7 @@
       <c r="AA80" s="9"/>
     </row>
     <row r="81" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B81" s="33"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="9"/>
       <c r="D81" s="18"/>
       <c r="E81" s="9"/>
@@ -4022,7 +4022,7 @@
       <c r="AA81" s="9"/>
     </row>
     <row r="82" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B82" s="33"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="9"/>
       <c r="D82" s="18"/>
       <c r="E82" s="9"/>
@@ -4050,7 +4050,7 @@
       <c r="AA82" s="9"/>
     </row>
     <row r="83" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B83" s="33"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="9"/>
       <c r="D83" s="18"/>
       <c r="E83" s="9"/>
@@ -4078,7 +4078,7 @@
       <c r="AA83" s="9"/>
     </row>
     <row r="84" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B84" s="33"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="9"/>
       <c r="D84" s="18"/>
       <c r="E84" s="9"/>
@@ -4106,7 +4106,7 @@
       <c r="AA84" s="9"/>
     </row>
     <row r="85" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B85" s="33"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="9"/>
       <c r="D85" s="18"/>
       <c r="E85" s="9"/>
@@ -4134,7 +4134,7 @@
       <c r="AA85" s="9"/>
     </row>
     <row r="86" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B86" s="33"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="9"/>
       <c r="D86" s="18"/>
       <c r="E86" s="9"/>
@@ -4162,7 +4162,7 @@
       <c r="AA86" s="9"/>
     </row>
     <row r="87" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B87" s="33"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="9"/>
       <c r="D87" s="18"/>
       <c r="E87" s="9"/>
@@ -4190,7 +4190,7 @@
       <c r="AA87" s="9"/>
     </row>
     <row r="88" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B88" s="33"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="9"/>
       <c r="D88" s="18"/>
       <c r="E88" s="9"/>
@@ -4218,7 +4218,7 @@
       <c r="AA88" s="9"/>
     </row>
     <row r="89" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B89" s="33"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="9"/>
       <c r="D89" s="18"/>
       <c r="E89" s="9"/>
@@ -4246,7 +4246,7 @@
       <c r="AA89" s="9"/>
     </row>
     <row r="90" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B90" s="33"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="9"/>
       <c r="D90" s="18"/>
       <c r="E90" s="9"/>
@@ -4274,7 +4274,7 @@
       <c r="AA90" s="9"/>
     </row>
     <row r="91" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B91" s="33"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="9"/>
       <c r="D91" s="18"/>
       <c r="E91" s="9"/>
@@ -4302,7 +4302,7 @@
       <c r="AA91" s="9"/>
     </row>
     <row r="92" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B92" s="33"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="9"/>
       <c r="D92" s="18"/>
       <c r="E92" s="9"/>
@@ -4330,7 +4330,7 @@
       <c r="AA92" s="9"/>
     </row>
     <row r="93" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B93" s="33"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="9"/>
       <c r="D93" s="18"/>
       <c r="E93" s="9"/>
@@ -4358,7 +4358,7 @@
       <c r="AA93" s="9"/>
     </row>
     <row r="94" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B94" s="33"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="9"/>
       <c r="D94" s="18"/>
       <c r="E94" s="9"/>
@@ -4386,7 +4386,7 @@
       <c r="AA94" s="9"/>
     </row>
     <row r="95" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B95" s="33"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="9"/>
       <c r="D95" s="18"/>
       <c r="E95" s="9"/>
@@ -4414,7 +4414,7 @@
       <c r="AA95" s="9"/>
     </row>
     <row r="96" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B96" s="33"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="9"/>
       <c r="D96" s="18"/>
       <c r="E96" s="9"/>
@@ -4442,7 +4442,7 @@
       <c r="AA96" s="9"/>
     </row>
     <row r="97" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B97" s="33"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="9"/>
       <c r="D97" s="18"/>
       <c r="E97" s="9"/>
@@ -4470,7 +4470,7 @@
       <c r="AA97" s="9"/>
     </row>
     <row r="98" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B98" s="33"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="9"/>
       <c r="D98" s="18"/>
       <c r="E98" s="9"/>
@@ -4498,7 +4498,7 @@
       <c r="AA98" s="9"/>
     </row>
     <row r="99" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B99" s="33"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="9"/>
       <c r="D99" s="18"/>
       <c r="E99" s="9"/>
@@ -4526,7 +4526,7 @@
       <c r="AA99" s="9"/>
     </row>
     <row r="100" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B100" s="33"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="9"/>
       <c r="D100" s="18"/>
       <c r="E100" s="9"/>
@@ -4554,7 +4554,7 @@
       <c r="AA100" s="9"/>
     </row>
     <row r="101" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B101" s="33"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="9"/>
       <c r="D101" s="18"/>
       <c r="E101" s="9"/>
@@ -4582,7 +4582,7 @@
       <c r="AA101" s="9"/>
     </row>
     <row r="102" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B102" s="33"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="9"/>
       <c r="D102" s="18"/>
       <c r="E102" s="9"/>
@@ -4610,7 +4610,7 @@
       <c r="AA102" s="9"/>
     </row>
     <row r="103" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B103" s="33"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="9"/>
       <c r="D103" s="18"/>
       <c r="E103" s="9"/>
@@ -4638,7 +4638,7 @@
       <c r="AA103" s="9"/>
     </row>
     <row r="104" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B104" s="33"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="9"/>
       <c r="D104" s="18"/>
       <c r="E104" s="9"/>
@@ -4666,7 +4666,7 @@
       <c r="AA104" s="9"/>
     </row>
     <row r="105" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B105" s="33"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="9"/>
       <c r="D105" s="18"/>
       <c r="E105" s="9"/>
@@ -4694,7 +4694,7 @@
       <c r="AA105" s="9"/>
     </row>
     <row r="106" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B106" s="33"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="9"/>
       <c r="D106" s="18"/>
       <c r="E106" s="9"/>
@@ -4722,7 +4722,7 @@
       <c r="AA106" s="9"/>
     </row>
     <row r="107" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B107" s="33"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="9"/>
       <c r="D107" s="18"/>
       <c r="E107" s="9"/>
@@ -4750,7 +4750,7 @@
       <c r="AA107" s="9"/>
     </row>
     <row r="108" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B108" s="33"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="9"/>
       <c r="D108" s="18"/>
       <c r="E108" s="9"/>
@@ -4778,7 +4778,7 @@
       <c r="AA108" s="9"/>
     </row>
     <row r="109" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B109" s="33"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="9"/>
       <c r="D109" s="18"/>
       <c r="E109" s="9"/>
@@ -4806,7 +4806,7 @@
       <c r="AA109" s="9"/>
     </row>
     <row r="110" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B110" s="33"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="9"/>
       <c r="D110" s="18"/>
       <c r="E110" s="9"/>
@@ -4834,7 +4834,7 @@
       <c r="AA110" s="9"/>
     </row>
     <row r="111" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B111" s="33"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="9"/>
       <c r="D111" s="18"/>
       <c r="E111" s="9"/>
@@ -4862,7 +4862,7 @@
       <c r="AA111" s="9"/>
     </row>
     <row r="112" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B112" s="33"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="9"/>
       <c r="D112" s="18"/>
       <c r="E112" s="9"/>
@@ -4890,7 +4890,7 @@
       <c r="AA112" s="9"/>
     </row>
     <row r="113" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B113" s="33"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="9"/>
       <c r="D113" s="18"/>
       <c r="E113" s="9"/>
@@ -4918,7 +4918,7 @@
       <c r="AA113" s="9"/>
     </row>
     <row r="114" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B114" s="33"/>
+      <c r="B114" s="29"/>
       <c r="C114" s="9"/>
       <c r="D114" s="18"/>
       <c r="E114" s="9"/>
@@ -4946,7 +4946,7 @@
       <c r="AA114" s="9"/>
     </row>
     <row r="115" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B115" s="33"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="9"/>
       <c r="D115" s="18"/>
       <c r="E115" s="9"/>
@@ -4974,7 +4974,7 @@
       <c r="AA115" s="9"/>
     </row>
     <row r="116" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B116" s="33"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="9"/>
       <c r="D116" s="18"/>
       <c r="E116" s="9"/>
@@ -5002,7 +5002,7 @@
       <c r="AA116" s="9"/>
     </row>
     <row r="117" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B117" s="33"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="9"/>
       <c r="D117" s="18"/>
       <c r="E117" s="9"/>
@@ -5030,7 +5030,7 @@
       <c r="AA117" s="9"/>
     </row>
     <row r="118" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B118" s="33"/>
+      <c r="B118" s="29"/>
       <c r="C118" s="9"/>
       <c r="D118" s="18"/>
       <c r="E118" s="9"/>
@@ -5058,7 +5058,7 @@
       <c r="AA118" s="9"/>
     </row>
     <row r="119" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B119" s="33"/>
+      <c r="B119" s="29"/>
       <c r="C119" s="9"/>
       <c r="D119" s="18"/>
       <c r="E119" s="9"/>
@@ -5086,7 +5086,7 @@
       <c r="AA119" s="9"/>
     </row>
     <row r="120" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B120" s="33"/>
+      <c r="B120" s="29"/>
       <c r="C120" s="9"/>
       <c r="D120" s="18"/>
       <c r="E120" s="9"/>
@@ -5114,7 +5114,7 @@
       <c r="AA120" s="9"/>
     </row>
     <row r="121" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B121" s="33"/>
+      <c r="B121" s="29"/>
       <c r="C121" s="9"/>
       <c r="D121" s="18"/>
       <c r="E121" s="9"/>
@@ -5142,7 +5142,7 @@
       <c r="AA121" s="9"/>
     </row>
     <row r="122" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B122" s="33"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="9"/>
       <c r="D122" s="18"/>
       <c r="E122" s="9"/>
@@ -5170,7 +5170,7 @@
       <c r="AA122" s="9"/>
     </row>
     <row r="123" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B123" s="33"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="9"/>
       <c r="D123" s="18"/>
       <c r="E123" s="9"/>
@@ -5198,7 +5198,7 @@
       <c r="AA123" s="9"/>
     </row>
     <row r="124" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B124" s="33"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="9"/>
       <c r="D124" s="18"/>
       <c r="E124" s="9"/>
@@ -5226,7 +5226,7 @@
       <c r="AA124" s="9"/>
     </row>
     <row r="125" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B125" s="33"/>
+      <c r="B125" s="29"/>
       <c r="C125" s="9"/>
       <c r="D125" s="18"/>
       <c r="E125" s="9"/>
@@ -5254,7 +5254,7 @@
       <c r="AA125" s="9"/>
     </row>
     <row r="126" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B126" s="33"/>
+      <c r="B126" s="29"/>
       <c r="C126" s="9"/>
       <c r="D126" s="18"/>
       <c r="E126" s="9"/>
@@ -5282,7 +5282,7 @@
       <c r="AA126" s="9"/>
     </row>
     <row r="127" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B127" s="33"/>
+      <c r="B127" s="29"/>
       <c r="C127" s="9"/>
       <c r="D127" s="18"/>
       <c r="E127" s="9"/>
@@ -5310,7 +5310,7 @@
       <c r="AA127" s="9"/>
     </row>
     <row r="128" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B128" s="33"/>
+      <c r="B128" s="29"/>
       <c r="C128" s="9"/>
       <c r="D128" s="18"/>
       <c r="E128" s="9"/>
@@ -5338,7 +5338,7 @@
       <c r="AA128" s="9"/>
     </row>
     <row r="129" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B129" s="33"/>
+      <c r="B129" s="29"/>
       <c r="C129" s="9"/>
       <c r="D129" s="18"/>
       <c r="E129" s="9"/>
@@ -5366,7 +5366,7 @@
       <c r="AA129" s="9"/>
     </row>
     <row r="130" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B130" s="33"/>
+      <c r="B130" s="29"/>
       <c r="C130" s="9"/>
       <c r="D130" s="18"/>
       <c r="E130" s="9"/>
@@ -5394,7 +5394,7 @@
       <c r="AA130" s="9"/>
     </row>
     <row r="131" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B131" s="33"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="9"/>
       <c r="D131" s="18"/>
       <c r="E131" s="9"/>
@@ -5422,7 +5422,7 @@
       <c r="AA131" s="9"/>
     </row>
     <row r="132" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B132" s="33"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="9"/>
       <c r="D132" s="18"/>
       <c r="E132" s="9"/>
@@ -5450,7 +5450,7 @@
       <c r="AA132" s="9"/>
     </row>
     <row r="133" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B133" s="33"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="9"/>
       <c r="D133" s="18"/>
       <c r="E133" s="9"/>
@@ -5478,7 +5478,7 @@
       <c r="AA133" s="9"/>
     </row>
     <row r="134" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B134" s="33"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="9"/>
       <c r="D134" s="18"/>
       <c r="E134" s="9"/>
@@ -5506,7 +5506,7 @@
       <c r="AA134" s="9"/>
     </row>
     <row r="135" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B135" s="33"/>
+      <c r="B135" s="29"/>
       <c r="C135" s="9"/>
       <c r="D135" s="18"/>
       <c r="E135" s="9"/>
@@ -5534,7 +5534,7 @@
       <c r="AA135" s="9"/>
     </row>
     <row r="136" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B136" s="33"/>
+      <c r="B136" s="29"/>
       <c r="C136" s="9"/>
       <c r="D136" s="18"/>
       <c r="E136" s="9"/>
@@ -5562,7 +5562,7 @@
       <c r="AA136" s="9"/>
     </row>
     <row r="137" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B137" s="33"/>
+      <c r="B137" s="29"/>
       <c r="C137" s="9"/>
       <c r="D137" s="18"/>
       <c r="E137" s="9"/>
@@ -5590,7 +5590,7 @@
       <c r="AA137" s="9"/>
     </row>
     <row r="138" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B138" s="33"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="9"/>
       <c r="D138" s="18"/>
       <c r="E138" s="9"/>
@@ -5618,7 +5618,7 @@
       <c r="AA138" s="9"/>
     </row>
     <row r="139" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B139" s="33"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="9"/>
       <c r="D139" s="18"/>
       <c r="E139" s="9"/>
@@ -5646,7 +5646,7 @@
       <c r="AA139" s="9"/>
     </row>
     <row r="140" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B140" s="33"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="9"/>
       <c r="D140" s="18"/>
       <c r="E140" s="9"/>
@@ -5674,7 +5674,7 @@
       <c r="AA140" s="9"/>
     </row>
     <row r="141" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B141" s="33"/>
+      <c r="B141" s="29"/>
       <c r="C141" s="9"/>
       <c r="D141" s="18"/>
       <c r="E141" s="9"/>
@@ -5702,7 +5702,7 @@
       <c r="AA141" s="9"/>
     </row>
     <row r="142" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B142" s="33"/>
+      <c r="B142" s="29"/>
       <c r="C142" s="9"/>
       <c r="D142" s="18"/>
       <c r="E142" s="9"/>
@@ -5730,7 +5730,7 @@
       <c r="AA142" s="9"/>
     </row>
     <row r="143" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B143" s="33"/>
+      <c r="B143" s="29"/>
       <c r="C143" s="9"/>
       <c r="D143" s="18"/>
       <c r="E143" s="9"/>
@@ -5758,7 +5758,7 @@
       <c r="AA143" s="9"/>
     </row>
     <row r="144" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B144" s="33"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="9"/>
       <c r="D144" s="18"/>
       <c r="E144" s="9"/>
@@ -5786,7 +5786,7 @@
       <c r="AA144" s="9"/>
     </row>
     <row r="145" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B145" s="33"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="9"/>
       <c r="D145" s="18"/>
       <c r="E145" s="9"/>
@@ -5814,7 +5814,7 @@
       <c r="AA145" s="9"/>
     </row>
     <row r="146" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B146" s="33"/>
+      <c r="B146" s="29"/>
       <c r="C146" s="9"/>
       <c r="D146" s="18"/>
       <c r="E146" s="9"/>
@@ -5842,7 +5842,7 @@
       <c r="AA146" s="9"/>
     </row>
     <row r="147" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B147" s="33"/>
+      <c r="B147" s="29"/>
       <c r="C147" s="9"/>
       <c r="D147" s="18"/>
       <c r="E147" s="9"/>
@@ -5870,7 +5870,7 @@
       <c r="AA147" s="9"/>
     </row>
     <row r="148" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B148" s="33"/>
+      <c r="B148" s="29"/>
       <c r="C148" s="9"/>
       <c r="D148" s="18"/>
       <c r="E148" s="9"/>
@@ -5898,7 +5898,7 @@
       <c r="AA148" s="9"/>
     </row>
     <row r="149" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B149" s="33"/>
+      <c r="B149" s="29"/>
       <c r="C149" s="9"/>
       <c r="D149" s="18"/>
       <c r="E149" s="9"/>
@@ -5926,7 +5926,7 @@
       <c r="AA149" s="9"/>
     </row>
     <row r="150" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B150" s="33"/>
+      <c r="B150" s="29"/>
       <c r="C150" s="9"/>
       <c r="D150" s="18"/>
       <c r="E150" s="9"/>
@@ -5954,7 +5954,7 @@
       <c r="AA150" s="9"/>
     </row>
     <row r="151" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B151" s="33"/>
+      <c r="B151" s="29"/>
       <c r="C151" s="9"/>
       <c r="D151" s="18"/>
       <c r="E151" s="9"/>
@@ -5982,7 +5982,7 @@
       <c r="AA151" s="9"/>
     </row>
     <row r="152" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B152" s="33"/>
+      <c r="B152" s="29"/>
       <c r="C152" s="9"/>
       <c r="D152" s="18"/>
       <c r="E152" s="9"/>
@@ -6010,7 +6010,7 @@
       <c r="AA152" s="9"/>
     </row>
     <row r="153" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B153" s="33"/>
+      <c r="B153" s="29"/>
       <c r="C153" s="9"/>
       <c r="D153" s="18"/>
       <c r="E153" s="9"/>
@@ -6038,7 +6038,7 @@
       <c r="AA153" s="9"/>
     </row>
     <row r="154" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B154" s="33"/>
+      <c r="B154" s="29"/>
       <c r="C154" s="9"/>
       <c r="D154" s="18"/>
       <c r="E154" s="9"/>
@@ -6066,7 +6066,7 @@
       <c r="AA154" s="9"/>
     </row>
     <row r="155" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B155" s="33"/>
+      <c r="B155" s="29"/>
       <c r="C155" s="9"/>
       <c r="D155" s="18"/>
       <c r="E155" s="9"/>
@@ -6094,7 +6094,7 @@
       <c r="AA155" s="9"/>
     </row>
     <row r="156" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B156" s="33"/>
+      <c r="B156" s="29"/>
       <c r="C156" s="9"/>
       <c r="D156" s="18"/>
       <c r="E156" s="9"/>
@@ -6122,7 +6122,7 @@
       <c r="AA156" s="9"/>
     </row>
     <row r="157" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B157" s="33"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="9"/>
       <c r="D157" s="18"/>
       <c r="E157" s="9"/>
@@ -6150,7 +6150,7 @@
       <c r="AA157" s="9"/>
     </row>
     <row r="158" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B158" s="33"/>
+      <c r="B158" s="29"/>
       <c r="C158" s="9"/>
       <c r="D158" s="18"/>
       <c r="E158" s="9"/>
@@ -6178,7 +6178,7 @@
       <c r="AA158" s="9"/>
     </row>
     <row r="159" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B159" s="33"/>
+      <c r="B159" s="29"/>
       <c r="C159" s="9"/>
       <c r="D159" s="18"/>
       <c r="E159" s="9"/>
@@ -6206,7 +6206,7 @@
       <c r="AA159" s="9"/>
     </row>
     <row r="160" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B160" s="33"/>
+      <c r="B160" s="29"/>
       <c r="C160" s="9"/>
       <c r="D160" s="18"/>
       <c r="E160" s="9"/>
@@ -6234,7 +6234,7 @@
       <c r="AA160" s="9"/>
     </row>
     <row r="161" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B161" s="33"/>
+      <c r="B161" s="29"/>
       <c r="C161" s="9"/>
       <c r="D161" s="18"/>
       <c r="E161" s="9"/>
@@ -6262,7 +6262,7 @@
       <c r="AA161" s="9"/>
     </row>
     <row r="162" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B162" s="33"/>
+      <c r="B162" s="29"/>
       <c r="C162" s="9"/>
       <c r="D162" s="18"/>
       <c r="E162" s="9"/>
@@ -6290,7 +6290,7 @@
       <c r="AA162" s="9"/>
     </row>
     <row r="163" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B163" s="33"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="9"/>
       <c r="D163" s="18"/>
       <c r="E163" s="9"/>
@@ -6318,7 +6318,7 @@
       <c r="AA163" s="9"/>
     </row>
     <row r="164" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B164" s="33"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="9"/>
       <c r="D164" s="18"/>
       <c r="E164" s="9"/>
@@ -6346,7 +6346,7 @@
       <c r="AA164" s="9"/>
     </row>
     <row r="165" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B165" s="33"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="9"/>
       <c r="D165" s="18"/>
       <c r="E165" s="9"/>
@@ -6374,7 +6374,7 @@
       <c r="AA165" s="9"/>
     </row>
     <row r="166" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B166" s="33"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="9"/>
       <c r="D166" s="18"/>
       <c r="E166" s="9"/>
@@ -6402,7 +6402,7 @@
       <c r="AA166" s="9"/>
     </row>
     <row r="167" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B167" s="33"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="9"/>
       <c r="D167" s="18"/>
       <c r="E167" s="9"/>
@@ -6430,7 +6430,7 @@
       <c r="AA167" s="9"/>
     </row>
     <row r="168" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B168" s="33"/>
+      <c r="B168" s="29"/>
       <c r="C168" s="9"/>
       <c r="D168" s="18"/>
       <c r="E168" s="9"/>
@@ -6458,7 +6458,7 @@
       <c r="AA168" s="9"/>
     </row>
     <row r="169" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B169" s="33"/>
+      <c r="B169" s="29"/>
       <c r="C169" s="9"/>
       <c r="D169" s="18"/>
       <c r="E169" s="9"/>
@@ -6486,7 +6486,7 @@
       <c r="AA169" s="9"/>
     </row>
     <row r="170" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B170" s="33"/>
+      <c r="B170" s="29"/>
       <c r="C170" s="9"/>
       <c r="D170" s="18"/>
       <c r="E170" s="9"/>
@@ -6514,7 +6514,7 @@
       <c r="AA170" s="9"/>
     </row>
     <row r="171" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B171" s="33"/>
+      <c r="B171" s="29"/>
       <c r="C171" s="9"/>
       <c r="D171" s="18"/>
       <c r="E171" s="9"/>
@@ -6542,7 +6542,7 @@
       <c r="AA171" s="9"/>
     </row>
     <row r="172" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B172" s="33"/>
+      <c r="B172" s="29"/>
       <c r="C172" s="9"/>
       <c r="D172" s="18"/>
       <c r="E172" s="9"/>
@@ -6570,7 +6570,7 @@
       <c r="AA172" s="9"/>
     </row>
     <row r="173" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B173" s="33"/>
+      <c r="B173" s="29"/>
       <c r="C173" s="9"/>
       <c r="D173" s="18"/>
       <c r="E173" s="9"/>
@@ -6598,7 +6598,7 @@
       <c r="AA173" s="9"/>
     </row>
     <row r="174" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B174" s="33"/>
+      <c r="B174" s="29"/>
       <c r="C174" s="9"/>
       <c r="D174" s="18"/>
       <c r="E174" s="9"/>
@@ -6626,7 +6626,7 @@
       <c r="AA174" s="9"/>
     </row>
     <row r="175" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B175" s="33"/>
+      <c r="B175" s="29"/>
       <c r="C175" s="9"/>
       <c r="D175" s="18"/>
       <c r="E175" s="9"/>
@@ -6654,7 +6654,7 @@
       <c r="AA175" s="9"/>
     </row>
     <row r="176" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B176" s="33"/>
+      <c r="B176" s="29"/>
       <c r="C176" s="9"/>
       <c r="D176" s="18"/>
       <c r="E176" s="9"/>
@@ -6682,7 +6682,7 @@
       <c r="AA176" s="9"/>
     </row>
     <row r="177" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B177" s="33"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="9"/>
       <c r="D177" s="18"/>
       <c r="E177" s="9"/>
@@ -6710,7 +6710,7 @@
       <c r="AA177" s="9"/>
     </row>
     <row r="178" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B178" s="33"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="9"/>
       <c r="D178" s="18"/>
       <c r="E178" s="9"/>
@@ -6738,7 +6738,7 @@
       <c r="AA178" s="9"/>
     </row>
     <row r="179" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B179" s="33"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="9"/>
       <c r="D179" s="18"/>
       <c r="E179" s="9"/>
@@ -6766,7 +6766,7 @@
       <c r="AA179" s="9"/>
     </row>
     <row r="180" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B180" s="33"/>
+      <c r="B180" s="29"/>
       <c r="C180" s="9"/>
       <c r="D180" s="18"/>
       <c r="E180" s="9"/>
@@ -6794,7 +6794,7 @@
       <c r="AA180" s="9"/>
     </row>
     <row r="181" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B181" s="33"/>
+      <c r="B181" s="29"/>
       <c r="C181" s="9"/>
       <c r="D181" s="18"/>
       <c r="E181" s="9"/>
@@ -6822,7 +6822,7 @@
       <c r="AA181" s="9"/>
     </row>
     <row r="182" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B182" s="33"/>
+      <c r="B182" s="29"/>
       <c r="C182" s="9"/>
       <c r="D182" s="18"/>
       <c r="E182" s="9"/>
@@ -6850,7 +6850,7 @@
       <c r="AA182" s="9"/>
     </row>
     <row r="183" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B183" s="33"/>
+      <c r="B183" s="29"/>
       <c r="C183" s="9"/>
       <c r="D183" s="18"/>
       <c r="E183" s="9"/>
@@ -6878,7 +6878,7 @@
       <c r="AA183" s="9"/>
     </row>
     <row r="184" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B184" s="33"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="9"/>
       <c r="D184" s="18"/>
       <c r="E184" s="9"/>
@@ -6906,7 +6906,7 @@
       <c r="AA184" s="9"/>
     </row>
     <row r="185" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B185" s="33"/>
+      <c r="B185" s="29"/>
       <c r="C185" s="9"/>
       <c r="D185" s="18"/>
       <c r="E185" s="9"/>
@@ -6934,7 +6934,7 @@
       <c r="AA185" s="9"/>
     </row>
     <row r="186" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B186" s="33"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="9"/>
       <c r="D186" s="18"/>
       <c r="E186" s="9"/>
@@ -6962,7 +6962,7 @@
       <c r="AA186" s="9"/>
     </row>
     <row r="187" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B187" s="33"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="9"/>
       <c r="D187" s="18"/>
       <c r="E187" s="9"/>
@@ -6990,7 +6990,7 @@
       <c r="AA187" s="9"/>
     </row>
     <row r="188" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B188" s="33"/>
+      <c r="B188" s="29"/>
       <c r="C188" s="9"/>
       <c r="D188" s="18"/>
       <c r="E188" s="9"/>
@@ -7018,7 +7018,7 @@
       <c r="AA188" s="9"/>
     </row>
     <row r="189" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B189" s="33"/>
+      <c r="B189" s="29"/>
       <c r="C189" s="9"/>
       <c r="D189" s="18"/>
       <c r="E189" s="9"/>
@@ -7046,7 +7046,7 @@
       <c r="AA189" s="9"/>
     </row>
     <row r="190" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B190" s="33"/>
+      <c r="B190" s="29"/>
       <c r="C190" s="9"/>
       <c r="D190" s="18"/>
       <c r="E190" s="9"/>
@@ -7074,7 +7074,7 @@
       <c r="AA190" s="9"/>
     </row>
     <row r="191" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B191" s="33"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="9"/>
       <c r="D191" s="18"/>
       <c r="E191" s="9"/>
@@ -7102,7 +7102,7 @@
       <c r="AA191" s="9"/>
     </row>
     <row r="192" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B192" s="33"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="9"/>
       <c r="D192" s="18"/>
       <c r="E192" s="9"/>
@@ -7130,7 +7130,7 @@
       <c r="AA192" s="9"/>
     </row>
     <row r="193" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B193" s="33"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="9"/>
       <c r="D193" s="18"/>
       <c r="E193" s="9"/>
@@ -7158,7 +7158,7 @@
       <c r="AA193" s="9"/>
     </row>
     <row r="194" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B194" s="33"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="9"/>
       <c r="D194" s="18"/>
       <c r="E194" s="9"/>
@@ -7186,7 +7186,7 @@
       <c r="AA194" s="9"/>
     </row>
     <row r="195" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B195" s="33"/>
+      <c r="B195" s="29"/>
       <c r="C195" s="9"/>
       <c r="D195" s="18"/>
       <c r="E195" s="9"/>
@@ -7214,7 +7214,7 @@
       <c r="AA195" s="9"/>
     </row>
     <row r="196" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B196" s="33"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="9"/>
       <c r="D196" s="18"/>
       <c r="E196" s="9"/>
@@ -7242,7 +7242,7 @@
       <c r="AA196" s="9"/>
     </row>
     <row r="197" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B197" s="33"/>
+      <c r="B197" s="29"/>
       <c r="C197" s="9"/>
       <c r="D197" s="18"/>
       <c r="E197" s="9"/>
@@ -7270,7 +7270,7 @@
       <c r="AA197" s="9"/>
     </row>
     <row r="198" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B198" s="33"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="9"/>
       <c r="D198" s="18"/>
       <c r="E198" s="9"/>
@@ -7298,7 +7298,7 @@
       <c r="AA198" s="9"/>
     </row>
     <row r="199" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B199" s="33"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="9"/>
       <c r="D199" s="18"/>
       <c r="E199" s="9"/>
@@ -7326,7 +7326,7 @@
       <c r="AA199" s="9"/>
     </row>
     <row r="200" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B200" s="33"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="9"/>
       <c r="D200" s="18"/>
       <c r="E200" s="9"/>
@@ -7354,7 +7354,7 @@
       <c r="AA200" s="9"/>
     </row>
     <row r="201" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B201" s="33"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="9"/>
       <c r="D201" s="18"/>
       <c r="E201" s="9"/>
@@ -7382,7 +7382,7 @@
       <c r="AA201" s="9"/>
     </row>
     <row r="202" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B202" s="33"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="9"/>
       <c r="D202" s="18"/>
       <c r="E202" s="9"/>
@@ -7410,7 +7410,7 @@
       <c r="AA202" s="9"/>
     </row>
     <row r="203" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B203" s="33"/>
+      <c r="B203" s="29"/>
       <c r="C203" s="9"/>
       <c r="D203" s="18"/>
       <c r="E203" s="9"/>
@@ -7438,7 +7438,7 @@
       <c r="AA203" s="9"/>
     </row>
     <row r="204" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B204" s="33"/>
+      <c r="B204" s="29"/>
       <c r="C204" s="9"/>
       <c r="D204" s="18"/>
       <c r="E204" s="9"/>
@@ -7466,7 +7466,7 @@
       <c r="AA204" s="9"/>
     </row>
     <row r="205" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B205" s="33"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="9"/>
       <c r="D205" s="18"/>
       <c r="E205" s="9"/>
@@ -7494,7 +7494,7 @@
       <c r="AA205" s="9"/>
     </row>
     <row r="206" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B206" s="33"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="9"/>
       <c r="D206" s="18"/>
       <c r="E206" s="9"/>
@@ -7522,7 +7522,7 @@
       <c r="AA206" s="9"/>
     </row>
     <row r="207" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B207" s="33"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="9"/>
       <c r="D207" s="18"/>
       <c r="E207" s="9"/>
@@ -7550,7 +7550,7 @@
       <c r="AA207" s="9"/>
     </row>
     <row r="208" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B208" s="33"/>
+      <c r="B208" s="29"/>
       <c r="C208" s="9"/>
       <c r="D208" s="18"/>
       <c r="E208" s="9"/>
@@ -7578,7 +7578,7 @@
       <c r="AA208" s="9"/>
     </row>
     <row r="209" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B209" s="33"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="9"/>
       <c r="D209" s="18"/>
       <c r="E209" s="9"/>
@@ -7606,7 +7606,7 @@
       <c r="AA209" s="9"/>
     </row>
     <row r="210" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B210" s="33"/>
+      <c r="B210" s="29"/>
       <c r="C210" s="9"/>
       <c r="D210" s="18"/>
       <c r="E210" s="9"/>
@@ -7634,7 +7634,7 @@
       <c r="AA210" s="9"/>
     </row>
     <row r="211" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B211" s="33"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="9"/>
       <c r="D211" s="18"/>
       <c r="E211" s="9"/>
@@ -7662,7 +7662,7 @@
       <c r="AA211" s="9"/>
     </row>
     <row r="212" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B212" s="33"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="9"/>
       <c r="D212" s="18"/>
       <c r="E212" s="9"/>
@@ -7690,7 +7690,7 @@
       <c r="AA212" s="9"/>
     </row>
     <row r="213" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B213" s="33"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="9"/>
       <c r="D213" s="18"/>
       <c r="E213" s="9"/>
@@ -7718,7 +7718,7 @@
       <c r="AA213" s="9"/>
     </row>
     <row r="214" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B214" s="33"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="9"/>
       <c r="D214" s="18"/>
       <c r="E214" s="9"/>
@@ -7746,7 +7746,7 @@
       <c r="AA214" s="9"/>
     </row>
     <row r="215" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B215" s="33"/>
+      <c r="B215" s="29"/>
       <c r="C215" s="9"/>
       <c r="D215" s="18"/>
       <c r="E215" s="9"/>
@@ -7774,7 +7774,7 @@
       <c r="AA215" s="9"/>
     </row>
     <row r="216" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B216" s="33"/>
+      <c r="B216" s="29"/>
       <c r="C216" s="9"/>
       <c r="D216" s="18"/>
       <c r="E216" s="9"/>
@@ -7802,7 +7802,7 @@
       <c r="AA216" s="9"/>
     </row>
     <row r="217" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B217" s="33"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="9"/>
       <c r="D217" s="18"/>
       <c r="E217" s="9"/>
@@ -7830,7 +7830,7 @@
       <c r="AA217" s="9"/>
     </row>
     <row r="218" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B218" s="33"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="9"/>
       <c r="D218" s="18"/>
       <c r="E218" s="9"/>
@@ -7858,7 +7858,7 @@
       <c r="AA218" s="9"/>
     </row>
     <row r="219" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B219" s="33"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="9"/>
       <c r="D219" s="18"/>
       <c r="E219" s="9"/>
@@ -7886,7 +7886,7 @@
       <c r="AA219" s="9"/>
     </row>
     <row r="220" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B220" s="33"/>
+      <c r="B220" s="29"/>
       <c r="C220" s="9"/>
       <c r="D220" s="18"/>
       <c r="E220" s="9"/>
@@ -7914,7 +7914,7 @@
       <c r="AA220" s="9"/>
     </row>
     <row r="221" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B221" s="33"/>
+      <c r="B221" s="29"/>
       <c r="C221" s="9"/>
       <c r="D221" s="18"/>
       <c r="E221" s="9"/>
@@ -7942,7 +7942,7 @@
       <c r="AA221" s="9"/>
     </row>
     <row r="222" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B222" s="33"/>
+      <c r="B222" s="29"/>
       <c r="C222" s="9"/>
       <c r="D222" s="18"/>
       <c r="E222" s="9"/>
@@ -7970,7 +7970,7 @@
       <c r="AA222" s="9"/>
     </row>
     <row r="223" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B223" s="33"/>
+      <c r="B223" s="29"/>
       <c r="C223" s="9"/>
       <c r="D223" s="18"/>
       <c r="E223" s="9"/>
@@ -7998,7 +7998,7 @@
       <c r="AA223" s="9"/>
     </row>
     <row r="224" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B224" s="33"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="9"/>
       <c r="D224" s="18"/>
       <c r="E224" s="9"/>
@@ -8026,7 +8026,7 @@
       <c r="AA224" s="9"/>
     </row>
     <row r="225" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B225" s="33"/>
+      <c r="B225" s="29"/>
       <c r="C225" s="9"/>
       <c r="D225" s="18"/>
       <c r="E225" s="9"/>
@@ -8054,7 +8054,7 @@
       <c r="AA225" s="9"/>
     </row>
     <row r="226" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B226" s="33"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="9"/>
       <c r="D226" s="18"/>
       <c r="E226" s="9"/>
@@ -8082,7 +8082,7 @@
       <c r="AA226" s="9"/>
     </row>
     <row r="227" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B227" s="33"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="9"/>
       <c r="D227" s="18"/>
       <c r="E227" s="9"/>
@@ -8110,7 +8110,7 @@
       <c r="AA227" s="9"/>
     </row>
     <row r="228" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B228" s="33"/>
+      <c r="B228" s="29"/>
       <c r="C228" s="9"/>
       <c r="D228" s="18"/>
       <c r="E228" s="9"/>
@@ -8138,7 +8138,7 @@
       <c r="AA228" s="9"/>
     </row>
     <row r="229" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B229" s="33"/>
+      <c r="B229" s="29"/>
       <c r="C229" s="9"/>
       <c r="D229" s="18"/>
       <c r="E229" s="9"/>
@@ -8166,7 +8166,7 @@
       <c r="AA229" s="9"/>
     </row>
     <row r="230" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B230" s="33"/>
+      <c r="B230" s="29"/>
       <c r="C230" s="9"/>
       <c r="D230" s="18"/>
       <c r="E230" s="9"/>
@@ -8194,7 +8194,7 @@
       <c r="AA230" s="9"/>
     </row>
     <row r="231" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B231" s="33"/>
+      <c r="B231" s="29"/>
       <c r="C231" s="9"/>
       <c r="D231" s="18"/>
       <c r="E231" s="9"/>
@@ -8222,7 +8222,7 @@
       <c r="AA231" s="9"/>
     </row>
     <row r="232" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B232" s="33"/>
+      <c r="B232" s="29"/>
       <c r="C232" s="9"/>
       <c r="D232" s="18"/>
       <c r="E232" s="9"/>
@@ -8250,7 +8250,7 @@
       <c r="AA232" s="9"/>
     </row>
     <row r="233" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B233" s="33"/>
+      <c r="B233" s="29"/>
       <c r="C233" s="9"/>
       <c r="D233" s="18"/>
       <c r="E233" s="9"/>
@@ -8278,7 +8278,7 @@
       <c r="AA233" s="9"/>
     </row>
     <row r="234" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B234" s="33"/>
+      <c r="B234" s="29"/>
       <c r="C234" s="9"/>
       <c r="D234" s="18"/>
       <c r="E234" s="9"/>
@@ -8306,7 +8306,7 @@
       <c r="AA234" s="9"/>
     </row>
     <row r="235" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B235" s="33"/>
+      <c r="B235" s="29"/>
       <c r="C235" s="9"/>
       <c r="D235" s="18"/>
       <c r="E235" s="9"/>
@@ -8334,7 +8334,7 @@
       <c r="AA235" s="9"/>
     </row>
     <row r="236" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B236" s="33"/>
+      <c r="B236" s="29"/>
       <c r="C236" s="9"/>
       <c r="D236" s="18"/>
       <c r="E236" s="9"/>
@@ -8362,7 +8362,7 @@
       <c r="AA236" s="9"/>
     </row>
     <row r="237" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B237" s="33"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="9"/>
       <c r="D237" s="18"/>
       <c r="E237" s="9"/>
@@ -8390,7 +8390,7 @@
       <c r="AA237" s="9"/>
     </row>
     <row r="238" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B238" s="33"/>
+      <c r="B238" s="29"/>
       <c r="C238" s="9"/>
       <c r="D238" s="18"/>
       <c r="E238" s="9"/>
@@ -8418,7 +8418,7 @@
       <c r="AA238" s="9"/>
     </row>
     <row r="239" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B239" s="33"/>
+      <c r="B239" s="29"/>
       <c r="C239" s="9"/>
       <c r="D239" s="18"/>
       <c r="E239" s="9"/>
@@ -8446,7 +8446,7 @@
       <c r="AA239" s="9"/>
     </row>
     <row r="240" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B240" s="33"/>
+      <c r="B240" s="29"/>
       <c r="C240" s="9"/>
       <c r="D240" s="18"/>
       <c r="E240" s="9"/>
@@ -8474,7 +8474,7 @@
       <c r="AA240" s="9"/>
     </row>
     <row r="241" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B241" s="33"/>
+      <c r="B241" s="29"/>
       <c r="C241" s="9"/>
       <c r="D241" s="18"/>
       <c r="E241" s="9"/>
@@ -8502,7 +8502,7 @@
       <c r="AA241" s="9"/>
     </row>
     <row r="242" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B242" s="33"/>
+      <c r="B242" s="29"/>
       <c r="C242" s="9"/>
       <c r="D242" s="18"/>
       <c r="E242" s="9"/>
@@ -8530,7 +8530,7 @@
       <c r="AA242" s="9"/>
     </row>
     <row r="243" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B243" s="33"/>
+      <c r="B243" s="29"/>
       <c r="C243" s="9"/>
       <c r="D243" s="18"/>
       <c r="E243" s="9"/>
@@ -8558,7 +8558,7 @@
       <c r="AA243" s="9"/>
     </row>
     <row r="244" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B244" s="33"/>
+      <c r="B244" s="29"/>
       <c r="C244" s="9"/>
       <c r="D244" s="18"/>
       <c r="E244" s="9"/>
@@ -8586,7 +8586,7 @@
       <c r="AA244" s="9"/>
     </row>
     <row r="245" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B245" s="33"/>
+      <c r="B245" s="29"/>
       <c r="C245" s="9"/>
       <c r="D245" s="18"/>
       <c r="E245" s="9"/>
@@ -8614,7 +8614,7 @@
       <c r="AA245" s="9"/>
     </row>
     <row r="246" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B246" s="33"/>
+      <c r="B246" s="29"/>
       <c r="C246" s="9"/>
       <c r="D246" s="18"/>
       <c r="E246" s="9"/>
@@ -8642,7 +8642,7 @@
       <c r="AA246" s="9"/>
     </row>
     <row r="247" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B247" s="33"/>
+      <c r="B247" s="29"/>
       <c r="C247" s="9"/>
       <c r="D247" s="18"/>
       <c r="E247" s="9"/>
@@ -8670,7 +8670,7 @@
       <c r="AA247" s="9"/>
     </row>
     <row r="248" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B248" s="33"/>
+      <c r="B248" s="29"/>
       <c r="C248" s="9"/>
       <c r="D248" s="18"/>
       <c r="E248" s="9"/>
@@ -8698,7 +8698,7 @@
       <c r="AA248" s="9"/>
     </row>
     <row r="249" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B249" s="33"/>
+      <c r="B249" s="29"/>
       <c r="C249" s="9"/>
       <c r="D249" s="18"/>
       <c r="E249" s="9"/>
@@ -8726,7 +8726,7 @@
       <c r="AA249" s="9"/>
     </row>
     <row r="250" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B250" s="33"/>
+      <c r="B250" s="29"/>
       <c r="C250" s="9"/>
       <c r="D250" s="18"/>
       <c r="E250" s="9"/>
@@ -8754,7 +8754,7 @@
       <c r="AA250" s="9"/>
     </row>
     <row r="251" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B251" s="33"/>
+      <c r="B251" s="29"/>
       <c r="C251" s="9"/>
       <c r="D251" s="18"/>
       <c r="E251" s="9"/>
@@ -8782,7 +8782,7 @@
       <c r="AA251" s="9"/>
     </row>
     <row r="252" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B252" s="33"/>
+      <c r="B252" s="29"/>
       <c r="C252" s="9"/>
       <c r="D252" s="18"/>
       <c r="E252" s="9"/>
@@ -8810,7 +8810,7 @@
       <c r="AA252" s="9"/>
     </row>
     <row r="253" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B253" s="33"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="9"/>
       <c r="D253" s="18"/>
       <c r="E253" s="9"/>
@@ -8838,7 +8838,7 @@
       <c r="AA253" s="9"/>
     </row>
     <row r="254" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B254" s="33"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="9"/>
       <c r="D254" s="18"/>
       <c r="E254" s="9"/>
@@ -8866,7 +8866,7 @@
       <c r="AA254" s="9"/>
     </row>
     <row r="255" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B255" s="33"/>
+      <c r="B255" s="29"/>
       <c r="C255" s="9"/>
       <c r="D255" s="18"/>
       <c r="E255" s="9"/>
@@ -8894,7 +8894,7 @@
       <c r="AA255" s="9"/>
     </row>
     <row r="256" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B256" s="33"/>
+      <c r="B256" s="29"/>
       <c r="C256" s="9"/>
       <c r="D256" s="18"/>
       <c r="E256" s="9"/>
@@ -8922,7 +8922,7 @@
       <c r="AA256" s="9"/>
     </row>
     <row r="257" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B257" s="33"/>
+      <c r="B257" s="29"/>
       <c r="C257" s="9"/>
       <c r="D257" s="18"/>
       <c r="E257" s="9"/>
@@ -8950,7 +8950,7 @@
       <c r="AA257" s="9"/>
     </row>
     <row r="258" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B258" s="33"/>
+      <c r="B258" s="29"/>
       <c r="C258" s="9"/>
       <c r="D258" s="18"/>
       <c r="E258" s="9"/>
@@ -8978,7 +8978,7 @@
       <c r="AA258" s="9"/>
     </row>
     <row r="259" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B259" s="33"/>
+      <c r="B259" s="29"/>
       <c r="C259" s="9"/>
       <c r="D259" s="18"/>
       <c r="E259" s="9"/>
@@ -9006,7 +9006,7 @@
       <c r="AA259" s="9"/>
     </row>
     <row r="260" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B260" s="33"/>
+      <c r="B260" s="29"/>
       <c r="C260" s="9"/>
       <c r="D260" s="18"/>
       <c r="E260" s="9"/>
@@ -9034,7 +9034,7 @@
       <c r="AA260" s="9"/>
     </row>
     <row r="261" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B261" s="33"/>
+      <c r="B261" s="29"/>
       <c r="C261" s="9"/>
       <c r="D261" s="18"/>
       <c r="E261" s="9"/>
@@ -9062,7 +9062,7 @@
       <c r="AA261" s="9"/>
     </row>
     <row r="262" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B262" s="33"/>
+      <c r="B262" s="29"/>
       <c r="C262" s="9"/>
       <c r="D262" s="18"/>
       <c r="E262" s="9"/>
@@ -9090,7 +9090,7 @@
       <c r="AA262" s="9"/>
     </row>
     <row r="263" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B263" s="33"/>
+      <c r="B263" s="29"/>
       <c r="C263" s="9"/>
       <c r="D263" s="18"/>
       <c r="E263" s="9"/>
@@ -9118,7 +9118,7 @@
       <c r="AA263" s="9"/>
     </row>
     <row r="264" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B264" s="33"/>
+      <c r="B264" s="29"/>
       <c r="C264" s="9"/>
       <c r="D264" s="18"/>
       <c r="E264" s="9"/>
@@ -9146,7 +9146,7 @@
       <c r="AA264" s="9"/>
     </row>
     <row r="265" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B265" s="33"/>
+      <c r="B265" s="29"/>
       <c r="C265" s="9"/>
       <c r="D265" s="18"/>
       <c r="E265" s="9"/>
@@ -9174,7 +9174,7 @@
       <c r="AA265" s="9"/>
     </row>
     <row r="266" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B266" s="33"/>
+      <c r="B266" s="29"/>
       <c r="C266" s="9"/>
       <c r="D266" s="18"/>
       <c r="E266" s="9"/>
@@ -9202,7 +9202,7 @@
       <c r="AA266" s="9"/>
     </row>
     <row r="267" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B267" s="33"/>
+      <c r="B267" s="29"/>
       <c r="C267" s="9"/>
       <c r="D267" s="18"/>
       <c r="E267" s="9"/>
@@ -9230,7 +9230,7 @@
       <c r="AA267" s="9"/>
     </row>
     <row r="268" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B268" s="33"/>
+      <c r="B268" s="29"/>
       <c r="C268" s="9"/>
       <c r="D268" s="18"/>
       <c r="E268" s="9"/>
@@ -9258,7 +9258,7 @@
       <c r="AA268" s="9"/>
     </row>
     <row r="269" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B269" s="33"/>
+      <c r="B269" s="29"/>
       <c r="C269" s="9"/>
       <c r="D269" s="18"/>
       <c r="E269" s="9"/>
@@ -9286,7 +9286,7 @@
       <c r="AA269" s="9"/>
     </row>
     <row r="270" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B270" s="33"/>
+      <c r="B270" s="29"/>
       <c r="C270" s="9"/>
       <c r="D270" s="18"/>
       <c r="E270" s="9"/>
@@ -9314,7 +9314,7 @@
       <c r="AA270" s="9"/>
     </row>
     <row r="271" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B271" s="33"/>
+      <c r="B271" s="29"/>
       <c r="C271" s="9"/>
       <c r="D271" s="18"/>
       <c r="E271" s="9"/>
@@ -9342,7 +9342,7 @@
       <c r="AA271" s="9"/>
     </row>
     <row r="272" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B272" s="33"/>
+      <c r="B272" s="29"/>
       <c r="C272" s="9"/>
       <c r="D272" s="18"/>
       <c r="E272" s="9"/>
@@ -9370,7 +9370,7 @@
       <c r="AA272" s="9"/>
     </row>
     <row r="273" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B273" s="33"/>
+      <c r="B273" s="29"/>
       <c r="C273" s="9"/>
       <c r="D273" s="18"/>
       <c r="E273" s="9"/>
@@ -9398,7 +9398,7 @@
       <c r="AA273" s="9"/>
     </row>
     <row r="274" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B274" s="33"/>
+      <c r="B274" s="29"/>
       <c r="C274" s="9"/>
       <c r="D274" s="18"/>
       <c r="E274" s="9"/>
@@ -9426,7 +9426,7 @@
       <c r="AA274" s="9"/>
     </row>
     <row r="275" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B275" s="33"/>
+      <c r="B275" s="29"/>
       <c r="C275" s="9"/>
       <c r="D275" s="18"/>
       <c r="E275" s="9"/>
@@ -9454,7 +9454,7 @@
       <c r="AA275" s="9"/>
     </row>
     <row r="276" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B276" s="33"/>
+      <c r="B276" s="29"/>
       <c r="C276" s="9"/>
       <c r="D276" s="18"/>
       <c r="E276" s="9"/>
@@ -9482,7 +9482,7 @@
       <c r="AA276" s="9"/>
     </row>
     <row r="277" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B277" s="33"/>
+      <c r="B277" s="29"/>
       <c r="C277" s="9"/>
       <c r="D277" s="18"/>
       <c r="E277" s="9"/>
@@ -9510,7 +9510,7 @@
       <c r="AA277" s="9"/>
     </row>
     <row r="278" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B278" s="33"/>
+      <c r="B278" s="29"/>
       <c r="C278" s="9"/>
       <c r="D278" s="18"/>
       <c r="E278" s="9"/>
@@ -9538,7 +9538,7 @@
       <c r="AA278" s="9"/>
     </row>
     <row r="279" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B279" s="33"/>
+      <c r="B279" s="29"/>
       <c r="C279" s="9"/>
       <c r="D279" s="18"/>
       <c r="E279" s="9"/>
@@ -9566,7 +9566,7 @@
       <c r="AA279" s="9"/>
     </row>
     <row r="280" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B280" s="33"/>
+      <c r="B280" s="29"/>
       <c r="C280" s="9"/>
       <c r="D280" s="18"/>
       <c r="E280" s="9"/>
@@ -9594,7 +9594,7 @@
       <c r="AA280" s="9"/>
     </row>
     <row r="281" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B281" s="33"/>
+      <c r="B281" s="29"/>
       <c r="C281" s="9"/>
       <c r="D281" s="18"/>
       <c r="E281" s="9"/>
@@ -9622,7 +9622,7 @@
       <c r="AA281" s="9"/>
     </row>
     <row r="282" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B282" s="33"/>
+      <c r="B282" s="29"/>
       <c r="C282" s="9"/>
       <c r="D282" s="18"/>
       <c r="E282" s="9"/>
@@ -9650,7 +9650,7 @@
       <c r="AA282" s="9"/>
     </row>
     <row r="283" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B283" s="33"/>
+      <c r="B283" s="29"/>
       <c r="C283" s="9"/>
       <c r="D283" s="18"/>
       <c r="E283" s="9"/>
@@ -9678,7 +9678,7 @@
       <c r="AA283" s="9"/>
     </row>
     <row r="284" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B284" s="33"/>
+      <c r="B284" s="29"/>
       <c r="C284" s="9"/>
       <c r="D284" s="18"/>
       <c r="E284" s="9"/>
@@ -9706,7 +9706,7 @@
       <c r="AA284" s="9"/>
     </row>
     <row r="285" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B285" s="33"/>
+      <c r="B285" s="29"/>
       <c r="C285" s="9"/>
       <c r="D285" s="18"/>
       <c r="E285" s="9"/>
@@ -9734,7 +9734,7 @@
       <c r="AA285" s="9"/>
     </row>
     <row r="286" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B286" s="33"/>
+      <c r="B286" s="29"/>
       <c r="C286" s="9"/>
       <c r="D286" s="18"/>
       <c r="E286" s="9"/>
@@ -9762,7 +9762,7 @@
       <c r="AA286" s="9"/>
     </row>
     <row r="287" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B287" s="33"/>
+      <c r="B287" s="29"/>
       <c r="C287" s="9"/>
       <c r="D287" s="18"/>
       <c r="E287" s="9"/>
@@ -9790,7 +9790,7 @@
       <c r="AA287" s="9"/>
     </row>
     <row r="288" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B288" s="33"/>
+      <c r="B288" s="29"/>
       <c r="C288" s="9"/>
       <c r="D288" s="18"/>
       <c r="E288" s="9"/>
@@ -9818,7 +9818,7 @@
       <c r="AA288" s="9"/>
     </row>
     <row r="289" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B289" s="33"/>
+      <c r="B289" s="29"/>
       <c r="C289" s="9"/>
       <c r="D289" s="18"/>
       <c r="E289" s="9"/>
@@ -9846,7 +9846,7 @@
       <c r="AA289" s="9"/>
     </row>
     <row r="290" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B290" s="33"/>
+      <c r="B290" s="29"/>
       <c r="C290" s="9"/>
       <c r="D290" s="18"/>
       <c r="E290" s="9"/>
@@ -9874,7 +9874,7 @@
       <c r="AA290" s="9"/>
     </row>
     <row r="291" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B291" s="33"/>
+      <c r="B291" s="29"/>
       <c r="C291" s="9"/>
       <c r="D291" s="18"/>
       <c r="E291" s="9"/>
@@ -9902,7 +9902,7 @@
       <c r="AA291" s="9"/>
     </row>
     <row r="292" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B292" s="33"/>
+      <c r="B292" s="29"/>
       <c r="C292" s="9"/>
       <c r="D292" s="18"/>
       <c r="E292" s="9"/>
@@ -9930,7 +9930,7 @@
       <c r="AA292" s="9"/>
     </row>
     <row r="293" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B293" s="33"/>
+      <c r="B293" s="29"/>
       <c r="C293" s="9"/>
       <c r="D293" s="18"/>
       <c r="E293" s="9"/>
@@ -9958,7 +9958,7 @@
       <c r="AA293" s="9"/>
     </row>
     <row r="294" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B294" s="33"/>
+      <c r="B294" s="29"/>
       <c r="C294" s="9"/>
       <c r="D294" s="18"/>
       <c r="E294" s="9"/>
@@ -9986,7 +9986,7 @@
       <c r="AA294" s="9"/>
     </row>
     <row r="295" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B295" s="33"/>
+      <c r="B295" s="29"/>
       <c r="C295" s="9"/>
       <c r="D295" s="18"/>
       <c r="E295" s="9"/>
@@ -10014,7 +10014,7 @@
       <c r="AA295" s="9"/>
     </row>
     <row r="296" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B296" s="33"/>
+      <c r="B296" s="29"/>
       <c r="C296" s="9"/>
       <c r="D296" s="18"/>
       <c r="E296" s="9"/>
@@ -10042,7 +10042,7 @@
       <c r="AA296" s="9"/>
     </row>
     <row r="297" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B297" s="33"/>
+      <c r="B297" s="29"/>
       <c r="C297" s="9"/>
       <c r="D297" s="18"/>
       <c r="E297" s="9"/>
@@ -10070,7 +10070,7 @@
       <c r="AA297" s="9"/>
     </row>
     <row r="298" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B298" s="33"/>
+      <c r="B298" s="29"/>
       <c r="C298" s="9"/>
       <c r="D298" s="18"/>
       <c r="E298" s="9"/>
@@ -10098,7 +10098,7 @@
       <c r="AA298" s="9"/>
     </row>
     <row r="299" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B299" s="33"/>
+      <c r="B299" s="29"/>
       <c r="C299" s="9"/>
       <c r="D299" s="18"/>
       <c r="E299" s="9"/>
@@ -10126,7 +10126,7 @@
       <c r="AA299" s="9"/>
     </row>
     <row r="300" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B300" s="33"/>
+      <c r="B300" s="29"/>
       <c r="C300" s="9"/>
       <c r="D300" s="18"/>
       <c r="E300" s="9"/>
@@ -10154,7 +10154,7 @@
       <c r="AA300" s="9"/>
     </row>
     <row r="301" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B301" s="33"/>
+      <c r="B301" s="29"/>
       <c r="C301" s="9"/>
       <c r="D301" s="18"/>
       <c r="E301" s="9"/>
@@ -10182,7 +10182,7 @@
       <c r="AA301" s="9"/>
     </row>
     <row r="302" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B302" s="33"/>
+      <c r="B302" s="29"/>
       <c r="C302" s="9"/>
       <c r="D302" s="18"/>
       <c r="E302" s="9"/>
@@ -10210,7 +10210,7 @@
       <c r="AA302" s="9"/>
     </row>
     <row r="303" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B303" s="33"/>
+      <c r="B303" s="29"/>
       <c r="C303" s="9"/>
       <c r="D303" s="18"/>
       <c r="E303" s="9"/>
@@ -10238,7 +10238,7 @@
       <c r="AA303" s="9"/>
     </row>
     <row r="304" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B304" s="33"/>
+      <c r="B304" s="29"/>
       <c r="C304" s="9"/>
       <c r="D304" s="18"/>
       <c r="E304" s="9"/>
@@ -10266,7 +10266,7 @@
       <c r="AA304" s="9"/>
     </row>
     <row r="305" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B305" s="33"/>
+      <c r="B305" s="29"/>
       <c r="C305" s="9"/>
       <c r="D305" s="18"/>
       <c r="E305" s="9"/>
@@ -10294,7 +10294,7 @@
       <c r="AA305" s="9"/>
     </row>
     <row r="306" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B306" s="33"/>
+      <c r="B306" s="29"/>
       <c r="C306" s="9"/>
       <c r="D306" s="18"/>
       <c r="E306" s="9"/>
@@ -10322,7 +10322,7 @@
       <c r="AA306" s="9"/>
     </row>
     <row r="307" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B307" s="33"/>
+      <c r="B307" s="29"/>
       <c r="C307" s="9"/>
       <c r="D307" s="18"/>
       <c r="E307" s="9"/>
@@ -10350,7 +10350,7 @@
       <c r="AA307" s="9"/>
     </row>
     <row r="308" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B308" s="33"/>
+      <c r="B308" s="29"/>
       <c r="C308" s="9"/>
       <c r="D308" s="18"/>
       <c r="E308" s="9"/>
@@ -10378,7 +10378,7 @@
       <c r="AA308" s="9"/>
     </row>
     <row r="309" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B309" s="33"/>
+      <c r="B309" s="29"/>
       <c r="C309" s="9"/>
       <c r="D309" s="18"/>
       <c r="E309" s="9"/>
@@ -10406,7 +10406,7 @@
       <c r="AA309" s="9"/>
     </row>
     <row r="310" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B310" s="33"/>
+      <c r="B310" s="29"/>
       <c r="C310" s="9"/>
       <c r="D310" s="18"/>
       <c r="E310" s="9"/>
@@ -10434,7 +10434,7 @@
       <c r="AA310" s="9"/>
     </row>
     <row r="311" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B311" s="33"/>
+      <c r="B311" s="29"/>
       <c r="C311" s="9"/>
       <c r="D311" s="18"/>
       <c r="E311" s="9"/>
@@ -10462,7 +10462,7 @@
       <c r="AA311" s="9"/>
     </row>
     <row r="312" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B312" s="33"/>
+      <c r="B312" s="29"/>
       <c r="C312" s="9"/>
       <c r="D312" s="18"/>
       <c r="E312" s="9"/>
@@ -10490,7 +10490,7 @@
       <c r="AA312" s="9"/>
     </row>
     <row r="313" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B313" s="33"/>
+      <c r="B313" s="29"/>
       <c r="C313" s="9"/>
       <c r="D313" s="18"/>
       <c r="E313" s="9"/>
@@ -10518,7 +10518,7 @@
       <c r="AA313" s="9"/>
     </row>
     <row r="314" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B314" s="33"/>
+      <c r="B314" s="29"/>
       <c r="C314" s="9"/>
       <c r="D314" s="18"/>
       <c r="E314" s="9"/>
@@ -10546,7 +10546,7 @@
       <c r="AA314" s="9"/>
     </row>
     <row r="315" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B315" s="33"/>
+      <c r="B315" s="29"/>
       <c r="C315" s="9"/>
       <c r="D315" s="18"/>
       <c r="E315" s="9"/>
@@ -10574,7 +10574,7 @@
       <c r="AA315" s="9"/>
     </row>
     <row r="316" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B316" s="33"/>
+      <c r="B316" s="29"/>
       <c r="C316" s="9"/>
       <c r="D316" s="18"/>
       <c r="E316" s="9"/>
@@ -10602,7 +10602,7 @@
       <c r="AA316" s="9"/>
     </row>
     <row r="317" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B317" s="33"/>
+      <c r="B317" s="29"/>
       <c r="C317" s="9"/>
       <c r="D317" s="18"/>
       <c r="E317" s="9"/>
@@ -10630,7 +10630,7 @@
       <c r="AA317" s="9"/>
     </row>
     <row r="318" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B318" s="33"/>
+      <c r="B318" s="29"/>
       <c r="C318" s="9"/>
       <c r="D318" s="18"/>
       <c r="E318" s="9"/>
@@ -10658,7 +10658,7 @@
       <c r="AA318" s="9"/>
     </row>
     <row r="319" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B319" s="33"/>
+      <c r="B319" s="29"/>
       <c r="C319" s="9"/>
       <c r="D319" s="18"/>
       <c r="E319" s="9"/>
@@ -10686,7 +10686,7 @@
       <c r="AA319" s="9"/>
     </row>
     <row r="320" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B320" s="33"/>
+      <c r="B320" s="29"/>
       <c r="C320" s="9"/>
       <c r="D320" s="18"/>
       <c r="E320" s="9"/>
@@ -10714,7 +10714,7 @@
       <c r="AA320" s="9"/>
     </row>
     <row r="321" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B321" s="33"/>
+      <c r="B321" s="29"/>
       <c r="C321" s="9"/>
       <c r="D321" s="18"/>
       <c r="E321" s="9"/>
@@ -10742,7 +10742,7 @@
       <c r="AA321" s="9"/>
     </row>
     <row r="322" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B322" s="33"/>
+      <c r="B322" s="29"/>
       <c r="C322" s="9"/>
       <c r="D322" s="18"/>
       <c r="E322" s="9"/>
@@ -10770,7 +10770,7 @@
       <c r="AA322" s="9"/>
     </row>
     <row r="323" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B323" s="33"/>
+      <c r="B323" s="29"/>
       <c r="C323" s="9"/>
       <c r="D323" s="18"/>
       <c r="E323" s="9"/>
@@ -10798,7 +10798,7 @@
       <c r="AA323" s="9"/>
     </row>
     <row r="324" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B324" s="33"/>
+      <c r="B324" s="29"/>
       <c r="C324" s="9"/>
       <c r="D324" s="18"/>
       <c r="E324" s="9"/>
@@ -10826,7 +10826,7 @@
       <c r="AA324" s="9"/>
     </row>
     <row r="325" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B325" s="33"/>
+      <c r="B325" s="29"/>
       <c r="C325" s="9"/>
       <c r="D325" s="18"/>
       <c r="E325" s="9"/>
@@ -10854,7 +10854,7 @@
       <c r="AA325" s="9"/>
     </row>
     <row r="326" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B326" s="33"/>
+      <c r="B326" s="29"/>
       <c r="C326" s="9"/>
       <c r="D326" s="18"/>
       <c r="E326" s="9"/>
@@ -10882,7 +10882,7 @@
       <c r="AA326" s="9"/>
     </row>
     <row r="327" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B327" s="33"/>
+      <c r="B327" s="29"/>
       <c r="C327" s="9"/>
       <c r="D327" s="18"/>
       <c r="E327" s="9"/>
@@ -10910,7 +10910,7 @@
       <c r="AA327" s="9"/>
     </row>
     <row r="328" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B328" s="33"/>
+      <c r="B328" s="29"/>
       <c r="C328" s="9"/>
       <c r="D328" s="18"/>
       <c r="E328" s="9"/>
@@ -10938,7 +10938,7 @@
       <c r="AA328" s="9"/>
     </row>
     <row r="329" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B329" s="33"/>
+      <c r="B329" s="29"/>
       <c r="C329" s="9"/>
       <c r="D329" s="18"/>
       <c r="E329" s="9"/>
@@ -10966,7 +10966,7 @@
       <c r="AA329" s="9"/>
     </row>
     <row r="330" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B330" s="33"/>
+      <c r="B330" s="29"/>
       <c r="C330" s="9"/>
       <c r="D330" s="18"/>
       <c r="E330" s="9"/>
@@ -10994,7 +10994,7 @@
       <c r="AA330" s="9"/>
     </row>
     <row r="331" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B331" s="33"/>
+      <c r="B331" s="29"/>
       <c r="C331" s="9"/>
       <c r="D331" s="18"/>
       <c r="E331" s="9"/>
@@ -11022,7 +11022,7 @@
       <c r="AA331" s="9"/>
     </row>
     <row r="332" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B332" s="33"/>
+      <c r="B332" s="29"/>
       <c r="C332" s="9"/>
       <c r="D332" s="18"/>
       <c r="E332" s="9"/>
@@ -11050,7 +11050,7 @@
       <c r="AA332" s="9"/>
     </row>
     <row r="333" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B333" s="33"/>
+      <c r="B333" s="29"/>
       <c r="C333" s="9"/>
       <c r="D333" s="18"/>
       <c r="E333" s="9"/>
@@ -11078,7 +11078,7 @@
       <c r="AA333" s="9"/>
     </row>
     <row r="334" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B334" s="33"/>
+      <c r="B334" s="29"/>
       <c r="C334" s="9"/>
       <c r="D334" s="18"/>
       <c r="E334" s="9"/>
@@ -11106,7 +11106,7 @@
       <c r="AA334" s="9"/>
     </row>
     <row r="335" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B335" s="33"/>
+      <c r="B335" s="29"/>
       <c r="C335" s="9"/>
       <c r="D335" s="18"/>
       <c r="E335" s="9"/>
@@ -11134,7 +11134,7 @@
       <c r="AA335" s="9"/>
     </row>
     <row r="336" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B336" s="33"/>
+      <c r="B336" s="29"/>
       <c r="C336" s="9"/>
       <c r="D336" s="18"/>
       <c r="E336" s="9"/>
@@ -11162,7 +11162,7 @@
       <c r="AA336" s="9"/>
     </row>
     <row r="337" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B337" s="33"/>
+      <c r="B337" s="29"/>
       <c r="C337" s="9"/>
       <c r="D337" s="18"/>
       <c r="E337" s="9"/>
@@ -11190,7 +11190,7 @@
       <c r="AA337" s="9"/>
     </row>
     <row r="338" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B338" s="33"/>
+      <c r="B338" s="29"/>
       <c r="C338" s="9"/>
       <c r="D338" s="18"/>
       <c r="E338" s="9"/>
@@ -11218,7 +11218,7 @@
       <c r="AA338" s="9"/>
     </row>
     <row r="339" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B339" s="33"/>
+      <c r="B339" s="29"/>
       <c r="C339" s="9"/>
       <c r="D339" s="18"/>
       <c r="E339" s="9"/>
@@ -11246,7 +11246,7 @@
       <c r="AA339" s="9"/>
     </row>
     <row r="340" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B340" s="33"/>
+      <c r="B340" s="29"/>
       <c r="C340" s="9"/>
       <c r="D340" s="18"/>
       <c r="E340" s="9"/>
@@ -11274,7 +11274,7 @@
       <c r="AA340" s="9"/>
     </row>
     <row r="341" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B341" s="33"/>
+      <c r="B341" s="29"/>
       <c r="C341" s="9"/>
       <c r="D341" s="18"/>
       <c r="E341" s="9"/>
@@ -11302,7 +11302,7 @@
       <c r="AA341" s="9"/>
     </row>
     <row r="342" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B342" s="33"/>
+      <c r="B342" s="29"/>
       <c r="C342" s="9"/>
       <c r="D342" s="18"/>
       <c r="E342" s="9"/>
@@ -11330,7 +11330,7 @@
       <c r="AA342" s="9"/>
     </row>
     <row r="343" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B343" s="33"/>
+      <c r="B343" s="29"/>
       <c r="C343" s="9"/>
       <c r="D343" s="18"/>
       <c r="E343" s="9"/>
@@ -11358,7 +11358,7 @@
       <c r="AA343" s="9"/>
     </row>
     <row r="344" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B344" s="33"/>
+      <c r="B344" s="29"/>
       <c r="C344" s="9"/>
       <c r="D344" s="18"/>
       <c r="E344" s="9"/>
@@ -11386,7 +11386,7 @@
       <c r="AA344" s="9"/>
     </row>
     <row r="345" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B345" s="33"/>
+      <c r="B345" s="29"/>
       <c r="C345" s="9"/>
       <c r="D345" s="18"/>
       <c r="E345" s="9"/>
@@ -11414,7 +11414,7 @@
       <c r="AA345" s="9"/>
     </row>
     <row r="346" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B346" s="33"/>
+      <c r="B346" s="29"/>
       <c r="C346" s="9"/>
       <c r="D346" s="18"/>
       <c r="E346" s="9"/>
@@ -11442,7 +11442,7 @@
       <c r="AA346" s="9"/>
     </row>
     <row r="347" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B347" s="33"/>
+      <c r="B347" s="29"/>
       <c r="C347" s="9"/>
       <c r="D347" s="18"/>
       <c r="E347" s="9"/>
@@ -11470,7 +11470,7 @@
       <c r="AA347" s="9"/>
     </row>
     <row r="348" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B348" s="33"/>
+      <c r="B348" s="29"/>
       <c r="C348" s="9"/>
       <c r="D348" s="18"/>
       <c r="E348" s="9"/>
@@ -11498,7 +11498,7 @@
       <c r="AA348" s="9"/>
     </row>
     <row r="349" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B349" s="33"/>
+      <c r="B349" s="29"/>
       <c r="C349" s="9"/>
       <c r="D349" s="18"/>
       <c r="E349" s="9"/>
@@ -11526,7 +11526,7 @@
       <c r="AA349" s="9"/>
     </row>
     <row r="350" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B350" s="33"/>
+      <c r="B350" s="29"/>
       <c r="C350" s="9"/>
       <c r="D350" s="18"/>
       <c r="E350" s="9"/>
@@ -11554,7 +11554,7 @@
       <c r="AA350" s="9"/>
     </row>
     <row r="351" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B351" s="33"/>
+      <c r="B351" s="29"/>
       <c r="C351" s="9"/>
       <c r="D351" s="18"/>
       <c r="E351" s="9"/>
@@ -11582,7 +11582,7 @@
       <c r="AA351" s="9"/>
     </row>
     <row r="352" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B352" s="33"/>
+      <c r="B352" s="29"/>
       <c r="C352" s="9"/>
       <c r="D352" s="18"/>
       <c r="E352" s="9"/>
@@ -11610,7 +11610,7 @@
       <c r="AA352" s="9"/>
     </row>
     <row r="353" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B353" s="33"/>
+      <c r="B353" s="29"/>
       <c r="C353" s="9"/>
       <c r="D353" s="18"/>
       <c r="E353" s="9"/>
@@ -11638,7 +11638,7 @@
       <c r="AA353" s="9"/>
     </row>
     <row r="354" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B354" s="33"/>
+      <c r="B354" s="29"/>
       <c r="C354" s="9"/>
       <c r="D354" s="18"/>
       <c r="E354" s="9"/>
@@ -11666,7 +11666,7 @@
       <c r="AA354" s="9"/>
     </row>
     <row r="355" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B355" s="33"/>
+      <c r="B355" s="29"/>
       <c r="C355" s="9"/>
       <c r="D355" s="18"/>
       <c r="E355" s="9"/>
@@ -11694,7 +11694,7 @@
       <c r="AA355" s="9"/>
     </row>
     <row r="356" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B356" s="33"/>
+      <c r="B356" s="29"/>
       <c r="C356" s="9"/>
       <c r="D356" s="18"/>
       <c r="E356" s="9"/>
@@ -11722,7 +11722,7 @@
       <c r="AA356" s="9"/>
     </row>
     <row r="357" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B357" s="33"/>
+      <c r="B357" s="29"/>
       <c r="C357" s="9"/>
       <c r="D357" s="18"/>
       <c r="E357" s="9"/>
@@ -11750,7 +11750,7 @@
       <c r="AA357" s="9"/>
     </row>
     <row r="358" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B358" s="33"/>
+      <c r="B358" s="29"/>
       <c r="C358" s="9"/>
       <c r="D358" s="18"/>
       <c r="E358" s="9"/>
@@ -11778,7 +11778,7 @@
       <c r="AA358" s="9"/>
     </row>
     <row r="359" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B359" s="33"/>
+      <c r="B359" s="29"/>
       <c r="C359" s="9"/>
       <c r="D359" s="18"/>
       <c r="E359" s="9"/>
@@ -11806,7 +11806,7 @@
       <c r="AA359" s="9"/>
     </row>
     <row r="360" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B360" s="33"/>
+      <c r="B360" s="29"/>
       <c r="C360" s="9"/>
       <c r="D360" s="18"/>
       <c r="E360" s="9"/>
@@ -11834,7 +11834,7 @@
       <c r="AA360" s="9"/>
     </row>
     <row r="361" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B361" s="33"/>
+      <c r="B361" s="29"/>
       <c r="C361" s="9"/>
       <c r="D361" s="18"/>
       <c r="E361" s="9"/>
@@ -11862,7 +11862,7 @@
       <c r="AA361" s="9"/>
     </row>
     <row r="362" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B362" s="33"/>
+      <c r="B362" s="29"/>
       <c r="C362" s="9"/>
       <c r="D362" s="18"/>
       <c r="E362" s="9"/>
@@ -11890,7 +11890,7 @@
       <c r="AA362" s="9"/>
     </row>
     <row r="363" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B363" s="33"/>
+      <c r="B363" s="29"/>
       <c r="C363" s="9"/>
       <c r="D363" s="18"/>
       <c r="E363" s="9"/>
@@ -11918,7 +11918,7 @@
       <c r="AA363" s="9"/>
     </row>
     <row r="364" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B364" s="33"/>
+      <c r="B364" s="29"/>
       <c r="C364" s="9"/>
       <c r="D364" s="18"/>
       <c r="E364" s="9"/>
@@ -11946,7 +11946,7 @@
       <c r="AA364" s="9"/>
     </row>
     <row r="365" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B365" s="33"/>
+      <c r="B365" s="29"/>
       <c r="C365" s="9"/>
       <c r="D365" s="18"/>
       <c r="E365" s="9"/>
@@ -11974,7 +11974,7 @@
       <c r="AA365" s="9"/>
     </row>
     <row r="366" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B366" s="33"/>
+      <c r="B366" s="29"/>
       <c r="C366" s="9"/>
       <c r="D366" s="18"/>
       <c r="E366" s="9"/>
@@ -12002,7 +12002,7 @@
       <c r="AA366" s="9"/>
     </row>
     <row r="367" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B367" s="33"/>
+      <c r="B367" s="29"/>
       <c r="C367" s="9"/>
       <c r="D367" s="18"/>
       <c r="E367" s="9"/>
@@ -12030,7 +12030,7 @@
       <c r="AA367" s="9"/>
     </row>
     <row r="368" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B368" s="33"/>
+      <c r="B368" s="29"/>
       <c r="C368" s="9"/>
       <c r="D368" s="18"/>
       <c r="E368" s="9"/>
@@ -12058,7 +12058,7 @@
       <c r="AA368" s="9"/>
     </row>
     <row r="369" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B369" s="33"/>
+      <c r="B369" s="29"/>
       <c r="C369" s="9"/>
       <c r="D369" s="18"/>
       <c r="E369" s="9"/>
@@ -12086,7 +12086,7 @@
       <c r="AA369" s="9"/>
     </row>
     <row r="370" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B370" s="33"/>
+      <c r="B370" s="29"/>
       <c r="C370" s="9"/>
       <c r="D370" s="18"/>
       <c r="E370" s="9"/>
@@ -12114,7 +12114,7 @@
       <c r="AA370" s="9"/>
     </row>
     <row r="371" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B371" s="33"/>
+      <c r="B371" s="29"/>
       <c r="C371" s="9"/>
       <c r="D371" s="18"/>
       <c r="E371" s="9"/>
@@ -12142,7 +12142,7 @@
       <c r="AA371" s="9"/>
     </row>
     <row r="372" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B372" s="33"/>
+      <c r="B372" s="29"/>
       <c r="C372" s="9"/>
       <c r="D372" s="18"/>
       <c r="E372" s="9"/>
@@ -12170,7 +12170,7 @@
       <c r="AA372" s="9"/>
     </row>
     <row r="373" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B373" s="33"/>
+      <c r="B373" s="29"/>
       <c r="C373" s="9"/>
       <c r="D373" s="18"/>
       <c r="E373" s="9"/>
@@ -12198,7 +12198,7 @@
       <c r="AA373" s="9"/>
     </row>
     <row r="374" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B374" s="33"/>
+      <c r="B374" s="29"/>
       <c r="C374" s="9"/>
       <c r="D374" s="18"/>
       <c r="E374" s="9"/>
@@ -12226,7 +12226,7 @@
       <c r="AA374" s="9"/>
     </row>
     <row r="375" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B375" s="33"/>
+      <c r="B375" s="29"/>
       <c r="C375" s="9"/>
       <c r="D375" s="18"/>
       <c r="E375" s="9"/>
@@ -12254,7 +12254,7 @@
       <c r="AA375" s="9"/>
     </row>
     <row r="376" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B376" s="33"/>
+      <c r="B376" s="29"/>
       <c r="C376" s="9"/>
       <c r="D376" s="18"/>
       <c r="E376" s="9"/>
@@ -12282,7 +12282,7 @@
       <c r="AA376" s="9"/>
     </row>
     <row r="377" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B377" s="33"/>
+      <c r="B377" s="29"/>
       <c r="C377" s="9"/>
       <c r="D377" s="18"/>
       <c r="E377" s="9"/>
@@ -12310,7 +12310,7 @@
       <c r="AA377" s="9"/>
     </row>
     <row r="378" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B378" s="33"/>
+      <c r="B378" s="29"/>
       <c r="C378" s="9"/>
       <c r="D378" s="18"/>
       <c r="E378" s="9"/>
@@ -12338,7 +12338,7 @@
       <c r="AA378" s="9"/>
     </row>
     <row r="379" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B379" s="33"/>
+      <c r="B379" s="29"/>
       <c r="C379" s="9"/>
       <c r="D379" s="18"/>
       <c r="E379" s="9"/>
@@ -12366,7 +12366,7 @@
       <c r="AA379" s="9"/>
     </row>
     <row r="380" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B380" s="33"/>
+      <c r="B380" s="29"/>
       <c r="C380" s="9"/>
       <c r="D380" s="18"/>
       <c r="E380" s="9"/>
@@ -12394,7 +12394,7 @@
       <c r="AA380" s="9"/>
     </row>
     <row r="381" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B381" s="33"/>
+      <c r="B381" s="29"/>
       <c r="C381" s="9"/>
       <c r="D381" s="18"/>
       <c r="E381" s="9"/>
@@ -12422,7 +12422,7 @@
       <c r="AA381" s="9"/>
     </row>
     <row r="382" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B382" s="33"/>
+      <c r="B382" s="29"/>
       <c r="C382" s="9"/>
       <c r="D382" s="18"/>
       <c r="E382" s="9"/>
@@ -12450,7 +12450,7 @@
       <c r="AA382" s="9"/>
     </row>
     <row r="383" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B383" s="33"/>
+      <c r="B383" s="29"/>
       <c r="C383" s="9"/>
       <c r="D383" s="18"/>
       <c r="E383" s="9"/>
@@ -12478,7 +12478,7 @@
       <c r="AA383" s="9"/>
     </row>
     <row r="384" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B384" s="33"/>
+      <c r="B384" s="29"/>
       <c r="C384" s="9"/>
       <c r="D384" s="18"/>
       <c r="E384" s="9"/>
@@ -12506,7 +12506,7 @@
       <c r="AA384" s="9"/>
     </row>
     <row r="385" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B385" s="33"/>
+      <c r="B385" s="29"/>
       <c r="C385" s="9"/>
       <c r="D385" s="18"/>
       <c r="E385" s="9"/>
@@ -12534,7 +12534,7 @@
       <c r="AA385" s="9"/>
     </row>
     <row r="386" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B386" s="33"/>
+      <c r="B386" s="29"/>
       <c r="C386" s="9"/>
       <c r="D386" s="18"/>
       <c r="E386" s="9"/>
@@ -12562,7 +12562,7 @@
       <c r="AA386" s="9"/>
     </row>
     <row r="387" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B387" s="33"/>
+      <c r="B387" s="29"/>
       <c r="C387" s="9"/>
       <c r="D387" s="18"/>
       <c r="E387" s="9"/>
@@ -12590,7 +12590,7 @@
       <c r="AA387" s="9"/>
     </row>
     <row r="388" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B388" s="33"/>
+      <c r="B388" s="29"/>
       <c r="C388" s="9"/>
       <c r="D388" s="18"/>
       <c r="E388" s="9"/>
@@ -12618,7 +12618,7 @@
       <c r="AA388" s="9"/>
     </row>
     <row r="389" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B389" s="33"/>
+      <c r="B389" s="29"/>
       <c r="C389" s="9"/>
       <c r="D389" s="18"/>
       <c r="E389" s="9"/>
@@ -12646,7 +12646,7 @@
       <c r="AA389" s="9"/>
     </row>
     <row r="390" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B390" s="33"/>
+      <c r="B390" s="29"/>
       <c r="C390" s="9"/>
       <c r="D390" s="18"/>
       <c r="E390" s="9"/>
@@ -12674,7 +12674,7 @@
       <c r="AA390" s="9"/>
     </row>
     <row r="391" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B391" s="33"/>
+      <c r="B391" s="29"/>
       <c r="C391" s="9"/>
       <c r="D391" s="18"/>
       <c r="E391" s="9"/>
@@ -12702,7 +12702,7 @@
       <c r="AA391" s="9"/>
     </row>
     <row r="392" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B392" s="33"/>
+      <c r="B392" s="29"/>
       <c r="C392" s="9"/>
       <c r="D392" s="18"/>
       <c r="E392" s="9"/>
@@ -12730,7 +12730,7 @@
       <c r="AA392" s="9"/>
     </row>
     <row r="393" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B393" s="33"/>
+      <c r="B393" s="29"/>
       <c r="C393" s="9"/>
       <c r="D393" s="18"/>
       <c r="E393" s="9"/>
@@ -12758,7 +12758,7 @@
       <c r="AA393" s="9"/>
     </row>
     <row r="394" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B394" s="33"/>
+      <c r="B394" s="29"/>
       <c r="C394" s="9"/>
       <c r="D394" s="18"/>
       <c r="E394" s="9"/>
@@ -12786,7 +12786,7 @@
       <c r="AA394" s="9"/>
     </row>
     <row r="395" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B395" s="33"/>
+      <c r="B395" s="29"/>
       <c r="C395" s="9"/>
       <c r="D395" s="18"/>
       <c r="E395" s="9"/>
@@ -12814,7 +12814,7 @@
       <c r="AA395" s="9"/>
     </row>
     <row r="396" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B396" s="33"/>
+      <c r="B396" s="29"/>
       <c r="C396" s="9"/>
       <c r="D396" s="18"/>
       <c r="E396" s="9"/>
@@ -12842,7 +12842,7 @@
       <c r="AA396" s="9"/>
     </row>
     <row r="397" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B397" s="33"/>
+      <c r="B397" s="29"/>
       <c r="C397" s="9"/>
       <c r="D397" s="18"/>
       <c r="E397" s="9"/>
@@ -12870,7 +12870,7 @@
       <c r="AA397" s="9"/>
     </row>
     <row r="398" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B398" s="33"/>
+      <c r="B398" s="29"/>
       <c r="C398" s="9"/>
       <c r="D398" s="18"/>
       <c r="E398" s="9"/>
@@ -12898,7 +12898,7 @@
       <c r="AA398" s="9"/>
     </row>
     <row r="399" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B399" s="33"/>
+      <c r="B399" s="29"/>
       <c r="C399" s="9"/>
       <c r="D399" s="18"/>
       <c r="E399" s="9"/>
@@ -12926,7 +12926,7 @@
       <c r="AA399" s="9"/>
     </row>
     <row r="400" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B400" s="33"/>
+      <c r="B400" s="29"/>
       <c r="C400" s="9"/>
       <c r="D400" s="18"/>
       <c r="E400" s="9"/>
@@ -12954,7 +12954,7 @@
       <c r="AA400" s="9"/>
     </row>
     <row r="401" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B401" s="33"/>
+      <c r="B401" s="29"/>
       <c r="C401" s="9"/>
       <c r="D401" s="18"/>
       <c r="E401" s="9"/>
@@ -12982,7 +12982,7 @@
       <c r="AA401" s="9"/>
     </row>
     <row r="402" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B402" s="33"/>
+      <c r="B402" s="29"/>
       <c r="C402" s="9"/>
       <c r="D402" s="18"/>
       <c r="E402" s="9"/>
@@ -13010,7 +13010,7 @@
       <c r="AA402" s="9"/>
     </row>
     <row r="403" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B403" s="33"/>
+      <c r="B403" s="29"/>
       <c r="C403" s="9"/>
       <c r="D403" s="18"/>
       <c r="E403" s="9"/>
@@ -13038,7 +13038,7 @@
       <c r="AA403" s="9"/>
     </row>
     <row r="404" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B404" s="33"/>
+      <c r="B404" s="29"/>
       <c r="C404" s="9"/>
       <c r="D404" s="18"/>
       <c r="E404" s="9"/>
@@ -13066,7 +13066,7 @@
       <c r="AA404" s="9"/>
     </row>
     <row r="405" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B405" s="33"/>
+      <c r="B405" s="29"/>
       <c r="C405" s="9"/>
       <c r="D405" s="18"/>
       <c r="E405" s="9"/>
@@ -13094,7 +13094,7 @@
       <c r="AA405" s="9"/>
     </row>
     <row r="406" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B406" s="33"/>
+      <c r="B406" s="29"/>
       <c r="C406" s="9"/>
       <c r="D406" s="18"/>
       <c r="E406" s="9"/>
@@ -13122,7 +13122,7 @@
       <c r="AA406" s="9"/>
     </row>
     <row r="407" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B407" s="33"/>
+      <c r="B407" s="29"/>
       <c r="C407" s="9"/>
       <c r="D407" s="18"/>
       <c r="E407" s="9"/>
@@ -13150,7 +13150,7 @@
       <c r="AA407" s="9"/>
     </row>
     <row r="408" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B408" s="33"/>
+      <c r="B408" s="29"/>
       <c r="C408" s="9"/>
       <c r="D408" s="18"/>
       <c r="E408" s="9"/>
@@ -13178,7 +13178,7 @@
       <c r="AA408" s="9"/>
     </row>
     <row r="409" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B409" s="33"/>
+      <c r="B409" s="29"/>
       <c r="C409" s="9"/>
       <c r="D409" s="18"/>
       <c r="E409" s="9"/>
@@ -13206,7 +13206,7 @@
       <c r="AA409" s="9"/>
     </row>
     <row r="410" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B410" s="33"/>
+      <c r="B410" s="29"/>
       <c r="C410" s="9"/>
       <c r="D410" s="18"/>
       <c r="E410" s="9"/>
@@ -13234,7 +13234,7 @@
       <c r="AA410" s="9"/>
     </row>
     <row r="411" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B411" s="33"/>
+      <c r="B411" s="29"/>
       <c r="C411" s="9"/>
       <c r="D411" s="18"/>
       <c r="E411" s="9"/>
@@ -13262,7 +13262,7 @@
       <c r="AA411" s="9"/>
     </row>
     <row r="412" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B412" s="33"/>
+      <c r="B412" s="29"/>
       <c r="C412" s="9"/>
       <c r="D412" s="18"/>
       <c r="E412" s="9"/>
@@ -13290,7 +13290,7 @@
       <c r="AA412" s="9"/>
     </row>
     <row r="413" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B413" s="33"/>
+      <c r="B413" s="29"/>
       <c r="C413" s="9"/>
       <c r="D413" s="18"/>
       <c r="E413" s="9"/>
@@ -13318,7 +13318,7 @@
       <c r="AA413" s="9"/>
     </row>
     <row r="414" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B414" s="33"/>
+      <c r="B414" s="29"/>
       <c r="C414" s="9"/>
       <c r="D414" s="18"/>
       <c r="E414" s="9"/>
@@ -13346,7 +13346,7 @@
       <c r="AA414" s="9"/>
     </row>
     <row r="415" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B415" s="33"/>
+      <c r="B415" s="29"/>
       <c r="C415" s="9"/>
       <c r="D415" s="18"/>
       <c r="E415" s="9"/>
@@ -13374,7 +13374,7 @@
       <c r="AA415" s="9"/>
     </row>
     <row r="416" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B416" s="33"/>
+      <c r="B416" s="29"/>
       <c r="C416" s="9"/>
       <c r="D416" s="18"/>
       <c r="E416" s="9"/>
@@ -13402,7 +13402,7 @@
       <c r="AA416" s="9"/>
     </row>
     <row r="417" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B417" s="33"/>
+      <c r="B417" s="29"/>
       <c r="C417" s="9"/>
       <c r="D417" s="18"/>
       <c r="E417" s="9"/>
@@ -13430,7 +13430,7 @@
       <c r="AA417" s="9"/>
     </row>
     <row r="418" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B418" s="33"/>
+      <c r="B418" s="29"/>
       <c r="C418" s="9"/>
       <c r="D418" s="18"/>
       <c r="E418" s="9"/>
@@ -13458,7 +13458,7 @@
       <c r="AA418" s="9"/>
     </row>
     <row r="419" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B419" s="33"/>
+      <c r="B419" s="29"/>
       <c r="C419" s="9"/>
       <c r="D419" s="18"/>
       <c r="E419" s="9"/>
@@ -13486,7 +13486,7 @@
       <c r="AA419" s="9"/>
     </row>
     <row r="420" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B420" s="33"/>
+      <c r="B420" s="29"/>
       <c r="C420" s="9"/>
       <c r="D420" s="18"/>
       <c r="E420" s="9"/>
@@ -13514,7 +13514,7 @@
       <c r="AA420" s="9"/>
     </row>
     <row r="421" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B421" s="33"/>
+      <c r="B421" s="29"/>
       <c r="C421" s="9"/>
       <c r="D421" s="18"/>
       <c r="E421" s="9"/>
@@ -13542,7 +13542,7 @@
       <c r="AA421" s="9"/>
     </row>
     <row r="422" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B422" s="33"/>
+      <c r="B422" s="29"/>
       <c r="C422" s="9"/>
       <c r="D422" s="18"/>
       <c r="E422" s="9"/>
@@ -13570,7 +13570,7 @@
       <c r="AA422" s="9"/>
     </row>
     <row r="423" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B423" s="33"/>
+      <c r="B423" s="29"/>
       <c r="C423" s="9"/>
       <c r="D423" s="18"/>
       <c r="E423" s="9"/>
@@ -13598,7 +13598,7 @@
       <c r="AA423" s="9"/>
     </row>
     <row r="424" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B424" s="33"/>
+      <c r="B424" s="29"/>
       <c r="C424" s="9"/>
       <c r="D424" s="18"/>
       <c r="E424" s="9"/>
@@ -13626,7 +13626,7 @@
       <c r="AA424" s="9"/>
     </row>
     <row r="425" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B425" s="33"/>
+      <c r="B425" s="29"/>
       <c r="C425" s="9"/>
       <c r="D425" s="18"/>
       <c r="E425" s="9"/>
@@ -13654,7 +13654,7 @@
       <c r="AA425" s="9"/>
     </row>
     <row r="426" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B426" s="33"/>
+      <c r="B426" s="29"/>
       <c r="C426" s="9"/>
       <c r="D426" s="18"/>
       <c r="E426" s="9"/>
@@ -13682,7 +13682,7 @@
       <c r="AA426" s="9"/>
     </row>
     <row r="427" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B427" s="33"/>
+      <c r="B427" s="29"/>
       <c r="C427" s="9"/>
       <c r="D427" s="18"/>
       <c r="E427" s="9"/>
@@ -13710,7 +13710,7 @@
       <c r="AA427" s="9"/>
     </row>
     <row r="428" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B428" s="33"/>
+      <c r="B428" s="29"/>
       <c r="C428" s="9"/>
       <c r="D428" s="18"/>
       <c r="E428" s="9"/>
@@ -13738,7 +13738,7 @@
       <c r="AA428" s="9"/>
     </row>
     <row r="429" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B429" s="33"/>
+      <c r="B429" s="29"/>
       <c r="C429" s="9"/>
       <c r="D429" s="18"/>
       <c r="E429" s="9"/>
@@ -13766,7 +13766,7 @@
       <c r="AA429" s="9"/>
     </row>
     <row r="430" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B430" s="33"/>
+      <c r="B430" s="29"/>
       <c r="C430" s="9"/>
       <c r="D430" s="18"/>
       <c r="E430" s="9"/>
@@ -13794,7 +13794,7 @@
       <c r="AA430" s="9"/>
     </row>
     <row r="431" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B431" s="33"/>
+      <c r="B431" s="29"/>
       <c r="C431" s="9"/>
       <c r="D431" s="18"/>
       <c r="E431" s="9"/>
@@ -13822,7 +13822,7 @@
       <c r="AA431" s="9"/>
     </row>
     <row r="432" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B432" s="33"/>
+      <c r="B432" s="29"/>
       <c r="C432" s="9"/>
       <c r="D432" s="18"/>
       <c r="E432" s="9"/>
@@ -13850,7 +13850,7 @@
       <c r="AA432" s="9"/>
     </row>
     <row r="433" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B433" s="33"/>
+      <c r="B433" s="29"/>
       <c r="C433" s="9"/>
       <c r="D433" s="18"/>
       <c r="E433" s="9"/>
@@ -13878,7 +13878,7 @@
       <c r="AA433" s="9"/>
     </row>
     <row r="434" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B434" s="33"/>
+      <c r="B434" s="29"/>
       <c r="C434" s="9"/>
       <c r="D434" s="18"/>
       <c r="E434" s="9"/>
@@ -13906,7 +13906,7 @@
       <c r="AA434" s="9"/>
     </row>
     <row r="435" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B435" s="33"/>
+      <c r="B435" s="29"/>
       <c r="C435" s="9"/>
       <c r="D435" s="18"/>
       <c r="E435" s="9"/>
@@ -13934,7 +13934,7 @@
       <c r="AA435" s="9"/>
     </row>
     <row r="436" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B436" s="33"/>
+      <c r="B436" s="29"/>
       <c r="C436" s="9"/>
       <c r="D436" s="18"/>
       <c r="E436" s="9"/>
@@ -13962,7 +13962,7 @@
       <c r="AA436" s="9"/>
     </row>
     <row r="437" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B437" s="33"/>
+      <c r="B437" s="29"/>
       <c r="C437" s="9"/>
       <c r="D437" s="18"/>
       <c r="E437" s="9"/>
@@ -13990,7 +13990,7 @@
       <c r="AA437" s="9"/>
     </row>
     <row r="438" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B438" s="33"/>
+      <c r="B438" s="29"/>
       <c r="C438" s="9"/>
       <c r="D438" s="18"/>
       <c r="E438" s="9"/>
@@ -14018,7 +14018,7 @@
       <c r="AA438" s="9"/>
     </row>
     <row r="439" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B439" s="33"/>
+      <c r="B439" s="29"/>
       <c r="C439" s="9"/>
       <c r="D439" s="18"/>
       <c r="E439" s="9"/>
@@ -14046,7 +14046,7 @@
       <c r="AA439" s="9"/>
     </row>
     <row r="440" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B440" s="33"/>
+      <c r="B440" s="29"/>
       <c r="C440" s="9"/>
       <c r="D440" s="18"/>
       <c r="E440" s="9"/>
@@ -14074,7 +14074,7 @@
       <c r="AA440" s="9"/>
     </row>
     <row r="441" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B441" s="33"/>
+      <c r="B441" s="29"/>
       <c r="C441" s="9"/>
       <c r="D441" s="18"/>
       <c r="E441" s="9"/>
@@ -14102,7 +14102,7 @@
       <c r="AA441" s="9"/>
     </row>
     <row r="442" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B442" s="33"/>
+      <c r="B442" s="29"/>
       <c r="C442" s="9"/>
       <c r="D442" s="18"/>
       <c r="E442" s="9"/>
@@ -14130,7 +14130,7 @@
       <c r="AA442" s="9"/>
     </row>
     <row r="443" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B443" s="33"/>
+      <c r="B443" s="29"/>
       <c r="C443" s="9"/>
       <c r="D443" s="18"/>
       <c r="E443" s="9"/>
@@ -14158,7 +14158,7 @@
       <c r="AA443" s="9"/>
     </row>
     <row r="444" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B444" s="33"/>
+      <c r="B444" s="29"/>
       <c r="C444" s="9"/>
       <c r="D444" s="18"/>
       <c r="E444" s="9"/>
@@ -14186,7 +14186,7 @@
       <c r="AA444" s="9"/>
     </row>
     <row r="445" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B445" s="33"/>
+      <c r="B445" s="29"/>
       <c r="C445" s="9"/>
       <c r="D445" s="18"/>
       <c r="E445" s="9"/>
@@ -14214,7 +14214,7 @@
       <c r="AA445" s="9"/>
     </row>
     <row r="446" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B446" s="33"/>
+      <c r="B446" s="29"/>
       <c r="C446" s="9"/>
       <c r="D446" s="18"/>
       <c r="E446" s="9"/>
@@ -14242,7 +14242,7 @@
       <c r="AA446" s="9"/>
     </row>
     <row r="447" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B447" s="33"/>
+      <c r="B447" s="29"/>
       <c r="C447" s="9"/>
       <c r="D447" s="18"/>
       <c r="E447" s="9"/>
@@ -14270,7 +14270,7 @@
       <c r="AA447" s="9"/>
     </row>
     <row r="448" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B448" s="33"/>
+      <c r="B448" s="29"/>
       <c r="C448" s="9"/>
       <c r="D448" s="18"/>
       <c r="E448" s="9"/>
@@ -14298,7 +14298,7 @@
       <c r="AA448" s="9"/>
     </row>
     <row r="449" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B449" s="33"/>
+      <c r="B449" s="29"/>
       <c r="C449" s="9"/>
       <c r="D449" s="18"/>
       <c r="E449" s="9"/>
@@ -14326,7 +14326,7 @@
       <c r="AA449" s="9"/>
     </row>
     <row r="450" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B450" s="33"/>
+      <c r="B450" s="29"/>
       <c r="C450" s="9"/>
       <c r="D450" s="18"/>
       <c r="E450" s="9"/>
@@ -14354,7 +14354,7 @@
       <c r="AA450" s="9"/>
     </row>
     <row r="451" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B451" s="33"/>
+      <c r="B451" s="29"/>
       <c r="C451" s="9"/>
       <c r="D451" s="18"/>
       <c r="E451" s="9"/>
@@ -14382,7 +14382,7 @@
       <c r="AA451" s="9"/>
     </row>
     <row r="452" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B452" s="33"/>
+      <c r="B452" s="29"/>
       <c r="C452" s="9"/>
       <c r="D452" s="18"/>
       <c r="E452" s="9"/>
@@ -14410,7 +14410,7 @@
       <c r="AA452" s="9"/>
     </row>
     <row r="453" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B453" s="33"/>
+      <c r="B453" s="29"/>
       <c r="C453" s="9"/>
       <c r="D453" s="18"/>
       <c r="E453" s="9"/>
@@ -14438,7 +14438,7 @@
       <c r="AA453" s="9"/>
     </row>
     <row r="454" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B454" s="33"/>
+      <c r="B454" s="29"/>
       <c r="C454" s="9"/>
       <c r="D454" s="18"/>
       <c r="E454" s="9"/>
@@ -14466,7 +14466,7 @@
       <c r="AA454" s="9"/>
     </row>
     <row r="455" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B455" s="33"/>
+      <c r="B455" s="29"/>
       <c r="C455" s="9"/>
       <c r="D455" s="18"/>
       <c r="E455" s="9"/>
@@ -14494,7 +14494,7 @@
       <c r="AA455" s="9"/>
     </row>
     <row r="456" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B456" s="33"/>
+      <c r="B456" s="29"/>
       <c r="C456" s="9"/>
       <c r="D456" s="18"/>
       <c r="E456" s="9"/>
@@ -14522,7 +14522,7 @@
       <c r="AA456" s="9"/>
     </row>
     <row r="457" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B457" s="33"/>
+      <c r="B457" s="29"/>
       <c r="C457" s="9"/>
       <c r="D457" s="18"/>
       <c r="E457" s="9"/>
@@ -14550,7 +14550,7 @@
       <c r="AA457" s="9"/>
     </row>
     <row r="458" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B458" s="33"/>
+      <c r="B458" s="29"/>
       <c r="C458" s="9"/>
       <c r="D458" s="18"/>
       <c r="E458" s="9"/>
@@ -14578,7 +14578,7 @@
       <c r="AA458" s="9"/>
     </row>
     <row r="459" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B459" s="33"/>
+      <c r="B459" s="29"/>
       <c r="C459" s="9"/>
       <c r="D459" s="18"/>
       <c r="E459" s="9"/>
@@ -14606,7 +14606,7 @@
       <c r="AA459" s="9"/>
     </row>
     <row r="460" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B460" s="33"/>
+      <c r="B460" s="29"/>
       <c r="C460" s="9"/>
       <c r="D460" s="18"/>
       <c r="E460" s="9"/>
@@ -14634,7 +14634,7 @@
       <c r="AA460" s="9"/>
     </row>
     <row r="461" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B461" s="33"/>
+      <c r="B461" s="29"/>
       <c r="C461" s="9"/>
       <c r="D461" s="18"/>
       <c r="E461" s="9"/>
@@ -14662,7 +14662,7 @@
       <c r="AA461" s="9"/>
     </row>
     <row r="462" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B462" s="33"/>
+      <c r="B462" s="29"/>
       <c r="C462" s="9"/>
       <c r="D462" s="18"/>
       <c r="E462" s="9"/>
@@ -14690,7 +14690,7 @@
       <c r="AA462" s="9"/>
     </row>
     <row r="463" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B463" s="33"/>
+      <c r="B463" s="29"/>
       <c r="C463" s="9"/>
       <c r="D463" s="18"/>
       <c r="E463" s="9"/>
@@ -14718,7 +14718,7 @@
       <c r="AA463" s="9"/>
     </row>
     <row r="464" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B464" s="33"/>
+      <c r="B464" s="29"/>
       <c r="C464" s="9"/>
       <c r="D464" s="18"/>
       <c r="E464" s="9"/>
@@ -14746,7 +14746,7 @@
       <c r="AA464" s="9"/>
     </row>
     <row r="465" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B465" s="33"/>
+      <c r="B465" s="29"/>
       <c r="C465" s="9"/>
       <c r="D465" s="18"/>
       <c r="E465" s="9"/>
@@ -14774,7 +14774,7 @@
       <c r="AA465" s="9"/>
     </row>
     <row r="466" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B466" s="33"/>
+      <c r="B466" s="29"/>
       <c r="C466" s="9"/>
       <c r="D466" s="18"/>
       <c r="E466" s="9"/>
@@ -14802,7 +14802,7 @@
       <c r="AA466" s="9"/>
     </row>
     <row r="467" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B467" s="33"/>
+      <c r="B467" s="29"/>
       <c r="C467" s="9"/>
       <c r="D467" s="18"/>
       <c r="E467" s="9"/>
@@ -14830,7 +14830,7 @@
       <c r="AA467" s="9"/>
     </row>
     <row r="468" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B468" s="33"/>
+      <c r="B468" s="29"/>
       <c r="C468" s="9"/>
       <c r="D468" s="18"/>
       <c r="E468" s="9"/>
@@ -14858,7 +14858,7 @@
       <c r="AA468" s="9"/>
     </row>
     <row r="469" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B469" s="33"/>
+      <c r="B469" s="29"/>
       <c r="C469" s="9"/>
       <c r="D469" s="18"/>
       <c r="E469" s="9"/>
@@ -14886,7 +14886,7 @@
       <c r="AA469" s="9"/>
     </row>
     <row r="470" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B470" s="33"/>
+      <c r="B470" s="29"/>
       <c r="C470" s="9"/>
       <c r="D470" s="18"/>
       <c r="E470" s="9"/>
@@ -14914,7 +14914,7 @@
       <c r="AA470" s="9"/>
     </row>
     <row r="471" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B471" s="33"/>
+      <c r="B471" s="29"/>
       <c r="C471" s="9"/>
       <c r="D471" s="18"/>
       <c r="E471" s="9"/>
@@ -14942,7 +14942,7 @@
       <c r="AA471" s="9"/>
     </row>
     <row r="472" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B472" s="33"/>
+      <c r="B472" s="29"/>
       <c r="C472" s="9"/>
       <c r="D472" s="18"/>
       <c r="E472" s="9"/>
@@ -14970,7 +14970,7 @@
       <c r="AA472" s="9"/>
     </row>
     <row r="473" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B473" s="33"/>
+      <c r="B473" s="29"/>
       <c r="C473" s="9"/>
       <c r="D473" s="18"/>
       <c r="E473" s="9"/>
@@ -14998,7 +14998,7 @@
       <c r="AA473" s="9"/>
     </row>
     <row r="474" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B474" s="33"/>
+      <c r="B474" s="29"/>
       <c r="C474" s="9"/>
       <c r="D474" s="18"/>
       <c r="E474" s="9"/>
@@ -15026,7 +15026,7 @@
       <c r="AA474" s="9"/>
     </row>
     <row r="475" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B475" s="33"/>
+      <c r="B475" s="29"/>
       <c r="C475" s="9"/>
       <c r="D475" s="18"/>
       <c r="E475" s="9"/>
@@ -15054,7 +15054,7 @@
       <c r="AA475" s="9"/>
     </row>
     <row r="476" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B476" s="33"/>
+      <c r="B476" s="29"/>
       <c r="C476" s="9"/>
       <c r="D476" s="18"/>
       <c r="E476" s="9"/>
@@ -15082,7 +15082,7 @@
       <c r="AA476" s="9"/>
     </row>
     <row r="477" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B477" s="33"/>
+      <c r="B477" s="29"/>
       <c r="C477" s="9"/>
       <c r="D477" s="18"/>
       <c r="E477" s="9"/>
@@ -15110,7 +15110,7 @@
       <c r="AA477" s="9"/>
     </row>
     <row r="478" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B478" s="33"/>
+      <c r="B478" s="29"/>
       <c r="C478" s="9"/>
       <c r="D478" s="18"/>
       <c r="E478" s="9"/>
@@ -15138,7 +15138,7 @@
       <c r="AA478" s="9"/>
     </row>
     <row r="479" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B479" s="33"/>
+      <c r="B479" s="29"/>
       <c r="C479" s="9"/>
       <c r="D479" s="18"/>
       <c r="E479" s="9"/>
@@ -15166,7 +15166,7 @@
       <c r="AA479" s="9"/>
     </row>
     <row r="480" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B480" s="33"/>
+      <c r="B480" s="29"/>
       <c r="C480" s="9"/>
       <c r="D480" s="18"/>
       <c r="E480" s="9"/>
@@ -15194,7 +15194,7 @@
       <c r="AA480" s="9"/>
     </row>
     <row r="481" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B481" s="33"/>
+      <c r="B481" s="29"/>
       <c r="C481" s="9"/>
       <c r="D481" s="18"/>
       <c r="E481" s="9"/>
@@ -15222,7 +15222,7 @@
       <c r="AA481" s="9"/>
     </row>
     <row r="482" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B482" s="33"/>
+      <c r="B482" s="29"/>
       <c r="C482" s="9"/>
       <c r="D482" s="18"/>
       <c r="E482" s="9"/>
@@ -15250,7 +15250,7 @@
       <c r="AA482" s="9"/>
     </row>
     <row r="483" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B483" s="33"/>
+      <c r="B483" s="29"/>
       <c r="C483" s="9"/>
       <c r="D483" s="18"/>
       <c r="E483" s="9"/>
@@ -15278,7 +15278,7 @@
       <c r="AA483" s="9"/>
     </row>
     <row r="484" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B484" s="33"/>
+      <c r="B484" s="29"/>
       <c r="C484" s="9"/>
       <c r="D484" s="18"/>
       <c r="E484" s="9"/>
@@ -15306,7 +15306,7 @@
       <c r="AA484" s="9"/>
     </row>
     <row r="485" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B485" s="33"/>
+      <c r="B485" s="29"/>
       <c r="C485" s="9"/>
       <c r="D485" s="18"/>
       <c r="E485" s="9"/>
@@ -15334,7 +15334,7 @@
       <c r="AA485" s="9"/>
     </row>
     <row r="486" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B486" s="33"/>
+      <c r="B486" s="29"/>
       <c r="C486" s="9"/>
       <c r="D486" s="18"/>
       <c r="E486" s="9"/>
@@ -15362,7 +15362,7 @@
       <c r="AA486" s="9"/>
     </row>
     <row r="487" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B487" s="33"/>
+      <c r="B487" s="29"/>
       <c r="C487" s="9"/>
       <c r="D487" s="18"/>
       <c r="E487" s="9"/>
@@ -15390,7 +15390,7 @@
       <c r="AA487" s="9"/>
     </row>
     <row r="488" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B488" s="33"/>
+      <c r="B488" s="29"/>
       <c r="C488" s="9"/>
       <c r="D488" s="18"/>
       <c r="E488" s="9"/>
@@ -15418,7 +15418,7 @@
       <c r="AA488" s="9"/>
     </row>
     <row r="489" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B489" s="33"/>
+      <c r="B489" s="29"/>
       <c r="C489" s="9"/>
       <c r="D489" s="18"/>
       <c r="E489" s="9"/>
@@ -15446,7 +15446,7 @@
       <c r="AA489" s="9"/>
     </row>
     <row r="490" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B490" s="33"/>
+      <c r="B490" s="29"/>
       <c r="C490" s="9"/>
       <c r="D490" s="18"/>
       <c r="E490" s="9"/>
@@ -15474,7 +15474,7 @@
       <c r="AA490" s="9"/>
     </row>
     <row r="491" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B491" s="33"/>
+      <c r="B491" s="29"/>
       <c r="C491" s="9"/>
       <c r="D491" s="18"/>
       <c r="E491" s="9"/>
@@ -15502,7 +15502,7 @@
       <c r="AA491" s="9"/>
     </row>
     <row r="492" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B492" s="33"/>
+      <c r="B492" s="29"/>
       <c r="C492" s="9"/>
       <c r="D492" s="18"/>
       <c r="E492" s="9"/>
@@ -15530,7 +15530,7 @@
       <c r="AA492" s="9"/>
     </row>
     <row r="493" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B493" s="33"/>
+      <c r="B493" s="29"/>
       <c r="C493" s="9"/>
       <c r="D493" s="18"/>
       <c r="E493" s="9"/>
@@ -15558,7 +15558,7 @@
       <c r="AA493" s="9"/>
     </row>
     <row r="494" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B494" s="33"/>
+      <c r="B494" s="29"/>
       <c r="C494" s="9"/>
       <c r="D494" s="18"/>
       <c r="E494" s="9"/>
@@ -15586,7 +15586,7 @@
       <c r="AA494" s="9"/>
     </row>
     <row r="495" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B495" s="33"/>
+      <c r="B495" s="29"/>
       <c r="C495" s="9"/>
       <c r="D495" s="18"/>
       <c r="E495" s="9"/>
@@ -15614,7 +15614,7 @@
       <c r="AA495" s="9"/>
     </row>
     <row r="496" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B496" s="33"/>
+      <c r="B496" s="29"/>
       <c r="C496" s="9"/>
       <c r="D496" s="18"/>
       <c r="E496" s="9"/>
@@ -15642,7 +15642,7 @@
       <c r="AA496" s="9"/>
     </row>
     <row r="497" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B497" s="33"/>
+      <c r="B497" s="29"/>
       <c r="C497" s="9"/>
       <c r="D497" s="18"/>
       <c r="E497" s="9"/>
@@ -15670,7 +15670,7 @@
       <c r="AA497" s="9"/>
     </row>
     <row r="498" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B498" s="33"/>
+      <c r="B498" s="29"/>
       <c r="C498" s="9"/>
       <c r="D498" s="18"/>
       <c r="E498" s="9"/>
@@ -15698,7 +15698,7 @@
       <c r="AA498" s="9"/>
     </row>
     <row r="499" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B499" s="33"/>
+      <c r="B499" s="29"/>
       <c r="C499" s="9"/>
       <c r="D499" s="18"/>
       <c r="E499" s="9"/>
@@ -15726,7 +15726,7 @@
       <c r="AA499" s="9"/>
     </row>
     <row r="500" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B500" s="33"/>
+      <c r="B500" s="29"/>
       <c r="C500" s="9"/>
       <c r="D500" s="18"/>
       <c r="E500" s="9"/>
@@ -15754,7 +15754,7 @@
       <c r="AA500" s="9"/>
     </row>
     <row r="501" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B501" s="33"/>
+      <c r="B501" s="29"/>
       <c r="C501" s="9"/>
       <c r="D501" s="18"/>
       <c r="E501" s="9"/>
@@ -15782,7 +15782,7 @@
       <c r="AA501" s="9"/>
     </row>
     <row r="502" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B502" s="33"/>
+      <c r="B502" s="29"/>
       <c r="C502" s="9"/>
       <c r="D502" s="18"/>
       <c r="E502" s="9"/>
@@ -15810,7 +15810,7 @@
       <c r="AA502" s="9"/>
     </row>
     <row r="503" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B503" s="33"/>
+      <c r="B503" s="29"/>
       <c r="C503" s="9"/>
       <c r="D503" s="18"/>
       <c r="E503" s="9"/>
@@ -15838,7 +15838,7 @@
       <c r="AA503" s="9"/>
     </row>
     <row r="504" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B504" s="33"/>
+      <c r="B504" s="29"/>
       <c r="C504" s="9"/>
       <c r="D504" s="18"/>
       <c r="E504" s="9"/>
@@ -15866,7 +15866,7 @@
       <c r="AA504" s="9"/>
     </row>
     <row r="505" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B505" s="33"/>
+      <c r="B505" s="29"/>
       <c r="C505" s="9"/>
       <c r="D505" s="18"/>
       <c r="E505" s="9"/>
@@ -15894,7 +15894,7 @@
       <c r="AA505" s="9"/>
     </row>
     <row r="506" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B506" s="33"/>
+      <c r="B506" s="29"/>
       <c r="C506" s="9"/>
       <c r="D506" s="18"/>
       <c r="E506" s="9"/>
@@ -15922,7 +15922,7 @@
       <c r="AA506" s="9"/>
     </row>
     <row r="507" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B507" s="33"/>
+      <c r="B507" s="29"/>
       <c r="C507" s="9"/>
       <c r="D507" s="18"/>
       <c r="E507" s="9"/>
@@ -15950,7 +15950,7 @@
       <c r="AA507" s="9"/>
     </row>
     <row r="508" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B508" s="33"/>
+      <c r="B508" s="29"/>
       <c r="C508" s="9"/>
       <c r="D508" s="18"/>
       <c r="E508" s="9"/>
@@ -15978,7 +15978,7 @@
       <c r="AA508" s="9"/>
     </row>
     <row r="509" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B509" s="33"/>
+      <c r="B509" s="29"/>
       <c r="C509" s="9"/>
       <c r="D509" s="18"/>
       <c r="E509" s="9"/>
@@ -16006,7 +16006,7 @@
       <c r="AA509" s="9"/>
     </row>
     <row r="510" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B510" s="33"/>
+      <c r="B510" s="29"/>
       <c r="C510" s="9"/>
       <c r="D510" s="18"/>
       <c r="E510" s="9"/>
@@ -16034,7 +16034,7 @@
       <c r="AA510" s="9"/>
     </row>
     <row r="511" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B511" s="33"/>
+      <c r="B511" s="29"/>
       <c r="C511" s="9"/>
       <c r="D511" s="18"/>
       <c r="E511" s="9"/>
@@ -16062,7 +16062,7 @@
       <c r="AA511" s="9"/>
     </row>
     <row r="512" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B512" s="33"/>
+      <c r="B512" s="29"/>
       <c r="C512" s="9"/>
       <c r="D512" s="18"/>
       <c r="E512" s="9"/>
@@ -16090,7 +16090,7 @@
       <c r="AA512" s="9"/>
     </row>
     <row r="513" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B513" s="33"/>
+      <c r="B513" s="29"/>
       <c r="C513" s="9"/>
       <c r="D513" s="18"/>
       <c r="E513" s="9"/>
@@ -16118,7 +16118,7 @@
       <c r="AA513" s="9"/>
     </row>
     <row r="514" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B514" s="33"/>
+      <c r="B514" s="29"/>
       <c r="C514" s="9"/>
       <c r="D514" s="18"/>
       <c r="E514" s="9"/>
@@ -16146,7 +16146,7 @@
       <c r="AA514" s="9"/>
     </row>
     <row r="515" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B515" s="33"/>
+      <c r="B515" s="29"/>
       <c r="C515" s="9"/>
       <c r="D515" s="18"/>
       <c r="E515" s="9"/>
@@ -16174,7 +16174,7 @@
       <c r="AA515" s="9"/>
     </row>
     <row r="516" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B516" s="33"/>
+      <c r="B516" s="29"/>
       <c r="C516" s="9"/>
       <c r="D516" s="18"/>
       <c r="E516" s="9"/>
@@ -16202,7 +16202,7 @@
       <c r="AA516" s="9"/>
     </row>
     <row r="517" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B517" s="33"/>
+      <c r="B517" s="29"/>
       <c r="C517" s="9"/>
       <c r="D517" s="18"/>
       <c r="E517" s="9"/>
@@ -16230,7 +16230,7 @@
       <c r="AA517" s="9"/>
     </row>
     <row r="518" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B518" s="33"/>
+      <c r="B518" s="29"/>
       <c r="C518" s="9"/>
       <c r="D518" s="18"/>
       <c r="E518" s="9"/>
@@ -16258,7 +16258,7 @@
       <c r="AA518" s="9"/>
     </row>
     <row r="519" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B519" s="33"/>
+      <c r="B519" s="29"/>
       <c r="C519" s="9"/>
       <c r="D519" s="18"/>
       <c r="E519" s="9"/>
@@ -16286,7 +16286,7 @@
       <c r="AA519" s="9"/>
     </row>
     <row r="520" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B520" s="33"/>
+      <c r="B520" s="29"/>
       <c r="C520" s="9"/>
       <c r="D520" s="18"/>
       <c r="E520" s="9"/>
@@ -16314,7 +16314,7 @@
       <c r="AA520" s="9"/>
     </row>
     <row r="521" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B521" s="33"/>
+      <c r="B521" s="29"/>
       <c r="C521" s="9"/>
       <c r="D521" s="18"/>
       <c r="E521" s="9"/>
@@ -16342,7 +16342,7 @@
       <c r="AA521" s="9"/>
     </row>
     <row r="522" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B522" s="33"/>
+      <c r="B522" s="29"/>
       <c r="C522" s="9"/>
       <c r="D522" s="18"/>
       <c r="E522" s="9"/>
@@ -16370,7 +16370,7 @@
       <c r="AA522" s="9"/>
     </row>
     <row r="523" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B523" s="33"/>
+      <c r="B523" s="29"/>
       <c r="C523" s="9"/>
       <c r="D523" s="18"/>
       <c r="E523" s="9"/>
@@ -16398,7 +16398,7 @@
       <c r="AA523" s="9"/>
     </row>
     <row r="524" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B524" s="33"/>
+      <c r="B524" s="29"/>
       <c r="C524" s="9"/>
       <c r="D524" s="18"/>
       <c r="E524" s="9"/>
@@ -16426,7 +16426,7 @@
       <c r="AA524" s="9"/>
     </row>
     <row r="525" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B525" s="33"/>
+      <c r="B525" s="29"/>
       <c r="C525" s="9"/>
       <c r="D525" s="18"/>
       <c r="E525" s="9"/>
@@ -16454,7 +16454,7 @@
       <c r="AA525" s="9"/>
     </row>
     <row r="526" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B526" s="33"/>
+      <c r="B526" s="29"/>
       <c r="C526" s="9"/>
       <c r="D526" s="18"/>
       <c r="E526" s="9"/>
@@ -16482,7 +16482,7 @@
       <c r="AA526" s="9"/>
     </row>
     <row r="527" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B527" s="33"/>
+      <c r="B527" s="29"/>
       <c r="C527" s="9"/>
       <c r="D527" s="18"/>
       <c r="E527" s="9"/>
@@ -16510,7 +16510,7 @@
       <c r="AA527" s="9"/>
     </row>
     <row r="528" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B528" s="33"/>
+      <c r="B528" s="29"/>
       <c r="C528" s="9"/>
       <c r="D528" s="18"/>
       <c r="E528" s="9"/>
@@ -16538,7 +16538,7 @@
       <c r="AA528" s="9"/>
     </row>
     <row r="529" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B529" s="33"/>
+      <c r="B529" s="29"/>
       <c r="C529" s="9"/>
       <c r="D529" s="18"/>
       <c r="E529" s="9"/>
@@ -16566,7 +16566,7 @@
       <c r="AA529" s="9"/>
     </row>
     <row r="530" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B530" s="33"/>
+      <c r="B530" s="29"/>
       <c r="C530" s="9"/>
       <c r="D530" s="18"/>
       <c r="E530" s="9"/>
@@ -16594,7 +16594,7 @@
       <c r="AA530" s="9"/>
     </row>
     <row r="531" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B531" s="33"/>
+      <c r="B531" s="29"/>
       <c r="C531" s="9"/>
       <c r="D531" s="18"/>
       <c r="E531" s="9"/>
@@ -16622,7 +16622,7 @@
       <c r="AA531" s="9"/>
     </row>
     <row r="532" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B532" s="33"/>
+      <c r="B532" s="29"/>
       <c r="C532" s="9"/>
       <c r="D532" s="18"/>
       <c r="E532" s="9"/>
@@ -16650,7 +16650,7 @@
       <c r="AA532" s="9"/>
     </row>
     <row r="533" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B533" s="33"/>
+      <c r="B533" s="29"/>
       <c r="C533" s="9"/>
       <c r="D533" s="18"/>
       <c r="E533" s="9"/>
@@ -16678,7 +16678,7 @@
       <c r="AA533" s="9"/>
     </row>
     <row r="534" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B534" s="33"/>
+      <c r="B534" s="29"/>
       <c r="C534" s="9"/>
       <c r="D534" s="18"/>
       <c r="E534" s="9"/>
@@ -16706,7 +16706,7 @@
       <c r="AA534" s="9"/>
     </row>
     <row r="535" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B535" s="33"/>
+      <c r="B535" s="29"/>
       <c r="C535" s="9"/>
       <c r="D535" s="18"/>
       <c r="E535" s="9"/>
@@ -16734,7 +16734,7 @@
       <c r="AA535" s="9"/>
     </row>
     <row r="536" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B536" s="33"/>
+      <c r="B536" s="29"/>
       <c r="C536" s="9"/>
       <c r="D536" s="18"/>
       <c r="E536" s="9"/>
@@ -16762,7 +16762,7 @@
       <c r="AA536" s="9"/>
     </row>
     <row r="537" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B537" s="33"/>
+      <c r="B537" s="29"/>
       <c r="C537" s="9"/>
       <c r="D537" s="18"/>
       <c r="E537" s="9"/>
@@ -16790,7 +16790,7 @@
       <c r="AA537" s="9"/>
     </row>
     <row r="538" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B538" s="33"/>
+      <c r="B538" s="29"/>
       <c r="C538" s="9"/>
       <c r="D538" s="18"/>
       <c r="E538" s="9"/>
@@ -16818,7 +16818,7 @@
       <c r="AA538" s="9"/>
     </row>
     <row r="539" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B539" s="33"/>
+      <c r="B539" s="29"/>
       <c r="C539" s="9"/>
       <c r="D539" s="18"/>
       <c r="E539" s="9"/>
@@ -16846,7 +16846,7 @@
       <c r="AA539" s="9"/>
     </row>
     <row r="540" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B540" s="33"/>
+      <c r="B540" s="29"/>
       <c r="C540" s="9"/>
       <c r="D540" s="18"/>
       <c r="E540" s="9"/>
@@ -16874,7 +16874,7 @@
       <c r="AA540" s="9"/>
     </row>
     <row r="541" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B541" s="33"/>
+      <c r="B541" s="29"/>
       <c r="C541" s="9"/>
       <c r="D541" s="18"/>
       <c r="E541" s="9"/>
@@ -16902,7 +16902,7 @@
       <c r="AA541" s="9"/>
     </row>
     <row r="542" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B542" s="33"/>
+      <c r="B542" s="29"/>
       <c r="C542" s="9"/>
       <c r="D542" s="18"/>
       <c r="E542" s="9"/>
@@ -16930,7 +16930,7 @@
       <c r="AA542" s="9"/>
     </row>
     <row r="543" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B543" s="33"/>
+      <c r="B543" s="29"/>
       <c r="C543" s="9"/>
       <c r="D543" s="18"/>
       <c r="E543" s="9"/>
@@ -16958,7 +16958,7 @@
       <c r="AA543" s="9"/>
     </row>
     <row r="544" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B544" s="33"/>
+      <c r="B544" s="29"/>
       <c r="C544" s="9"/>
       <c r="D544" s="18"/>
       <c r="E544" s="9"/>
@@ -16986,7 +16986,7 @@
       <c r="AA544" s="9"/>
     </row>
     <row r="545" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B545" s="33"/>
+      <c r="B545" s="29"/>
       <c r="C545" s="9"/>
       <c r="D545" s="18"/>
       <c r="E545" s="9"/>
@@ -17014,7 +17014,7 @@
       <c r="AA545" s="9"/>
     </row>
     <row r="546" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B546" s="33"/>
+      <c r="B546" s="29"/>
       <c r="C546" s="9"/>
       <c r="D546" s="18"/>
       <c r="E546" s="9"/>
@@ -17042,7 +17042,7 @@
       <c r="AA546" s="9"/>
     </row>
     <row r="547" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B547" s="33"/>
+      <c r="B547" s="29"/>
       <c r="C547" s="9"/>
       <c r="D547" s="18"/>
       <c r="E547" s="9"/>
@@ -17070,7 +17070,7 @@
       <c r="AA547" s="9"/>
     </row>
     <row r="548" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B548" s="33"/>
+      <c r="B548" s="29"/>
       <c r="C548" s="9"/>
       <c r="D548" s="18"/>
       <c r="E548" s="9"/>
@@ -17098,7 +17098,7 @@
       <c r="AA548" s="9"/>
     </row>
     <row r="549" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B549" s="33"/>
+      <c r="B549" s="29"/>
       <c r="C549" s="9"/>
       <c r="D549" s="18"/>
       <c r="E549" s="9"/>
@@ -17126,7 +17126,7 @@
       <c r="AA549" s="9"/>
     </row>
     <row r="550" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B550" s="33"/>
+      <c r="B550" s="29"/>
       <c r="C550" s="9"/>
       <c r="D550" s="18"/>
       <c r="E550" s="9"/>
@@ -17154,7 +17154,7 @@
       <c r="AA550" s="9"/>
     </row>
     <row r="551" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B551" s="33"/>
+      <c r="B551" s="29"/>
       <c r="C551" s="9"/>
       <c r="D551" s="18"/>
       <c r="E551" s="9"/>
@@ -17182,7 +17182,7 @@
       <c r="AA551" s="9"/>
     </row>
     <row r="552" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B552" s="33"/>
+      <c r="B552" s="29"/>
       <c r="C552" s="9"/>
       <c r="D552" s="18"/>
       <c r="E552" s="9"/>
@@ -17210,7 +17210,7 @@
       <c r="AA552" s="9"/>
     </row>
     <row r="553" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B553" s="33"/>
+      <c r="B553" s="29"/>
       <c r="C553" s="9"/>
       <c r="D553" s="18"/>
       <c r="E553" s="9"/>
@@ -17238,7 +17238,7 @@
       <c r="AA553" s="9"/>
     </row>
     <row r="554" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B554" s="33"/>
+      <c r="B554" s="29"/>
       <c r="C554" s="9"/>
       <c r="D554" s="18"/>
       <c r="E554" s="9"/>
@@ -17266,7 +17266,7 @@
       <c r="AA554" s="9"/>
     </row>
     <row r="555" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B555" s="33"/>
+      <c r="B555" s="29"/>
       <c r="C555" s="9"/>
       <c r="D555" s="18"/>
       <c r="E555" s="9"/>
@@ -17294,7 +17294,7 @@
       <c r="AA555" s="9"/>
     </row>
     <row r="556" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B556" s="33"/>
+      <c r="B556" s="29"/>
       <c r="C556" s="9"/>
       <c r="D556" s="18"/>
       <c r="E556" s="9"/>
@@ -17322,7 +17322,7 @@
       <c r="AA556" s="9"/>
     </row>
     <row r="557" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B557" s="33"/>
+      <c r="B557" s="29"/>
       <c r="C557" s="9"/>
       <c r="D557" s="18"/>
       <c r="E557" s="9"/>
@@ -17350,7 +17350,7 @@
       <c r="AA557" s="9"/>
     </row>
     <row r="558" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B558" s="33"/>
+      <c r="B558" s="29"/>
       <c r="C558" s="9"/>
       <c r="D558" s="18"/>
       <c r="E558" s="9"/>
@@ -17378,7 +17378,7 @@
       <c r="AA558" s="9"/>
     </row>
     <row r="559" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B559" s="33"/>
+      <c r="B559" s="29"/>
       <c r="C559" s="9"/>
       <c r="D559" s="18"/>
       <c r="E559" s="9"/>
@@ -17406,7 +17406,7 @@
       <c r="AA559" s="9"/>
     </row>
     <row r="560" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B560" s="33"/>
+      <c r="B560" s="29"/>
       <c r="C560" s="9"/>
       <c r="D560" s="18"/>
       <c r="E560" s="9"/>
@@ -17434,7 +17434,7 @@
       <c r="AA560" s="9"/>
     </row>
     <row r="561" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B561" s="33"/>
+      <c r="B561" s="29"/>
       <c r="C561" s="9"/>
       <c r="D561" s="18"/>
       <c r="E561" s="9"/>
@@ -17462,7 +17462,7 @@
       <c r="AA561" s="9"/>
     </row>
     <row r="562" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B562" s="33"/>
+      <c r="B562" s="29"/>
       <c r="C562" s="9"/>
       <c r="D562" s="18"/>
       <c r="E562" s="9"/>
@@ -17490,7 +17490,7 @@
       <c r="AA562" s="9"/>
     </row>
     <row r="563" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B563" s="33"/>
+      <c r="B563" s="29"/>
       <c r="C563" s="9"/>
       <c r="D563" s="18"/>
       <c r="E563" s="9"/>
@@ -17518,7 +17518,7 @@
       <c r="AA563" s="9"/>
     </row>
     <row r="564" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B564" s="33"/>
+      <c r="B564" s="29"/>
       <c r="C564" s="9"/>
       <c r="D564" s="18"/>
       <c r="E564" s="9"/>
@@ -17546,7 +17546,7 @@
       <c r="AA564" s="9"/>
     </row>
     <row r="565" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B565" s="33"/>
+      <c r="B565" s="29"/>
       <c r="C565" s="9"/>
       <c r="D565" s="18"/>
       <c r="E565" s="9"/>
@@ -17574,7 +17574,7 @@
       <c r="AA565" s="9"/>
     </row>
     <row r="566" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B566" s="33"/>
+      <c r="B566" s="29"/>
       <c r="C566" s="9"/>
       <c r="D566" s="18"/>
       <c r="E566" s="9"/>
@@ -17602,7 +17602,7 @@
       <c r="AA566" s="9"/>
     </row>
     <row r="567" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B567" s="33"/>
+      <c r="B567" s="29"/>
       <c r="C567" s="9"/>
       <c r="D567" s="18"/>
       <c r="E567" s="9"/>
@@ -17630,7 +17630,7 @@
       <c r="AA567" s="9"/>
     </row>
     <row r="568" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B568" s="33"/>
+      <c r="B568" s="29"/>
       <c r="C568" s="9"/>
       <c r="D568" s="18"/>
       <c r="E568" s="9"/>
@@ -17658,7 +17658,7 @@
       <c r="AA568" s="9"/>
     </row>
     <row r="569" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B569" s="33"/>
+      <c r="B569" s="29"/>
       <c r="C569" s="9"/>
       <c r="D569" s="18"/>
       <c r="E569" s="9"/>
@@ -17686,7 +17686,7 @@
       <c r="AA569" s="9"/>
     </row>
     <row r="570" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B570" s="33"/>
+      <c r="B570" s="29"/>
       <c r="C570" s="9"/>
       <c r="D570" s="18"/>
       <c r="E570" s="9"/>
@@ -17714,7 +17714,7 @@
       <c r="AA570" s="9"/>
     </row>
     <row r="571" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B571" s="33"/>
+      <c r="B571" s="29"/>
       <c r="C571" s="9"/>
       <c r="D571" s="18"/>
       <c r="E571" s="9"/>
@@ -17742,7 +17742,7 @@
       <c r="AA571" s="9"/>
     </row>
     <row r="572" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B572" s="33"/>
+      <c r="B572" s="29"/>
       <c r="C572" s="9"/>
       <c r="D572" s="18"/>
       <c r="E572" s="9"/>
@@ -17770,7 +17770,7 @@
       <c r="AA572" s="9"/>
     </row>
     <row r="573" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B573" s="33"/>
+      <c r="B573" s="29"/>
       <c r="C573" s="9"/>
       <c r="D573" s="18"/>
       <c r="E573" s="9"/>
@@ -17798,7 +17798,7 @@
       <c r="AA573" s="9"/>
     </row>
     <row r="574" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B574" s="33"/>
+      <c r="B574" s="29"/>
       <c r="C574" s="9"/>
       <c r="D574" s="18"/>
       <c r="E574" s="9"/>
@@ -17826,7 +17826,7 @@
       <c r="AA574" s="9"/>
     </row>
     <row r="575" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B575" s="33"/>
+      <c r="B575" s="29"/>
       <c r="C575" s="9"/>
       <c r="D575" s="18"/>
       <c r="E575" s="9"/>
@@ -17854,7 +17854,7 @@
       <c r="AA575" s="9"/>
     </row>
     <row r="576" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B576" s="33"/>
+      <c r="B576" s="29"/>
       <c r="C576" s="9"/>
       <c r="D576" s="18"/>
       <c r="E576" s="9"/>
@@ -17882,7 +17882,7 @@
       <c r="AA576" s="9"/>
     </row>
     <row r="577" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B577" s="33"/>
+      <c r="B577" s="29"/>
       <c r="C577" s="9"/>
       <c r="D577" s="18"/>
       <c r="E577" s="9"/>
@@ -17910,7 +17910,7 @@
       <c r="AA577" s="9"/>
     </row>
     <row r="578" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B578" s="33"/>
+      <c r="B578" s="29"/>
       <c r="C578" s="9"/>
       <c r="D578" s="18"/>
       <c r="E578" s="9"/>
@@ -17938,7 +17938,7 @@
       <c r="AA578" s="9"/>
     </row>
     <row r="579" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B579" s="33"/>
+      <c r="B579" s="29"/>
       <c r="C579" s="9"/>
       <c r="D579" s="18"/>
       <c r="E579" s="9"/>
@@ -17966,7 +17966,7 @@
       <c r="AA579" s="9"/>
     </row>
     <row r="580" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B580" s="33"/>
+      <c r="B580" s="29"/>
       <c r="C580" s="9"/>
       <c r="D580" s="18"/>
       <c r="E580" s="9"/>
@@ -17994,7 +17994,7 @@
       <c r="AA580" s="9"/>
     </row>
     <row r="581" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B581" s="33"/>
+      <c r="B581" s="29"/>
       <c r="C581" s="9"/>
       <c r="D581" s="18"/>
       <c r="E581" s="9"/>
@@ -18022,7 +18022,7 @@
       <c r="AA581" s="9"/>
     </row>
     <row r="582" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B582" s="33"/>
+      <c r="B582" s="29"/>
       <c r="C582" s="9"/>
       <c r="D582" s="18"/>
       <c r="E582" s="9"/>
@@ -18050,7 +18050,7 @@
       <c r="AA582" s="9"/>
     </row>
     <row r="583" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B583" s="33"/>
+      <c r="B583" s="29"/>
       <c r="C583" s="9"/>
       <c r="D583" s="18"/>
       <c r="E583" s="9"/>
@@ -18078,7 +18078,7 @@
       <c r="AA583" s="9"/>
     </row>
     <row r="584" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B584" s="33"/>
+      <c r="B584" s="29"/>
       <c r="C584" s="9"/>
       <c r="D584" s="18"/>
       <c r="E584" s="9"/>
@@ -18106,7 +18106,7 @@
       <c r="AA584" s="9"/>
     </row>
     <row r="585" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B585" s="33"/>
+      <c r="B585" s="29"/>
       <c r="C585" s="9"/>
       <c r="D585" s="18"/>
       <c r="E585" s="9"/>
@@ -18134,7 +18134,7 @@
       <c r="AA585" s="9"/>
     </row>
     <row r="586" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B586" s="33"/>
+      <c r="B586" s="29"/>
       <c r="C586" s="9"/>
       <c r="D586" s="18"/>
       <c r="E586" s="9"/>
@@ -18162,7 +18162,7 @@
       <c r="AA586" s="9"/>
     </row>
     <row r="587" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B587" s="33"/>
+      <c r="B587" s="29"/>
       <c r="C587" s="9"/>
       <c r="D587" s="18"/>
       <c r="E587" s="9"/>
@@ -18190,7 +18190,7 @@
       <c r="AA587" s="9"/>
     </row>
     <row r="588" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B588" s="33"/>
+      <c r="B588" s="29"/>
       <c r="C588" s="9"/>
       <c r="D588" s="18"/>
       <c r="E588" s="9"/>
@@ -18218,7 +18218,7 @@
       <c r="AA588" s="9"/>
     </row>
     <row r="589" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B589" s="33"/>
+      <c r="B589" s="29"/>
       <c r="C589" s="9"/>
       <c r="D589" s="18"/>
       <c r="E589" s="9"/>
@@ -18246,7 +18246,7 @@
       <c r="AA589" s="9"/>
     </row>
     <row r="590" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B590" s="33"/>
+      <c r="B590" s="29"/>
       <c r="C590" s="9"/>
       <c r="D590" s="18"/>
       <c r="E590" s="9"/>
@@ -18274,7 +18274,7 @@
       <c r="AA590" s="9"/>
     </row>
     <row r="591" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B591" s="33"/>
+      <c r="B591" s="29"/>
       <c r="C591" s="9"/>
       <c r="D591" s="18"/>
       <c r="E591" s="9"/>
@@ -18302,7 +18302,7 @@
       <c r="AA591" s="9"/>
     </row>
     <row r="592" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B592" s="33"/>
+      <c r="B592" s="29"/>
       <c r="C592" s="9"/>
       <c r="D592" s="18"/>
       <c r="E592" s="9"/>
@@ -18330,7 +18330,7 @@
       <c r="AA592" s="9"/>
     </row>
     <row r="593" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B593" s="33"/>
+      <c r="B593" s="29"/>
       <c r="C593" s="9"/>
       <c r="D593" s="18"/>
       <c r="E593" s="9"/>
@@ -18358,7 +18358,7 @@
       <c r="AA593" s="9"/>
     </row>
     <row r="594" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B594" s="33"/>
+      <c r="B594" s="29"/>
       <c r="C594" s="9"/>
       <c r="D594" s="18"/>
       <c r="E594" s="9"/>
@@ -18386,7 +18386,7 @@
       <c r="AA594" s="9"/>
     </row>
     <row r="595" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B595" s="33"/>
+      <c r="B595" s="29"/>
       <c r="C595" s="9"/>
       <c r="D595" s="18"/>
       <c r="E595" s="9"/>
@@ -18414,7 +18414,7 @@
       <c r="AA595" s="9"/>
     </row>
     <row r="596" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B596" s="33"/>
+      <c r="B596" s="29"/>
       <c r="C596" s="9"/>
       <c r="D596" s="18"/>
       <c r="E596" s="9"/>
@@ -18442,7 +18442,7 @@
       <c r="AA596" s="9"/>
     </row>
     <row r="597" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B597" s="33"/>
+      <c r="B597" s="29"/>
       <c r="C597" s="9"/>
       <c r="D597" s="18"/>
       <c r="E597" s="9"/>
@@ -18470,7 +18470,7 @@
       <c r="AA597" s="9"/>
     </row>
     <row r="598" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B598" s="33"/>
+      <c r="B598" s="29"/>
       <c r="C598" s="9"/>
       <c r="D598" s="18"/>
       <c r="E598" s="9"/>
@@ -18498,7 +18498,7 @@
       <c r="AA598" s="9"/>
     </row>
     <row r="599" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B599" s="33"/>
+      <c r="B599" s="29"/>
       <c r="C599" s="9"/>
       <c r="D599" s="18"/>
       <c r="E599" s="9"/>
@@ -18526,7 +18526,7 @@
       <c r="AA599" s="9"/>
     </row>
     <row r="600" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B600" s="33"/>
+      <c r="B600" s="29"/>
       <c r="C600" s="9"/>
       <c r="D600" s="18"/>
       <c r="E600" s="9"/>
@@ -18554,7 +18554,7 @@
       <c r="AA600" s="9"/>
     </row>
     <row r="601" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B601" s="33"/>
+      <c r="B601" s="29"/>
       <c r="C601" s="9"/>
       <c r="D601" s="18"/>
       <c r="E601" s="9"/>
@@ -18582,7 +18582,7 @@
       <c r="AA601" s="9"/>
     </row>
     <row r="602" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B602" s="33"/>
+      <c r="B602" s="29"/>
       <c r="C602" s="9"/>
       <c r="D602" s="18"/>
       <c r="E602" s="9"/>
@@ -18610,7 +18610,7 @@
       <c r="AA602" s="9"/>
     </row>
     <row r="603" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B603" s="33"/>
+      <c r="B603" s="29"/>
       <c r="C603" s="9"/>
       <c r="D603" s="18"/>
       <c r="E603" s="9"/>
@@ -18638,7 +18638,7 @@
       <c r="AA603" s="9"/>
     </row>
     <row r="604" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B604" s="33"/>
+      <c r="B604" s="29"/>
       <c r="C604" s="9"/>
       <c r="D604" s="18"/>
       <c r="E604" s="9"/>
@@ -18666,7 +18666,7 @@
       <c r="AA604" s="9"/>
     </row>
     <row r="605" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B605" s="33"/>
+      <c r="B605" s="29"/>
       <c r="C605" s="9"/>
       <c r="D605" s="18"/>
       <c r="E605" s="9"/>
@@ -18694,7 +18694,7 @@
       <c r="AA605" s="9"/>
     </row>
     <row r="606" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B606" s="33"/>
+      <c r="B606" s="29"/>
       <c r="C606" s="9"/>
       <c r="D606" s="18"/>
       <c r="E606" s="9"/>
@@ -18722,7 +18722,7 @@
       <c r="AA606" s="9"/>
     </row>
     <row r="607" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B607" s="33"/>
+      <c r="B607" s="29"/>
       <c r="C607" s="9"/>
       <c r="D607" s="18"/>
       <c r="E607" s="9"/>
@@ -18750,7 +18750,7 @@
       <c r="AA607" s="9"/>
     </row>
     <row r="608" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B608" s="33"/>
+      <c r="B608" s="29"/>
       <c r="C608" s="9"/>
       <c r="D608" s="18"/>
       <c r="E608" s="9"/>
@@ -18778,7 +18778,7 @@
       <c r="AA608" s="9"/>
     </row>
     <row r="609" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B609" s="33"/>
+      <c r="B609" s="29"/>
       <c r="C609" s="9"/>
       <c r="D609" s="18"/>
       <c r="E609" s="9"/>
@@ -18806,7 +18806,7 @@
       <c r="AA609" s="9"/>
     </row>
     <row r="610" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B610" s="33"/>
+      <c r="B610" s="29"/>
       <c r="C610" s="9"/>
       <c r="D610" s="18"/>
       <c r="E610" s="9"/>
@@ -18834,7 +18834,7 @@
       <c r="AA610" s="9"/>
     </row>
     <row r="611" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B611" s="33"/>
+      <c r="B611" s="29"/>
       <c r="C611" s="9"/>
       <c r="D611" s="18"/>
       <c r="E611" s="9"/>
@@ -18862,7 +18862,7 @@
       <c r="AA611" s="9"/>
     </row>
     <row r="612" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B612" s="33"/>
+      <c r="B612" s="29"/>
       <c r="C612" s="9"/>
       <c r="D612" s="18"/>
       <c r="E612" s="9"/>
@@ -18890,7 +18890,7 @@
       <c r="AA612" s="9"/>
     </row>
     <row r="613" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B613" s="33"/>
+      <c r="B613" s="29"/>
       <c r="C613" s="9"/>
       <c r="D613" s="18"/>
       <c r="E613" s="9"/>
@@ -18918,7 +18918,7 @@
       <c r="AA613" s="9"/>
     </row>
     <row r="614" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B614" s="33"/>
+      <c r="B614" s="29"/>
       <c r="C614" s="9"/>
       <c r="D614" s="18"/>
       <c r="E614" s="9"/>
@@ -18946,7 +18946,7 @@
       <c r="AA614" s="9"/>
     </row>
     <row r="615" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B615" s="33"/>
+      <c r="B615" s="29"/>
       <c r="C615" s="9"/>
       <c r="D615" s="18"/>
       <c r="E615" s="9"/>
@@ -18974,7 +18974,7 @@
       <c r="AA615" s="9"/>
     </row>
     <row r="616" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B616" s="33"/>
+      <c r="B616" s="29"/>
       <c r="C616" s="9"/>
       <c r="D616" s="18"/>
       <c r="E616" s="9"/>
@@ -19002,7 +19002,7 @@
       <c r="AA616" s="9"/>
     </row>
     <row r="617" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B617" s="33"/>
+      <c r="B617" s="29"/>
       <c r="C617" s="9"/>
       <c r="D617" s="18"/>
       <c r="E617" s="9"/>
@@ -19030,7 +19030,7 @@
       <c r="AA617" s="9"/>
     </row>
     <row r="618" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B618" s="33"/>
+      <c r="B618" s="29"/>
       <c r="C618" s="9"/>
       <c r="D618" s="18"/>
       <c r="E618" s="9"/>
@@ -19058,7 +19058,7 @@
       <c r="AA618" s="9"/>
     </row>
     <row r="619" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B619" s="33"/>
+      <c r="B619" s="29"/>
       <c r="C619" s="9"/>
       <c r="D619" s="18"/>
       <c r="E619" s="9"/>
@@ -19086,7 +19086,7 @@
       <c r="AA619" s="9"/>
     </row>
     <row r="620" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B620" s="33"/>
+      <c r="B620" s="29"/>
       <c r="C620" s="9"/>
       <c r="D620" s="18"/>
       <c r="E620" s="9"/>
@@ -19114,7 +19114,7 @@
       <c r="AA620" s="9"/>
     </row>
     <row r="621" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B621" s="33"/>
+      <c r="B621" s="29"/>
       <c r="C621" s="9"/>
       <c r="D621" s="18"/>
       <c r="E621" s="9"/>
@@ -19142,7 +19142,7 @@
       <c r="AA621" s="9"/>
     </row>
     <row r="622" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B622" s="33"/>
+      <c r="B622" s="29"/>
       <c r="C622" s="9"/>
       <c r="D622" s="18"/>
       <c r="E622" s="9"/>
@@ -19170,7 +19170,7 @@
       <c r="AA622" s="9"/>
     </row>
     <row r="623" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B623" s="33"/>
+      <c r="B623" s="29"/>
       <c r="C623" s="9"/>
       <c r="D623" s="18"/>
       <c r="E623" s="9"/>
@@ -19198,7 +19198,7 @@
       <c r="AA623" s="9"/>
     </row>
     <row r="624" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B624" s="33"/>
+      <c r="B624" s="29"/>
       <c r="C624" s="9"/>
       <c r="D624" s="18"/>
       <c r="E624" s="9"/>
@@ -19226,7 +19226,7 @@
       <c r="AA624" s="9"/>
     </row>
     <row r="625" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B625" s="33"/>
+      <c r="B625" s="29"/>
       <c r="C625" s="9"/>
       <c r="D625" s="18"/>
       <c r="E625" s="9"/>
@@ -19254,7 +19254,7 @@
       <c r="AA625" s="9"/>
     </row>
     <row r="626" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B626" s="33"/>
+      <c r="B626" s="29"/>
       <c r="C626" s="9"/>
       <c r="D626" s="18"/>
       <c r="E626" s="9"/>
@@ -19282,7 +19282,7 @@
       <c r="AA626" s="9"/>
     </row>
     <row r="627" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B627" s="33"/>
+      <c r="B627" s="29"/>
       <c r="C627" s="9"/>
       <c r="D627" s="18"/>
       <c r="E627" s="9"/>
@@ -19310,7 +19310,7 @@
       <c r="AA627" s="9"/>
     </row>
     <row r="628" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B628" s="33"/>
+      <c r="B628" s="29"/>
       <c r="C628" s="9"/>
       <c r="D628" s="18"/>
       <c r="E628" s="9"/>
@@ -19338,7 +19338,7 @@
       <c r="AA628" s="9"/>
     </row>
     <row r="629" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B629" s="33"/>
+      <c r="B629" s="29"/>
       <c r="C629" s="9"/>
       <c r="D629" s="18"/>
       <c r="E629" s="9"/>
@@ -19366,7 +19366,7 @@
       <c r="AA629" s="9"/>
     </row>
     <row r="630" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B630" s="33"/>
+      <c r="B630" s="29"/>
       <c r="C630" s="9"/>
       <c r="D630" s="18"/>
       <c r="E630" s="9"/>
@@ -19394,7 +19394,7 @@
       <c r="AA630" s="9"/>
     </row>
     <row r="631" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B631" s="33"/>
+      <c r="B631" s="29"/>
       <c r="C631" s="9"/>
       <c r="D631" s="18"/>
       <c r="E631" s="9"/>
@@ -19422,7 +19422,7 @@
       <c r="AA631" s="9"/>
     </row>
     <row r="632" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B632" s="33"/>
+      <c r="B632" s="29"/>
       <c r="C632" s="9"/>
       <c r="D632" s="18"/>
       <c r="E632" s="9"/>
@@ -19450,7 +19450,7 @@
       <c r="AA632" s="9"/>
     </row>
     <row r="633" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B633" s="33"/>
+      <c r="B633" s="29"/>
       <c r="C633" s="9"/>
       <c r="D633" s="18"/>
       <c r="E633" s="9"/>
@@ -19478,7 +19478,7 @@
       <c r="AA633" s="9"/>
     </row>
     <row r="634" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B634" s="33"/>
+      <c r="B634" s="29"/>
       <c r="C634" s="9"/>
       <c r="D634" s="18"/>
       <c r="E634" s="9"/>
@@ -19506,7 +19506,7 @@
       <c r="AA634" s="9"/>
     </row>
     <row r="635" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B635" s="33"/>
+      <c r="B635" s="29"/>
       <c r="C635" s="9"/>
       <c r="D635" s="18"/>
       <c r="E635" s="9"/>
@@ -19534,7 +19534,7 @@
       <c r="AA635" s="9"/>
     </row>
     <row r="636" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B636" s="33"/>
+      <c r="B636" s="29"/>
       <c r="C636" s="9"/>
       <c r="D636" s="18"/>
       <c r="E636" s="9"/>
@@ -19562,7 +19562,7 @@
       <c r="AA636" s="9"/>
     </row>
     <row r="637" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B637" s="33"/>
+      <c r="B637" s="29"/>
       <c r="C637" s="9"/>
       <c r="D637" s="18"/>
       <c r="E637" s="9"/>
@@ -19590,7 +19590,7 @@
       <c r="AA637" s="9"/>
     </row>
     <row r="638" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B638" s="33"/>
+      <c r="B638" s="29"/>
       <c r="C638" s="9"/>
       <c r="D638" s="18"/>
       <c r="E638" s="9"/>
@@ -19618,7 +19618,7 @@
       <c r="AA638" s="9"/>
     </row>
     <row r="639" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B639" s="33"/>
+      <c r="B639" s="29"/>
       <c r="C639" s="9"/>
       <c r="D639" s="18"/>
       <c r="E639" s="9"/>
@@ -19646,7 +19646,7 @@
       <c r="AA639" s="9"/>
     </row>
     <row r="640" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B640" s="33"/>
+      <c r="B640" s="29"/>
       <c r="C640" s="9"/>
       <c r="D640" s="18"/>
       <c r="E640" s="9"/>
@@ -19674,7 +19674,7 @@
       <c r="AA640" s="9"/>
     </row>
     <row r="641" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B641" s="33"/>
+      <c r="B641" s="29"/>
       <c r="C641" s="9"/>
       <c r="D641" s="18"/>
       <c r="E641" s="9"/>
@@ -19702,7 +19702,7 @@
       <c r="AA641" s="9"/>
     </row>
     <row r="642" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B642" s="33"/>
+      <c r="B642" s="29"/>
       <c r="C642" s="9"/>
       <c r="D642" s="18"/>
       <c r="E642" s="9"/>
@@ -19730,7 +19730,7 @@
       <c r="AA642" s="9"/>
     </row>
     <row r="643" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B643" s="33"/>
+      <c r="B643" s="29"/>
       <c r="C643" s="9"/>
       <c r="D643" s="18"/>
       <c r="E643" s="9"/>
@@ -19758,7 +19758,7 @@
       <c r="AA643" s="9"/>
     </row>
     <row r="644" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B644" s="33"/>
+      <c r="B644" s="29"/>
       <c r="C644" s="9"/>
       <c r="D644" s="18"/>
       <c r="E644" s="9"/>
@@ -19786,7 +19786,7 @@
       <c r="AA644" s="9"/>
     </row>
     <row r="645" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B645" s="33"/>
+      <c r="B645" s="29"/>
       <c r="C645" s="9"/>
       <c r="D645" s="18"/>
       <c r="E645" s="9"/>
@@ -19814,7 +19814,7 @@
       <c r="AA645" s="9"/>
     </row>
     <row r="646" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B646" s="33"/>
+      <c r="B646" s="29"/>
       <c r="C646" s="9"/>
       <c r="D646" s="18"/>
       <c r="E646" s="9"/>
@@ -19842,7 +19842,7 @@
       <c r="AA646" s="9"/>
     </row>
     <row r="647" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B647" s="33"/>
+      <c r="B647" s="29"/>
       <c r="C647" s="9"/>
       <c r="D647" s="18"/>
       <c r="E647" s="9"/>
@@ -19870,7 +19870,7 @@
       <c r="AA647" s="9"/>
     </row>
     <row r="648" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B648" s="33"/>
+      <c r="B648" s="29"/>
       <c r="C648" s="9"/>
       <c r="D648" s="18"/>
       <c r="E648" s="9"/>
@@ -19898,7 +19898,7 @@
       <c r="AA648" s="9"/>
     </row>
     <row r="649" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B649" s="33"/>
+      <c r="B649" s="29"/>
       <c r="C649" s="9"/>
       <c r="D649" s="18"/>
       <c r="E649" s="9"/>
@@ -19926,7 +19926,7 @@
       <c r="AA649" s="9"/>
     </row>
     <row r="650" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B650" s="33"/>
+      <c r="B650" s="29"/>
       <c r="C650" s="9"/>
       <c r="D650" s="18"/>
       <c r="E650" s="9"/>
@@ -19954,7 +19954,7 @@
       <c r="AA650" s="9"/>
     </row>
     <row r="651" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B651" s="33"/>
+      <c r="B651" s="29"/>
       <c r="C651" s="9"/>
       <c r="D651" s="18"/>
       <c r="E651" s="9"/>
@@ -19982,7 +19982,7 @@
       <c r="AA651" s="9"/>
     </row>
     <row r="652" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B652" s="33"/>
+      <c r="B652" s="29"/>
       <c r="C652" s="9"/>
       <c r="D652" s="18"/>
       <c r="E652" s="9"/>
@@ -20010,7 +20010,7 @@
       <c r="AA652" s="9"/>
     </row>
     <row r="653" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B653" s="33"/>
+      <c r="B653" s="29"/>
       <c r="C653" s="9"/>
       <c r="D653" s="18"/>
       <c r="E653" s="9"/>
@@ -20038,7 +20038,7 @@
       <c r="AA653" s="9"/>
     </row>
     <row r="654" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B654" s="33"/>
+      <c r="B654" s="29"/>
       <c r="C654" s="9"/>
       <c r="D654" s="18"/>
       <c r="E654" s="9"/>
@@ -20066,7 +20066,7 @@
       <c r="AA654" s="9"/>
     </row>
     <row r="655" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B655" s="33"/>
+      <c r="B655" s="29"/>
       <c r="C655" s="9"/>
       <c r="D655" s="18"/>
       <c r="E655" s="9"/>
@@ -20094,7 +20094,7 @@
       <c r="AA655" s="9"/>
     </row>
     <row r="656" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B656" s="33"/>
+      <c r="B656" s="29"/>
       <c r="C656" s="9"/>
       <c r="D656" s="18"/>
       <c r="E656" s="9"/>
@@ -20122,7 +20122,7 @@
       <c r="AA656" s="9"/>
     </row>
     <row r="657" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B657" s="33"/>
+      <c r="B657" s="29"/>
       <c r="C657" s="9"/>
       <c r="D657" s="18"/>
       <c r="E657" s="9"/>
@@ -20150,7 +20150,7 @@
       <c r="AA657" s="9"/>
     </row>
     <row r="658" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B658" s="33"/>
+      <c r="B658" s="29"/>
       <c r="C658" s="9"/>
       <c r="D658" s="18"/>
       <c r="E658" s="9"/>
@@ -20178,7 +20178,7 @@
       <c r="AA658" s="9"/>
     </row>
     <row r="659" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B659" s="33"/>
+      <c r="B659" s="29"/>
       <c r="C659" s="9"/>
       <c r="D659" s="18"/>
       <c r="E659" s="9"/>
@@ -20206,7 +20206,7 @@
       <c r="AA659" s="9"/>
     </row>
     <row r="660" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B660" s="33"/>
+      <c r="B660" s="29"/>
       <c r="C660" s="9"/>
       <c r="D660" s="18"/>
       <c r="E660" s="9"/>
@@ -20234,7 +20234,7 @@
       <c r="AA660" s="9"/>
     </row>
     <row r="661" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B661" s="33"/>
+      <c r="B661" s="29"/>
       <c r="C661" s="9"/>
       <c r="D661" s="18"/>
       <c r="E661" s="9"/>
@@ -20262,7 +20262,7 @@
       <c r="AA661" s="9"/>
     </row>
     <row r="662" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B662" s="33"/>
+      <c r="B662" s="29"/>
       <c r="C662" s="9"/>
       <c r="D662" s="18"/>
       <c r="E662" s="9"/>
@@ -20290,7 +20290,7 @@
       <c r="AA662" s="9"/>
     </row>
     <row r="663" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B663" s="33"/>
+      <c r="B663" s="29"/>
       <c r="C663" s="9"/>
       <c r="D663" s="18"/>
       <c r="E663" s="9"/>
@@ -20318,7 +20318,7 @@
       <c r="AA663" s="9"/>
     </row>
     <row r="664" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B664" s="33"/>
+      <c r="B664" s="29"/>
       <c r="C664" s="9"/>
       <c r="D664" s="18"/>
       <c r="E664" s="9"/>
@@ -20346,7 +20346,7 @@
       <c r="AA664" s="9"/>
     </row>
     <row r="665" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B665" s="33"/>
+      <c r="B665" s="29"/>
       <c r="C665" s="9"/>
       <c r="D665" s="18"/>
       <c r="E665" s="9"/>
@@ -20374,7 +20374,7 @@
       <c r="AA665" s="9"/>
     </row>
     <row r="666" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B666" s="33"/>
+      <c r="B666" s="29"/>
       <c r="C666" s="9"/>
       <c r="D666" s="18"/>
       <c r="E666" s="9"/>
@@ -20402,7 +20402,7 @@
       <c r="AA666" s="9"/>
     </row>
     <row r="667" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B667" s="33"/>
+      <c r="B667" s="29"/>
       <c r="C667" s="9"/>
       <c r="D667" s="18"/>
       <c r="E667" s="9"/>
@@ -20430,7 +20430,7 @@
       <c r="AA667" s="9"/>
     </row>
     <row r="668" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B668" s="33"/>
+      <c r="B668" s="29"/>
       <c r="C668" s="9"/>
       <c r="D668" s="18"/>
       <c r="E668" s="9"/>
@@ -20458,7 +20458,7 @@
       <c r="AA668" s="9"/>
     </row>
     <row r="669" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B669" s="33"/>
+      <c r="B669" s="29"/>
       <c r="C669" s="9"/>
       <c r="D669" s="18"/>
       <c r="E669" s="9"/>
@@ -20486,7 +20486,7 @@
       <c r="AA669" s="9"/>
     </row>
     <row r="670" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B670" s="33"/>
+      <c r="B670" s="29"/>
       <c r="C670" s="9"/>
       <c r="D670" s="18"/>
       <c r="E670" s="9"/>
@@ -20514,7 +20514,7 @@
       <c r="AA670" s="9"/>
     </row>
     <row r="671" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B671" s="33"/>
+      <c r="B671" s="29"/>
       <c r="C671" s="9"/>
       <c r="D671" s="18"/>
       <c r="E671" s="9"/>
@@ -20542,7 +20542,7 @@
       <c r="AA671" s="9"/>
     </row>
     <row r="672" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B672" s="33"/>
+      <c r="B672" s="29"/>
       <c r="C672" s="9"/>
       <c r="D672" s="18"/>
       <c r="E672" s="9"/>
@@ -20570,7 +20570,7 @@
       <c r="AA672" s="9"/>
     </row>
     <row r="673" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B673" s="33"/>
+      <c r="B673" s="29"/>
       <c r="C673" s="9"/>
       <c r="D673" s="18"/>
       <c r="E673" s="9"/>
@@ -20598,7 +20598,7 @@
       <c r="AA673" s="9"/>
     </row>
     <row r="674" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B674" s="33"/>
+      <c r="B674" s="29"/>
       <c r="C674" s="9"/>
       <c r="D674" s="18"/>
       <c r="E674" s="9"/>
@@ -20626,7 +20626,7 @@
       <c r="AA674" s="9"/>
     </row>
     <row r="675" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B675" s="33"/>
+      <c r="B675" s="29"/>
       <c r="C675" s="9"/>
       <c r="D675" s="18"/>
       <c r="E675" s="9"/>
@@ -20654,7 +20654,7 @@
       <c r="AA675" s="9"/>
     </row>
     <row r="676" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B676" s="33"/>
+      <c r="B676" s="29"/>
       <c r="C676" s="9"/>
       <c r="D676" s="18"/>
       <c r="E676" s="9"/>
@@ -20682,7 +20682,7 @@
       <c r="AA676" s="9"/>
     </row>
     <row r="677" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B677" s="33"/>
+      <c r="B677" s="29"/>
       <c r="C677" s="9"/>
       <c r="D677" s="18"/>
       <c r="E677" s="9"/>
@@ -20710,7 +20710,7 @@
       <c r="AA677" s="9"/>
     </row>
     <row r="678" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B678" s="33"/>
+      <c r="B678" s="29"/>
       <c r="C678" s="9"/>
       <c r="D678" s="18"/>
       <c r="E678" s="9"/>
@@ -20738,7 +20738,7 @@
       <c r="AA678" s="9"/>
     </row>
     <row r="679" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B679" s="33"/>
+      <c r="B679" s="29"/>
       <c r="C679" s="9"/>
       <c r="D679" s="18"/>
       <c r="E679" s="9"/>
@@ -20766,7 +20766,7 @@
       <c r="AA679" s="9"/>
     </row>
     <row r="680" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B680" s="33"/>
+      <c r="B680" s="29"/>
       <c r="C680" s="9"/>
       <c r="D680" s="18"/>
       <c r="E680" s="9"/>
@@ -20794,7 +20794,7 @@
       <c r="AA680" s="9"/>
     </row>
     <row r="681" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B681" s="33"/>
+      <c r="B681" s="29"/>
       <c r="C681" s="9"/>
       <c r="D681" s="18"/>
       <c r="E681" s="9"/>
@@ -20822,7 +20822,7 @@
       <c r="AA681" s="9"/>
     </row>
     <row r="682" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B682" s="33"/>
+      <c r="B682" s="29"/>
       <c r="C682" s="9"/>
       <c r="D682" s="18"/>
       <c r="E682" s="9"/>
@@ -20850,7 +20850,7 @@
       <c r="AA682" s="9"/>
     </row>
     <row r="683" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B683" s="33"/>
+      <c r="B683" s="29"/>
       <c r="C683" s="9"/>
       <c r="D683" s="18"/>
       <c r="E683" s="9"/>
@@ -20878,7 +20878,7 @@
       <c r="AA683" s="9"/>
     </row>
     <row r="684" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B684" s="33"/>
+      <c r="B684" s="29"/>
       <c r="C684" s="9"/>
       <c r="D684" s="18"/>
       <c r="E684" s="9"/>
@@ -20906,7 +20906,7 @@
       <c r="AA684" s="9"/>
     </row>
     <row r="685" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B685" s="33"/>
+      <c r="B685" s="29"/>
       <c r="C685" s="9"/>
       <c r="D685" s="18"/>
       <c r="E685" s="9"/>
@@ -20934,7 +20934,7 @@
       <c r="AA685" s="9"/>
     </row>
     <row r="686" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B686" s="33"/>
+      <c r="B686" s="29"/>
       <c r="C686" s="9"/>
       <c r="D686" s="18"/>
       <c r="E686" s="9"/>
@@ -20962,7 +20962,7 @@
       <c r="AA686" s="9"/>
     </row>
     <row r="687" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B687" s="33"/>
+      <c r="B687" s="29"/>
       <c r="C687" s="9"/>
       <c r="D687" s="18"/>
       <c r="E687" s="9"/>
@@ -20990,7 +20990,7 @@
       <c r="AA687" s="9"/>
     </row>
     <row r="688" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B688" s="33"/>
+      <c r="B688" s="29"/>
       <c r="C688" s="9"/>
       <c r="D688" s="18"/>
       <c r="E688" s="9"/>
@@ -21018,7 +21018,7 @@
       <c r="AA688" s="9"/>
     </row>
     <row r="689" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B689" s="33"/>
+      <c r="B689" s="29"/>
       <c r="C689" s="9"/>
       <c r="D689" s="18"/>
       <c r="E689" s="9"/>
@@ -21046,7 +21046,7 @@
       <c r="AA689" s="9"/>
     </row>
     <row r="690" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B690" s="33"/>
+      <c r="B690" s="29"/>
       <c r="C690" s="9"/>
       <c r="D690" s="18"/>
       <c r="E690" s="9"/>
@@ -21074,7 +21074,7 @@
       <c r="AA690" s="9"/>
     </row>
     <row r="691" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B691" s="33"/>
+      <c r="B691" s="29"/>
       <c r="C691" s="9"/>
       <c r="D691" s="18"/>
       <c r="E691" s="9"/>
@@ -21102,7 +21102,7 @@
       <c r="AA691" s="9"/>
     </row>
     <row r="692" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B692" s="33"/>
+      <c r="B692" s="29"/>
       <c r="C692" s="9"/>
       <c r="D692" s="18"/>
       <c r="E692" s="9"/>
@@ -21130,7 +21130,7 @@
       <c r="AA692" s="9"/>
     </row>
     <row r="693" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B693" s="33"/>
+      <c r="B693" s="29"/>
       <c r="C693" s="9"/>
       <c r="D693" s="18"/>
       <c r="E693" s="9"/>
@@ -21158,7 +21158,7 @@
       <c r="AA693" s="9"/>
     </row>
     <row r="694" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B694" s="33"/>
+      <c r="B694" s="29"/>
       <c r="C694" s="9"/>
       <c r="D694" s="18"/>
       <c r="E694" s="9"/>
@@ -21186,7 +21186,7 @@
       <c r="AA694" s="9"/>
     </row>
     <row r="695" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B695" s="33"/>
+      <c r="B695" s="29"/>
       <c r="C695" s="9"/>
       <c r="D695" s="18"/>
       <c r="E695" s="9"/>
@@ -21214,7 +21214,7 @@
       <c r="AA695" s="9"/>
     </row>
     <row r="696" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B696" s="33"/>
+      <c r="B696" s="29"/>
       <c r="C696" s="9"/>
       <c r="D696" s="18"/>
       <c r="E696" s="9"/>
@@ -21242,7 +21242,7 @@
       <c r="AA696" s="9"/>
     </row>
     <row r="697" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B697" s="33"/>
+      <c r="B697" s="29"/>
       <c r="C697" s="9"/>
       <c r="D697" s="18"/>
       <c r="E697" s="9"/>
@@ -21270,7 +21270,7 @@
       <c r="AA697" s="9"/>
     </row>
     <row r="698" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B698" s="33"/>
+      <c r="B698" s="29"/>
       <c r="C698" s="9"/>
       <c r="D698" s="18"/>
       <c r="E698" s="9"/>
@@ -21298,7 +21298,7 @@
       <c r="AA698" s="9"/>
     </row>
     <row r="699" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B699" s="33"/>
+      <c r="B699" s="29"/>
       <c r="C699" s="9"/>
       <c r="D699" s="18"/>
       <c r="E699" s="9"/>
@@ -21326,7 +21326,7 @@
       <c r="AA699" s="9"/>
     </row>
     <row r="700" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B700" s="33"/>
+      <c r="B700" s="29"/>
       <c r="C700" s="9"/>
       <c r="D700" s="18"/>
       <c r="E700" s="9"/>
@@ -21354,7 +21354,7 @@
       <c r="AA700" s="9"/>
     </row>
     <row r="701" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B701" s="33"/>
+      <c r="B701" s="29"/>
       <c r="C701" s="9"/>
       <c r="D701" s="18"/>
       <c r="E701" s="9"/>
@@ -21382,7 +21382,7 @@
       <c r="AA701" s="9"/>
     </row>
     <row r="702" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B702" s="33"/>
+      <c r="B702" s="29"/>
       <c r="C702" s="9"/>
       <c r="D702" s="18"/>
       <c r="E702" s="9"/>
@@ -21410,7 +21410,7 @@
       <c r="AA702" s="9"/>
     </row>
     <row r="703" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B703" s="33"/>
+      <c r="B703" s="29"/>
       <c r="C703" s="9"/>
       <c r="D703" s="18"/>
       <c r="E703" s="9"/>
@@ -21438,7 +21438,7 @@
       <c r="AA703" s="9"/>
     </row>
     <row r="704" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B704" s="33"/>
+      <c r="B704" s="29"/>
       <c r="C704" s="9"/>
       <c r="D704" s="18"/>
       <c r="E704" s="9"/>
@@ -21466,7 +21466,7 @@
       <c r="AA704" s="9"/>
     </row>
     <row r="705" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B705" s="33"/>
+      <c r="B705" s="29"/>
       <c r="C705" s="9"/>
       <c r="D705" s="18"/>
       <c r="E705" s="9"/>
@@ -21494,7 +21494,7 @@
       <c r="AA705" s="9"/>
     </row>
     <row r="706" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B706" s="33"/>
+      <c r="B706" s="29"/>
       <c r="C706" s="9"/>
       <c r="D706" s="18"/>
       <c r="E706" s="9"/>
@@ -21522,7 +21522,7 @@
       <c r="AA706" s="9"/>
     </row>
     <row r="707" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B707" s="33"/>
+      <c r="B707" s="29"/>
       <c r="C707" s="9"/>
       <c r="D707" s="18"/>
       <c r="E707" s="9"/>
@@ -21550,7 +21550,7 @@
       <c r="AA707" s="9"/>
     </row>
     <row r="708" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B708" s="33"/>
+      <c r="B708" s="29"/>
       <c r="C708" s="9"/>
       <c r="D708" s="18"/>
       <c r="E708" s="9"/>
@@ -21578,7 +21578,7 @@
       <c r="AA708" s="9"/>
     </row>
     <row r="709" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B709" s="33"/>
+      <c r="B709" s="29"/>
       <c r="C709" s="9"/>
       <c r="D709" s="18"/>
       <c r="E709" s="9"/>
@@ -21606,7 +21606,7 @@
       <c r="AA709" s="9"/>
     </row>
     <row r="710" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B710" s="33"/>
+      <c r="B710" s="29"/>
       <c r="C710" s="9"/>
       <c r="D710" s="18"/>
       <c r="E710" s="9"/>
@@ -21634,7 +21634,7 @@
       <c r="AA710" s="9"/>
     </row>
     <row r="711" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B711" s="33"/>
+      <c r="B711" s="29"/>
       <c r="C711" s="9"/>
       <c r="D711" s="18"/>
       <c r="E711" s="9"/>
@@ -21662,7 +21662,7 @@
       <c r="AA711" s="9"/>
     </row>
     <row r="712" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B712" s="33"/>
+      <c r="B712" s="29"/>
       <c r="C712" s="9"/>
       <c r="D712" s="18"/>
       <c r="E712" s="9"/>
@@ -21690,7 +21690,7 @@
       <c r="AA712" s="9"/>
     </row>
     <row r="713" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B713" s="33"/>
+      <c r="B713" s="29"/>
       <c r="C713" s="9"/>
       <c r="D713" s="18"/>
       <c r="E713" s="9"/>
@@ -21718,7 +21718,7 @@
       <c r="AA713" s="9"/>
     </row>
     <row r="714" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B714" s="33"/>
+      <c r="B714" s="29"/>
       <c r="C714" s="9"/>
       <c r="D714" s="18"/>
       <c r="E714" s="9"/>
@@ -21746,7 +21746,7 @@
       <c r="AA714" s="9"/>
     </row>
     <row r="715" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B715" s="33"/>
+      <c r="B715" s="29"/>
       <c r="C715" s="9"/>
       <c r="D715" s="18"/>
       <c r="E715" s="9"/>
@@ -21774,7 +21774,7 @@
       <c r="AA715" s="9"/>
     </row>
     <row r="716" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B716" s="33"/>
+      <c r="B716" s="29"/>
       <c r="C716" s="9"/>
       <c r="D716" s="18"/>
       <c r="E716" s="9"/>
@@ -21802,7 +21802,7 @@
       <c r="AA716" s="9"/>
     </row>
     <row r="717" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B717" s="33"/>
+      <c r="B717" s="29"/>
       <c r="C717" s="9"/>
       <c r="D717" s="18"/>
       <c r="E717" s="9"/>
@@ -21830,7 +21830,7 @@
       <c r="AA717" s="9"/>
     </row>
     <row r="718" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B718" s="33"/>
+      <c r="B718" s="29"/>
       <c r="C718" s="9"/>
       <c r="D718" s="18"/>
       <c r="E718" s="9"/>
@@ -21858,7 +21858,7 @@
       <c r="AA718" s="9"/>
     </row>
     <row r="719" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B719" s="33"/>
+      <c r="B719" s="29"/>
       <c r="C719" s="9"/>
       <c r="D719" s="18"/>
       <c r="E719" s="9"/>
@@ -21886,7 +21886,7 @@
       <c r="AA719" s="9"/>
     </row>
     <row r="720" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B720" s="33"/>
+      <c r="B720" s="29"/>
       <c r="C720" s="9"/>
       <c r="D720" s="18"/>
       <c r="E720" s="9"/>
@@ -21914,7 +21914,7 @@
       <c r="AA720" s="9"/>
     </row>
     <row r="721" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B721" s="33"/>
+      <c r="B721" s="29"/>
       <c r="C721" s="9"/>
       <c r="D721" s="18"/>
       <c r="E721" s="9"/>
@@ -21942,7 +21942,7 @@
       <c r="AA721" s="9"/>
     </row>
     <row r="722" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B722" s="33"/>
+      <c r="B722" s="29"/>
       <c r="C722" s="9"/>
       <c r="D722" s="18"/>
       <c r="E722" s="9"/>
@@ -21970,7 +21970,7 @@
       <c r="AA722" s="9"/>
     </row>
     <row r="723" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B723" s="33"/>
+      <c r="B723" s="29"/>
       <c r="C723" s="9"/>
       <c r="D723" s="18"/>
       <c r="E723" s="9"/>
@@ -21998,7 +21998,7 @@
       <c r="AA723" s="9"/>
     </row>
     <row r="724" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B724" s="33"/>
+      <c r="B724" s="29"/>
       <c r="C724" s="9"/>
       <c r="D724" s="18"/>
       <c r="E724" s="9"/>
@@ -22026,7 +22026,7 @@
       <c r="AA724" s="9"/>
     </row>
     <row r="725" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B725" s="33"/>
+      <c r="B725" s="29"/>
       <c r="C725" s="9"/>
       <c r="D725" s="18"/>
       <c r="E725" s="9"/>
@@ -22054,7 +22054,7 @@
       <c r="AA725" s="9"/>
     </row>
     <row r="726" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B726" s="33"/>
+      <c r="B726" s="29"/>
       <c r="C726" s="9"/>
       <c r="D726" s="18"/>
       <c r="E726" s="9"/>
@@ -22082,7 +22082,7 @@
       <c r="AA726" s="9"/>
     </row>
     <row r="727" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B727" s="33"/>
+      <c r="B727" s="29"/>
       <c r="C727" s="9"/>
       <c r="D727" s="18"/>
       <c r="E727" s="9"/>
@@ -22110,7 +22110,7 @@
       <c r="AA727" s="9"/>
     </row>
     <row r="728" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B728" s="33"/>
+      <c r="B728" s="29"/>
       <c r="C728" s="9"/>
       <c r="D728" s="18"/>
       <c r="E728" s="9"/>
@@ -22138,7 +22138,7 @@
       <c r="AA728" s="9"/>
     </row>
     <row r="729" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B729" s="33"/>
+      <c r="B729" s="29"/>
       <c r="C729" s="9"/>
       <c r="D729" s="18"/>
       <c r="E729" s="9"/>
@@ -22166,7 +22166,7 @@
       <c r="AA729" s="9"/>
     </row>
     <row r="730" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B730" s="33"/>
+      <c r="B730" s="29"/>
       <c r="C730" s="9"/>
       <c r="D730" s="18"/>
       <c r="E730" s="9"/>
@@ -22194,7 +22194,7 @@
       <c r="AA730" s="9"/>
     </row>
     <row r="731" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B731" s="33"/>
+      <c r="B731" s="29"/>
       <c r="C731" s="9"/>
       <c r="D731" s="18"/>
       <c r="E731" s="9"/>
@@ -22222,7 +22222,7 @@
       <c r="AA731" s="9"/>
     </row>
     <row r="732" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B732" s="33"/>
+      <c r="B732" s="29"/>
       <c r="C732" s="9"/>
       <c r="D732" s="18"/>
       <c r="E732" s="9"/>
@@ -22250,7 +22250,7 @@
       <c r="AA732" s="9"/>
     </row>
     <row r="733" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B733" s="33"/>
+      <c r="B733" s="29"/>
       <c r="C733" s="9"/>
       <c r="D733" s="18"/>
       <c r="E733" s="9"/>
@@ -22278,7 +22278,7 @@
       <c r="AA733" s="9"/>
     </row>
     <row r="734" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B734" s="33"/>
+      <c r="B734" s="29"/>
       <c r="C734" s="9"/>
       <c r="D734" s="18"/>
       <c r="E734" s="9"/>
@@ -22306,7 +22306,7 @@
       <c r="AA734" s="9"/>
     </row>
     <row r="735" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B735" s="33"/>
+      <c r="B735" s="29"/>
       <c r="C735" s="9"/>
       <c r="D735" s="18"/>
       <c r="E735" s="9"/>
@@ -22334,7 +22334,7 @@
       <c r="AA735" s="9"/>
     </row>
     <row r="736" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B736" s="33"/>
+      <c r="B736" s="29"/>
       <c r="C736" s="9"/>
       <c r="D736" s="18"/>
       <c r="E736" s="9"/>
@@ -22362,7 +22362,7 @@
       <c r="AA736" s="9"/>
     </row>
     <row r="737" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B737" s="33"/>
+      <c r="B737" s="29"/>
       <c r="C737" s="9"/>
       <c r="D737" s="18"/>
       <c r="E737" s="9"/>
@@ -22390,7 +22390,7 @@
       <c r="AA737" s="9"/>
     </row>
     <row r="738" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B738" s="33"/>
+      <c r="B738" s="29"/>
       <c r="C738" s="9"/>
       <c r="D738" s="18"/>
       <c r="E738" s="9"/>
@@ -22418,7 +22418,7 @@
       <c r="AA738" s="9"/>
     </row>
     <row r="739" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B739" s="33"/>
+      <c r="B739" s="29"/>
       <c r="C739" s="9"/>
       <c r="D739" s="18"/>
       <c r="E739" s="9"/>
@@ -22446,7 +22446,7 @@
       <c r="AA739" s="9"/>
     </row>
     <row r="740" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B740" s="33"/>
+      <c r="B740" s="29"/>
       <c r="C740" s="9"/>
       <c r="D740" s="18"/>
       <c r="E740" s="9"/>
@@ -22474,7 +22474,7 @@
       <c r="AA740" s="9"/>
     </row>
     <row r="741" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B741" s="33"/>
+      <c r="B741" s="29"/>
       <c r="C741" s="9"/>
       <c r="D741" s="18"/>
       <c r="E741" s="9"/>
@@ -22502,7 +22502,7 @@
       <c r="AA741" s="9"/>
     </row>
     <row r="742" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B742" s="33"/>
+      <c r="B742" s="29"/>
       <c r="C742" s="9"/>
       <c r="D742" s="18"/>
       <c r="E742" s="9"/>
@@ -22530,7 +22530,7 @@
       <c r="AA742" s="9"/>
     </row>
     <row r="743" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B743" s="33"/>
+      <c r="B743" s="29"/>
       <c r="C743" s="9"/>
       <c r="D743" s="18"/>
       <c r="E743" s="9"/>
@@ -22558,7 +22558,7 @@
       <c r="AA743" s="9"/>
     </row>
     <row r="744" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B744" s="33"/>
+      <c r="B744" s="29"/>
       <c r="C744" s="9"/>
       <c r="D744" s="18"/>
       <c r="E744" s="9"/>
@@ -22586,7 +22586,7 @@
       <c r="AA744" s="9"/>
     </row>
     <row r="745" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B745" s="33"/>
+      <c r="B745" s="29"/>
       <c r="C745" s="9"/>
       <c r="D745" s="18"/>
       <c r="E745" s="9"/>
@@ -22614,7 +22614,7 @@
       <c r="AA745" s="9"/>
     </row>
     <row r="746" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B746" s="33"/>
+      <c r="B746" s="29"/>
       <c r="C746" s="9"/>
       <c r="D746" s="18"/>
       <c r="E746" s="9"/>
@@ -22642,7 +22642,7 @@
       <c r="AA746" s="9"/>
     </row>
     <row r="747" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B747" s="33"/>
+      <c r="B747" s="29"/>
       <c r="C747" s="9"/>
       <c r="D747" s="18"/>
       <c r="E747" s="9"/>
@@ -22670,7 +22670,7 @@
       <c r="AA747" s="9"/>
     </row>
     <row r="748" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B748" s="33"/>
+      <c r="B748" s="29"/>
       <c r="C748" s="9"/>
       <c r="D748" s="18"/>
       <c r="E748" s="9"/>
@@ -22698,7 +22698,7 @@
       <c r="AA748" s="9"/>
     </row>
     <row r="749" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B749" s="33"/>
+      <c r="B749" s="29"/>
       <c r="C749" s="9"/>
       <c r="D749" s="18"/>
       <c r="E749" s="9"/>
@@ -22726,7 +22726,7 @@
       <c r="AA749" s="9"/>
     </row>
     <row r="750" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B750" s="33"/>
+      <c r="B750" s="29"/>
       <c r="C750" s="9"/>
       <c r="D750" s="18"/>
       <c r="E750" s="9"/>
@@ -22754,7 +22754,7 @@
       <c r="AA750" s="9"/>
     </row>
     <row r="751" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B751" s="33"/>
+      <c r="B751" s="29"/>
       <c r="C751" s="9"/>
       <c r="D751" s="18"/>
       <c r="E751" s="9"/>
@@ -22782,7 +22782,7 @@
       <c r="AA751" s="9"/>
     </row>
     <row r="752" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B752" s="33"/>
+      <c r="B752" s="29"/>
       <c r="C752" s="9"/>
       <c r="D752" s="18"/>
       <c r="E752" s="9"/>
@@ -22810,7 +22810,7 @@
       <c r="AA752" s="9"/>
     </row>
     <row r="753" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B753" s="33"/>
+      <c r="B753" s="29"/>
       <c r="C753" s="9"/>
       <c r="D753" s="18"/>
       <c r="E753" s="9"/>
@@ -22838,7 +22838,7 @@
       <c r="AA753" s="9"/>
     </row>
     <row r="754" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B754" s="33"/>
+      <c r="B754" s="29"/>
       <c r="C754" s="9"/>
       <c r="D754" s="18"/>
       <c r="E754" s="9"/>
@@ -22866,7 +22866,7 @@
       <c r="AA754" s="9"/>
     </row>
     <row r="755" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B755" s="33"/>
+      <c r="B755" s="29"/>
       <c r="C755" s="9"/>
       <c r="D755" s="18"/>
       <c r="E755" s="9"/>
@@ -22894,7 +22894,7 @@
       <c r="AA755" s="9"/>
     </row>
     <row r="756" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B756" s="33"/>
+      <c r="B756" s="29"/>
       <c r="C756" s="9"/>
       <c r="D756" s="18"/>
       <c r="E756" s="9"/>
@@ -22922,7 +22922,7 @@
       <c r="AA756" s="9"/>
     </row>
     <row r="757" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B757" s="33"/>
+      <c r="B757" s="29"/>
       <c r="C757" s="9"/>
       <c r="D757" s="18"/>
       <c r="E757" s="9"/>
@@ -22950,7 +22950,7 @@
       <c r="AA757" s="9"/>
     </row>
     <row r="758" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B758" s="33"/>
+      <c r="B758" s="29"/>
       <c r="C758" s="9"/>
       <c r="D758" s="18"/>
       <c r="E758" s="9"/>
@@ -22978,7 +22978,7 @@
       <c r="AA758" s="9"/>
     </row>
     <row r="759" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B759" s="33"/>
+      <c r="B759" s="29"/>
       <c r="C759" s="9"/>
       <c r="D759" s="18"/>
       <c r="E759" s="9"/>
@@ -23006,7 +23006,7 @@
       <c r="AA759" s="9"/>
     </row>
     <row r="760" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B760" s="33"/>
+      <c r="B760" s="29"/>
       <c r="C760" s="9"/>
       <c r="D760" s="18"/>
       <c r="E760" s="9"/>
@@ -23034,7 +23034,7 @@
       <c r="AA760" s="9"/>
     </row>
     <row r="761" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B761" s="33"/>
+      <c r="B761" s="29"/>
       <c r="C761" s="9"/>
       <c r="D761" s="18"/>
       <c r="E761" s="9"/>
@@ -23062,7 +23062,7 @@
       <c r="AA761" s="9"/>
     </row>
     <row r="762" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B762" s="33"/>
+      <c r="B762" s="29"/>
       <c r="C762" s="9"/>
       <c r="D762" s="18"/>
       <c r="E762" s="9"/>
@@ -23090,7 +23090,7 @@
       <c r="AA762" s="9"/>
     </row>
     <row r="763" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B763" s="33"/>
+      <c r="B763" s="29"/>
       <c r="C763" s="9"/>
       <c r="D763" s="18"/>
       <c r="E763" s="9"/>
@@ -23118,7 +23118,7 @@
       <c r="AA763" s="9"/>
     </row>
     <row r="764" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B764" s="33"/>
+      <c r="B764" s="29"/>
       <c r="C764" s="9"/>
       <c r="D764" s="18"/>
       <c r="E764" s="9"/>
@@ -23146,7 +23146,7 @@
       <c r="AA764" s="9"/>
     </row>
     <row r="765" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B765" s="33"/>
+      <c r="B765" s="29"/>
       <c r="C765" s="9"/>
       <c r="D765" s="18"/>
       <c r="E765" s="9"/>
@@ -23174,7 +23174,7 @@
       <c r="AA765" s="9"/>
     </row>
     <row r="766" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B766" s="33"/>
+      <c r="B766" s="29"/>
       <c r="C766" s="9"/>
       <c r="D766" s="18"/>
       <c r="E766" s="9"/>
@@ -23202,7 +23202,7 @@
       <c r="AA766" s="9"/>
     </row>
     <row r="767" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B767" s="33"/>
+      <c r="B767" s="29"/>
       <c r="C767" s="9"/>
       <c r="D767" s="18"/>
       <c r="E767" s="9"/>
@@ -23230,7 +23230,7 @@
       <c r="AA767" s="9"/>
     </row>
     <row r="768" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B768" s="33"/>
+      <c r="B768" s="29"/>
       <c r="C768" s="9"/>
       <c r="D768" s="18"/>
       <c r="E768" s="9"/>
@@ -23258,7 +23258,7 @@
       <c r="AA768" s="9"/>
     </row>
     <row r="769" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B769" s="33"/>
+      <c r="B769" s="29"/>
       <c r="C769" s="9"/>
       <c r="D769" s="18"/>
       <c r="E769" s="9"/>
@@ -23286,7 +23286,7 @@
       <c r="AA769" s="9"/>
     </row>
     <row r="770" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B770" s="33"/>
+      <c r="B770" s="29"/>
       <c r="C770" s="9"/>
       <c r="D770" s="18"/>
       <c r="E770" s="9"/>
@@ -23314,7 +23314,7 @@
       <c r="AA770" s="9"/>
     </row>
     <row r="771" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B771" s="33"/>
+      <c r="B771" s="29"/>
       <c r="C771" s="9"/>
       <c r="D771" s="18"/>
       <c r="E771" s="9"/>
@@ -23342,7 +23342,7 @@
       <c r="AA771" s="9"/>
     </row>
     <row r="772" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B772" s="33"/>
+      <c r="B772" s="29"/>
       <c r="C772" s="9"/>
       <c r="D772" s="18"/>
       <c r="E772" s="9"/>
@@ -23370,7 +23370,7 @@
       <c r="AA772" s="9"/>
     </row>
     <row r="773" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B773" s="33"/>
+      <c r="B773" s="29"/>
       <c r="C773" s="9"/>
       <c r="D773" s="18"/>
       <c r="E773" s="9"/>
@@ -23398,7 +23398,7 @@
       <c r="AA773" s="9"/>
     </row>
     <row r="774" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B774" s="33"/>
+      <c r="B774" s="29"/>
       <c r="C774" s="9"/>
       <c r="D774" s="18"/>
       <c r="E774" s="9"/>
@@ -23426,7 +23426,7 @@
       <c r="AA774" s="9"/>
     </row>
     <row r="775" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B775" s="33"/>
+      <c r="B775" s="29"/>
       <c r="C775" s="9"/>
       <c r="D775" s="18"/>
       <c r="E775" s="9"/>
@@ -23454,7 +23454,7 @@
       <c r="AA775" s="9"/>
     </row>
     <row r="776" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B776" s="33"/>
+      <c r="B776" s="29"/>
       <c r="C776" s="9"/>
       <c r="D776" s="18"/>
       <c r="E776" s="9"/>
@@ -23482,7 +23482,7 @@
       <c r="AA776" s="9"/>
     </row>
     <row r="777" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B777" s="33"/>
+      <c r="B777" s="29"/>
       <c r="C777" s="9"/>
       <c r="D777" s="18"/>
       <c r="E777" s="9"/>
@@ -23510,7 +23510,7 @@
       <c r="AA777" s="9"/>
     </row>
     <row r="778" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B778" s="33"/>
+      <c r="B778" s="29"/>
       <c r="C778" s="9"/>
       <c r="D778" s="18"/>
       <c r="E778" s="9"/>
@@ -23538,7 +23538,7 @@
       <c r="AA778" s="9"/>
     </row>
     <row r="779" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B779" s="33"/>
+      <c r="B779" s="29"/>
       <c r="C779" s="9"/>
       <c r="D779" s="18"/>
       <c r="E779" s="9"/>
@@ -23566,7 +23566,7 @@
       <c r="AA779" s="9"/>
     </row>
     <row r="780" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B780" s="33"/>
+      <c r="B780" s="29"/>
       <c r="C780" s="9"/>
       <c r="D780" s="18"/>
       <c r="E780" s="9"/>
@@ -23594,7 +23594,7 @@
       <c r="AA780" s="9"/>
     </row>
     <row r="781" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B781" s="33"/>
+      <c r="B781" s="29"/>
       <c r="C781" s="9"/>
       <c r="D781" s="18"/>
       <c r="E781" s="9"/>
@@ -23622,7 +23622,7 @@
       <c r="AA781" s="9"/>
     </row>
     <row r="782" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B782" s="33"/>
+      <c r="B782" s="29"/>
       <c r="C782" s="9"/>
       <c r="D782" s="18"/>
       <c r="E782" s="9"/>
@@ -23650,7 +23650,7 @@
       <c r="AA782" s="9"/>
     </row>
     <row r="783" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B783" s="33"/>
+      <c r="B783" s="29"/>
       <c r="C783" s="9"/>
       <c r="D783" s="18"/>
       <c r="E783" s="9"/>
@@ -23678,7 +23678,7 @@
       <c r="AA783" s="9"/>
     </row>
     <row r="784" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B784" s="33"/>
+      <c r="B784" s="29"/>
       <c r="C784" s="9"/>
       <c r="D784" s="18"/>
       <c r="E784" s="9"/>
@@ -23706,7 +23706,7 @@
       <c r="AA784" s="9"/>
     </row>
     <row r="785" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B785" s="33"/>
+      <c r="B785" s="29"/>
       <c r="C785" s="9"/>
       <c r="D785" s="18"/>
       <c r="E785" s="9"/>
@@ -23734,7 +23734,7 @@
       <c r="AA785" s="9"/>
     </row>
     <row r="786" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B786" s="33"/>
+      <c r="B786" s="29"/>
       <c r="C786" s="9"/>
       <c r="D786" s="18"/>
       <c r="E786" s="9"/>
@@ -23762,7 +23762,7 @@
       <c r="AA786" s="9"/>
     </row>
     <row r="787" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B787" s="33"/>
+      <c r="B787" s="29"/>
       <c r="C787" s="9"/>
       <c r="D787" s="18"/>
       <c r="E787" s="9"/>
@@ -23790,7 +23790,7 @@
       <c r="AA787" s="9"/>
     </row>
     <row r="788" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B788" s="33"/>
+      <c r="B788" s="29"/>
       <c r="C788" s="9"/>
       <c r="D788" s="18"/>
       <c r="E788" s="9"/>
@@ -23818,7 +23818,7 @@
       <c r="AA788" s="9"/>
     </row>
     <row r="789" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B789" s="33"/>
+      <c r="B789" s="29"/>
       <c r="C789" s="9"/>
       <c r="D789" s="18"/>
       <c r="E789" s="9"/>
@@ -23846,7 +23846,7 @@
       <c r="AA789" s="9"/>
     </row>
     <row r="790" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B790" s="33"/>
+      <c r="B790" s="29"/>
       <c r="C790" s="9"/>
       <c r="D790" s="18"/>
       <c r="E790" s="9"/>
@@ -23874,7 +23874,7 @@
       <c r="AA790" s="9"/>
     </row>
     <row r="791" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B791" s="33"/>
+      <c r="B791" s="29"/>
       <c r="C791" s="9"/>
       <c r="D791" s="18"/>
       <c r="E791" s="9"/>
@@ -23902,7 +23902,7 @@
       <c r="AA791" s="9"/>
     </row>
     <row r="792" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B792" s="33"/>
+      <c r="B792" s="29"/>
       <c r="C792" s="9"/>
       <c r="D792" s="18"/>
       <c r="E792" s="9"/>
@@ -23930,7 +23930,7 @@
       <c r="AA792" s="9"/>
     </row>
     <row r="793" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B793" s="33"/>
+      <c r="B793" s="29"/>
       <c r="C793" s="9"/>
       <c r="D793" s="18"/>
       <c r="E793" s="9"/>
@@ -23958,7 +23958,7 @@
       <c r="AA793" s="9"/>
     </row>
     <row r="794" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B794" s="33"/>
+      <c r="B794" s="29"/>
       <c r="C794" s="9"/>
       <c r="D794" s="18"/>
       <c r="E794" s="9"/>
@@ -23986,7 +23986,7 @@
       <c r="AA794" s="9"/>
     </row>
     <row r="795" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B795" s="33"/>
+      <c r="B795" s="29"/>
       <c r="C795" s="9"/>
       <c r="D795" s="18"/>
       <c r="E795" s="9"/>
@@ -24014,7 +24014,7 @@
       <c r="AA795" s="9"/>
     </row>
     <row r="796" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B796" s="33"/>
+      <c r="B796" s="29"/>
       <c r="C796" s="9"/>
       <c r="D796" s="18"/>
       <c r="E796" s="9"/>
@@ -24042,7 +24042,7 @@
       <c r="AA796" s="9"/>
     </row>
     <row r="797" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B797" s="33"/>
+      <c r="B797" s="29"/>
       <c r="C797" s="9"/>
       <c r="D797" s="18"/>
       <c r="E797" s="9"/>
@@ -24070,7 +24070,7 @@
       <c r="AA797" s="9"/>
     </row>
     <row r="798" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B798" s="33"/>
+      <c r="B798" s="29"/>
       <c r="C798" s="9"/>
       <c r="D798" s="18"/>
       <c r="E798" s="9"/>
@@ -24098,7 +24098,7 @@
       <c r="AA798" s="9"/>
     </row>
     <row r="799" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B799" s="33"/>
+      <c r="B799" s="29"/>
       <c r="C799" s="9"/>
       <c r="D799" s="18"/>
       <c r="E799" s="9"/>
@@ -24126,7 +24126,7 @@
       <c r="AA799" s="9"/>
     </row>
     <row r="800" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B800" s="33"/>
+      <c r="B800" s="29"/>
       <c r="C800" s="9"/>
       <c r="D800" s="18"/>
       <c r="E800" s="9"/>
@@ -24154,7 +24154,7 @@
       <c r="AA800" s="9"/>
     </row>
     <row r="801" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B801" s="33"/>
+      <c r="B801" s="29"/>
       <c r="C801" s="9"/>
       <c r="D801" s="18"/>
       <c r="E801" s="9"/>
@@ -24182,7 +24182,7 @@
       <c r="AA801" s="9"/>
     </row>
     <row r="802" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B802" s="33"/>
+      <c r="B802" s="29"/>
       <c r="C802" s="9"/>
       <c r="D802" s="18"/>
       <c r="E802" s="9"/>
@@ -24210,7 +24210,7 @@
       <c r="AA802" s="9"/>
     </row>
     <row r="803" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B803" s="33"/>
+      <c r="B803" s="29"/>
       <c r="C803" s="9"/>
       <c r="D803" s="18"/>
       <c r="E803" s="9"/>
@@ -24238,7 +24238,7 @@
       <c r="AA803" s="9"/>
     </row>
     <row r="804" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B804" s="33"/>
+      <c r="B804" s="29"/>
       <c r="C804" s="9"/>
       <c r="D804" s="18"/>
       <c r="E804" s="9"/>
@@ -24266,7 +24266,7 @@
       <c r="AA804" s="9"/>
     </row>
     <row r="805" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B805" s="33"/>
+      <c r="B805" s="29"/>
       <c r="C805" s="9"/>
       <c r="D805" s="18"/>
       <c r="E805" s="9"/>
@@ -24294,7 +24294,7 @@
       <c r="AA805" s="9"/>
     </row>
     <row r="806" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B806" s="33"/>
+      <c r="B806" s="29"/>
       <c r="C806" s="9"/>
       <c r="D806" s="18"/>
       <c r="E806" s="9"/>
@@ -24322,7 +24322,7 @@
       <c r="AA806" s="9"/>
     </row>
     <row r="807" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B807" s="33"/>
+      <c r="B807" s="29"/>
       <c r="C807" s="9"/>
       <c r="D807" s="18"/>
       <c r="E807" s="9"/>
@@ -24350,7 +24350,7 @@
       <c r="AA807" s="9"/>
     </row>
     <row r="808" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B808" s="33"/>
+      <c r="B808" s="29"/>
       <c r="C808" s="9"/>
       <c r="D808" s="18"/>
       <c r="E808" s="9"/>
@@ -24378,7 +24378,7 @@
       <c r="AA808" s="9"/>
     </row>
     <row r="809" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B809" s="33"/>
+      <c r="B809" s="29"/>
       <c r="C809" s="9"/>
       <c r="D809" s="18"/>
       <c r="E809" s="9"/>
@@ -24406,7 +24406,7 @@
       <c r="AA809" s="9"/>
     </row>
     <row r="810" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B810" s="33"/>
+      <c r="B810" s="29"/>
       <c r="C810" s="9"/>
       <c r="D810" s="18"/>
       <c r="E810" s="9"/>
@@ -24434,7 +24434,7 @@
       <c r="AA810" s="9"/>
     </row>
     <row r="811" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B811" s="33"/>
+      <c r="B811" s="29"/>
       <c r="C811" s="9"/>
       <c r="D811" s="18"/>
       <c r="E811" s="9"/>
@@ -24462,7 +24462,7 @@
       <c r="AA811" s="9"/>
     </row>
     <row r="812" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B812" s="33"/>
+      <c r="B812" s="29"/>
       <c r="C812" s="9"/>
       <c r="D812" s="18"/>
       <c r="E812" s="9"/>
@@ -24490,7 +24490,7 @@
       <c r="AA812" s="9"/>
     </row>
     <row r="813" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B813" s="33"/>
+      <c r="B813" s="29"/>
       <c r="C813" s="9"/>
       <c r="D813" s="18"/>
       <c r="E813" s="9"/>
@@ -24518,7 +24518,7 @@
       <c r="AA813" s="9"/>
     </row>
     <row r="814" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B814" s="33"/>
+      <c r="B814" s="29"/>
       <c r="C814" s="9"/>
       <c r="D814" s="18"/>
       <c r="E814" s="9"/>
@@ -24546,7 +24546,7 @@
       <c r="AA814" s="9"/>
     </row>
     <row r="815" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B815" s="33"/>
+      <c r="B815" s="29"/>
       <c r="C815" s="9"/>
       <c r="D815" s="18"/>
       <c r="E815" s="9"/>
@@ -24574,7 +24574,7 @@
       <c r="AA815" s="9"/>
     </row>
     <row r="816" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B816" s="33"/>
+      <c r="B816" s="29"/>
       <c r="C816" s="9"/>
       <c r="D816" s="18"/>
       <c r="E816" s="9"/>
@@ -24602,7 +24602,7 @@
       <c r="AA816" s="9"/>
     </row>
     <row r="817" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B817" s="33"/>
+      <c r="B817" s="29"/>
       <c r="C817" s="9"/>
       <c r="D817" s="18"/>
       <c r="E817" s="9"/>
@@ -24630,7 +24630,7 @@
       <c r="AA817" s="9"/>
     </row>
     <row r="818" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B818" s="33"/>
+      <c r="B818" s="29"/>
       <c r="C818" s="9"/>
       <c r="D818" s="18"/>
       <c r="E818" s="9"/>
@@ -24658,7 +24658,7 @@
       <c r="AA818" s="9"/>
     </row>
     <row r="819" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B819" s="33"/>
+      <c r="B819" s="29"/>
       <c r="C819" s="9"/>
       <c r="D819" s="18"/>
       <c r="E819" s="9"/>
@@ -24686,7 +24686,7 @@
       <c r="AA819" s="9"/>
     </row>
     <row r="820" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B820" s="33"/>
+      <c r="B820" s="29"/>
       <c r="C820" s="9"/>
       <c r="D820" s="18"/>
       <c r="E820" s="9"/>
@@ -24714,7 +24714,7 @@
       <c r="AA820" s="9"/>
     </row>
     <row r="821" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B821" s="33"/>
+      <c r="B821" s="29"/>
       <c r="C821" s="9"/>
       <c r="D821" s="18"/>
       <c r="E821" s="9"/>
@@ -24742,7 +24742,7 @@
       <c r="AA821" s="9"/>
     </row>
     <row r="822" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B822" s="33"/>
+      <c r="B822" s="29"/>
       <c r="C822" s="9"/>
       <c r="D822" s="18"/>
       <c r="E822" s="9"/>
@@ -24770,7 +24770,7 @@
       <c r="AA822" s="9"/>
     </row>
     <row r="823" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B823" s="33"/>
+      <c r="B823" s="29"/>
       <c r="C823" s="9"/>
       <c r="D823" s="18"/>
       <c r="E823" s="9"/>
@@ -24798,7 +24798,7 @@
       <c r="AA823" s="9"/>
     </row>
     <row r="824" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B824" s="33"/>
+      <c r="B824" s="29"/>
       <c r="C824" s="9"/>
       <c r="D824" s="18"/>
       <c r="E824" s="9"/>
@@ -24826,7 +24826,7 @@
       <c r="AA824" s="9"/>
     </row>
     <row r="825" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B825" s="33"/>
+      <c r="B825" s="29"/>
       <c r="C825" s="9"/>
       <c r="D825" s="18"/>
       <c r="E825" s="9"/>
@@ -24854,7 +24854,7 @@
       <c r="AA825" s="9"/>
     </row>
     <row r="826" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B826" s="33"/>
+      <c r="B826" s="29"/>
       <c r="C826" s="9"/>
       <c r="D826" s="18"/>
       <c r="E826" s="9"/>
@@ -24882,7 +24882,7 @@
       <c r="AA826" s="9"/>
     </row>
     <row r="827" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B827" s="33"/>
+      <c r="B827" s="29"/>
       <c r="C827" s="9"/>
       <c r="D827" s="18"/>
       <c r="E827" s="9"/>
@@ -24910,7 +24910,7 @@
       <c r="AA827" s="9"/>
     </row>
     <row r="828" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B828" s="33"/>
+      <c r="B828" s="29"/>
       <c r="C828" s="9"/>
       <c r="D828" s="18"/>
       <c r="E828" s="9"/>
@@ -24938,7 +24938,7 @@
       <c r="AA828" s="9"/>
     </row>
     <row r="829" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B829" s="33"/>
+      <c r="B829" s="29"/>
       <c r="C829" s="9"/>
       <c r="D829" s="18"/>
       <c r="E829" s="9"/>
@@ -24966,7 +24966,7 @@
       <c r="AA829" s="9"/>
     </row>
     <row r="830" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B830" s="33"/>
+      <c r="B830" s="29"/>
       <c r="C830" s="9"/>
       <c r="D830" s="18"/>
       <c r="E830" s="9"/>
@@ -24994,7 +24994,7 @@
       <c r="AA830" s="9"/>
     </row>
     <row r="831" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B831" s="33"/>
+      <c r="B831" s="29"/>
       <c r="C831" s="9"/>
       <c r="D831" s="18"/>
       <c r="E831" s="9"/>
@@ -25022,7 +25022,7 @@
       <c r="AA831" s="9"/>
     </row>
     <row r="832" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B832" s="33"/>
+      <c r="B832" s="29"/>
       <c r="C832" s="9"/>
       <c r="D832" s="18"/>
       <c r="E832" s="9"/>
@@ -25050,7 +25050,7 @@
       <c r="AA832" s="9"/>
     </row>
     <row r="833" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B833" s="33"/>
+      <c r="B833" s="29"/>
       <c r="C833" s="9"/>
       <c r="D833" s="18"/>
       <c r="E833" s="9"/>
@@ -25078,7 +25078,7 @@
       <c r="AA833" s="9"/>
     </row>
     <row r="834" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B834" s="33"/>
+      <c r="B834" s="29"/>
       <c r="C834" s="9"/>
       <c r="D834" s="18"/>
       <c r="E834" s="9"/>
@@ -25106,7 +25106,7 @@
       <c r="AA834" s="9"/>
     </row>
     <row r="835" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B835" s="33"/>
+      <c r="B835" s="29"/>
       <c r="C835" s="9"/>
       <c r="D835" s="18"/>
       <c r="E835" s="9"/>
@@ -25134,7 +25134,7 @@
       <c r="AA835" s="9"/>
     </row>
     <row r="836" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B836" s="33"/>
+      <c r="B836" s="29"/>
       <c r="C836" s="9"/>
       <c r="D836" s="18"/>
       <c r="E836" s="9"/>
@@ -25162,7 +25162,7 @@
       <c r="AA836" s="9"/>
     </row>
     <row r="837" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B837" s="33"/>
+      <c r="B837" s="29"/>
       <c r="C837" s="9"/>
       <c r="D837" s="18"/>
       <c r="E837" s="9"/>
@@ -25190,7 +25190,7 @@
       <c r="AA837" s="9"/>
     </row>
     <row r="838" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B838" s="33"/>
+      <c r="B838" s="29"/>
       <c r="C838" s="9"/>
       <c r="D838" s="18"/>
       <c r="E838" s="9"/>
@@ -25218,7 +25218,7 @@
       <c r="AA838" s="9"/>
     </row>
     <row r="839" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B839" s="33"/>
+      <c r="B839" s="29"/>
       <c r="C839" s="9"/>
       <c r="D839" s="18"/>
       <c r="E839" s="9"/>
@@ -25246,7 +25246,7 @@
       <c r="AA839" s="9"/>
     </row>
     <row r="840" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B840" s="33"/>
+      <c r="B840" s="29"/>
       <c r="C840" s="9"/>
       <c r="D840" s="18"/>
       <c r="E840" s="9"/>
@@ -25274,7 +25274,7 @@
       <c r="AA840" s="9"/>
     </row>
     <row r="841" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B841" s="33"/>
+      <c r="B841" s="29"/>
       <c r="C841" s="9"/>
       <c r="D841" s="18"/>
       <c r="E841" s="9"/>
@@ -25302,7 +25302,7 @@
       <c r="AA841" s="9"/>
     </row>
     <row r="842" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B842" s="33"/>
+      <c r="B842" s="29"/>
       <c r="C842" s="9"/>
       <c r="D842" s="18"/>
       <c r="E842" s="9"/>
@@ -25330,7 +25330,7 @@
       <c r="AA842" s="9"/>
     </row>
     <row r="843" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B843" s="33"/>
+      <c r="B843" s="29"/>
       <c r="C843" s="9"/>
       <c r="D843" s="18"/>
       <c r="E843" s="9"/>
@@ -25358,7 +25358,7 @@
       <c r="AA843" s="9"/>
     </row>
     <row r="844" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B844" s="33"/>
+      <c r="B844" s="29"/>
       <c r="C844" s="9"/>
       <c r="D844" s="18"/>
       <c r="E844" s="9"/>
@@ -25386,7 +25386,7 @@
       <c r="AA844" s="9"/>
     </row>
     <row r="845" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B845" s="33"/>
+      <c r="B845" s="29"/>
       <c r="C845" s="9"/>
       <c r="D845" s="18"/>
       <c r="E845" s="9"/>
@@ -25414,7 +25414,7 @@
       <c r="AA845" s="9"/>
     </row>
     <row r="846" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B846" s="33"/>
+      <c r="B846" s="29"/>
       <c r="C846" s="9"/>
       <c r="D846" s="18"/>
       <c r="E846" s="9"/>
@@ -25442,7 +25442,7 @@
       <c r="AA846" s="9"/>
     </row>
     <row r="847" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B847" s="33"/>
+      <c r="B847" s="29"/>
       <c r="C847" s="9"/>
       <c r="D847" s="18"/>
       <c r="E847" s="9"/>
@@ -25470,7 +25470,7 @@
       <c r="AA847" s="9"/>
     </row>
     <row r="848" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B848" s="33"/>
+      <c r="B848" s="29"/>
       <c r="C848" s="9"/>
       <c r="D848" s="18"/>
       <c r="E848" s="9"/>
@@ -25498,7 +25498,7 @@
       <c r="AA848" s="9"/>
     </row>
     <row r="849" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B849" s="33"/>
+      <c r="B849" s="29"/>
       <c r="C849" s="9"/>
       <c r="D849" s="18"/>
       <c r="E849" s="9"/>
@@ -25526,7 +25526,7 @@
       <c r="AA849" s="9"/>
     </row>
     <row r="850" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B850" s="33"/>
+      <c r="B850" s="29"/>
       <c r="C850" s="9"/>
       <c r="D850" s="18"/>
       <c r="E850" s="9"/>
@@ -25554,7 +25554,7 @@
       <c r="AA850" s="9"/>
     </row>
     <row r="851" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B851" s="33"/>
+      <c r="B851" s="29"/>
       <c r="C851" s="9"/>
       <c r="D851" s="18"/>
       <c r="E851" s="9"/>
@@ -25582,7 +25582,7 @@
       <c r="AA851" s="9"/>
     </row>
     <row r="852" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B852" s="33"/>
+      <c r="B852" s="29"/>
       <c r="C852" s="9"/>
       <c r="D852" s="18"/>
       <c r="E852" s="9"/>
@@ -25610,7 +25610,7 @@
       <c r="AA852" s="9"/>
     </row>
     <row r="853" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B853" s="33"/>
+      <c r="B853" s="29"/>
       <c r="C853" s="9"/>
       <c r="D853" s="18"/>
       <c r="E853" s="9"/>
@@ -25638,7 +25638,7 @@
       <c r="AA853" s="9"/>
     </row>
     <row r="854" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B854" s="33"/>
+      <c r="B854" s="29"/>
       <c r="C854" s="9"/>
       <c r="D854" s="18"/>
       <c r="E854" s="9"/>
@@ -25666,7 +25666,7 @@
       <c r="AA854" s="9"/>
     </row>
     <row r="855" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B855" s="33"/>
+      <c r="B855" s="29"/>
       <c r="C855" s="9"/>
       <c r="D855" s="18"/>
       <c r="E855" s="9"/>
@@ -25694,7 +25694,7 @@
       <c r="AA855" s="9"/>
     </row>
     <row r="856" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B856" s="33"/>
+      <c r="B856" s="29"/>
       <c r="C856" s="9"/>
       <c r="D856" s="18"/>
       <c r="E856" s="9"/>
@@ -25722,7 +25722,7 @@
       <c r="AA856" s="9"/>
     </row>
     <row r="857" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B857" s="33"/>
+      <c r="B857" s="29"/>
       <c r="C857" s="9"/>
       <c r="D857" s="18"/>
       <c r="E857" s="9"/>
@@ -25750,7 +25750,7 @@
       <c r="AA857" s="9"/>
     </row>
     <row r="858" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B858" s="33"/>
+      <c r="B858" s="29"/>
       <c r="C858" s="9"/>
       <c r="D858" s="18"/>
       <c r="E858" s="9"/>
@@ -25778,7 +25778,7 @@
       <c r="AA858" s="9"/>
     </row>
     <row r="859" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B859" s="33"/>
+      <c r="B859" s="29"/>
       <c r="C859" s="9"/>
       <c r="D859" s="18"/>
       <c r="E859" s="9"/>
@@ -25806,7 +25806,7 @@
       <c r="AA859" s="9"/>
     </row>
     <row r="860" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B860" s="33"/>
+      <c r="B860" s="29"/>
       <c r="C860" s="9"/>
       <c r="D860" s="18"/>
       <c r="E860" s="9"/>
@@ -25834,7 +25834,7 @@
       <c r="AA860" s="9"/>
     </row>
     <row r="861" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B861" s="33"/>
+      <c r="B861" s="29"/>
       <c r="C861" s="9"/>
       <c r="D861" s="18"/>
       <c r="E861" s="9"/>
@@ -25862,7 +25862,7 @@
       <c r="AA861" s="9"/>
     </row>
     <row r="862" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B862" s="33"/>
+      <c r="B862" s="29"/>
       <c r="C862" s="9"/>
       <c r="D862" s="18"/>
       <c r="E862" s="9"/>
@@ -25890,7 +25890,7 @@
       <c r="AA862" s="9"/>
     </row>
     <row r="863" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B863" s="33"/>
+      <c r="B863" s="29"/>
       <c r="C863" s="9"/>
       <c r="D863" s="18"/>
       <c r="E863" s="9"/>
@@ -25918,7 +25918,7 @@
       <c r="AA863" s="9"/>
     </row>
     <row r="864" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B864" s="33"/>
+      <c r="B864" s="29"/>
       <c r="C864" s="9"/>
       <c r="D864" s="18"/>
       <c r="E864" s="9"/>
@@ -25946,7 +25946,7 @@
       <c r="AA864" s="9"/>
     </row>
     <row r="865" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B865" s="33"/>
+      <c r="B865" s="29"/>
       <c r="C865" s="9"/>
       <c r="D865" s="18"/>
       <c r="E865" s="9"/>
@@ -25974,7 +25974,7 @@
       <c r="AA865" s="9"/>
     </row>
     <row r="866" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B866" s="33"/>
+      <c r="B866" s="29"/>
       <c r="C866" s="9"/>
       <c r="D866" s="18"/>
       <c r="E866" s="9"/>
@@ -26002,7 +26002,7 @@
       <c r="AA866" s="9"/>
     </row>
     <row r="867" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B867" s="33"/>
+      <c r="B867" s="29"/>
       <c r="C867" s="9"/>
       <c r="D867" s="18"/>
       <c r="E867" s="9"/>
@@ -26030,7 +26030,7 @@
       <c r="AA867" s="9"/>
     </row>
     <row r="868" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B868" s="33"/>
+      <c r="B868" s="29"/>
       <c r="C868" s="9"/>
       <c r="D868" s="18"/>
       <c r="E868" s="9"/>
@@ -26058,7 +26058,7 @@
       <c r="AA868" s="9"/>
     </row>
     <row r="869" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B869" s="33"/>
+      <c r="B869" s="29"/>
       <c r="C869" s="9"/>
       <c r="D869" s="18"/>
       <c r="E869" s="9"/>
@@ -26086,7 +26086,7 @@
       <c r="AA869" s="9"/>
     </row>
     <row r="870" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B870" s="33"/>
+      <c r="B870" s="29"/>
       <c r="C870" s="9"/>
       <c r="D870" s="18"/>
       <c r="E870" s="9"/>
@@ -26114,7 +26114,7 @@
       <c r="AA870" s="9"/>
     </row>
     <row r="871" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B871" s="33"/>
+      <c r="B871" s="29"/>
       <c r="C871" s="9"/>
       <c r="D871" s="18"/>
       <c r="E871" s="9"/>
@@ -26142,7 +26142,7 @@
       <c r="AA871" s="9"/>
     </row>
     <row r="872" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B872" s="33"/>
+      <c r="B872" s="29"/>
       <c r="C872" s="9"/>
       <c r="D872" s="18"/>
       <c r="E872" s="9"/>
@@ -26170,7 +26170,7 @@
       <c r="AA872" s="9"/>
     </row>
     <row r="873" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B873" s="33"/>
+      <c r="B873" s="29"/>
       <c r="C873" s="9"/>
       <c r="D873" s="18"/>
       <c r="E873" s="9"/>
@@ -26198,7 +26198,7 @@
       <c r="AA873" s="9"/>
     </row>
     <row r="874" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B874" s="33"/>
+      <c r="B874" s="29"/>
       <c r="C874" s="9"/>
       <c r="D874" s="18"/>
       <c r="E874" s="9"/>
@@ -26226,7 +26226,7 @@
       <c r="AA874" s="9"/>
     </row>
     <row r="875" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B875" s="33"/>
+      <c r="B875" s="29"/>
       <c r="C875" s="9"/>
       <c r="D875" s="18"/>
       <c r="E875" s="9"/>
@@ -26254,7 +26254,7 @@
       <c r="AA875" s="9"/>
     </row>
     <row r="876" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B876" s="33"/>
+      <c r="B876" s="29"/>
       <c r="C876" s="9"/>
       <c r="D876" s="18"/>
       <c r="E876" s="9"/>
@@ -26282,7 +26282,7 @@
       <c r="AA876" s="9"/>
     </row>
     <row r="877" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B877" s="33"/>
+      <c r="B877" s="29"/>
       <c r="C877" s="9"/>
       <c r="D877" s="18"/>
       <c r="E877" s="9"/>
@@ -26310,7 +26310,7 @@
       <c r="AA877" s="9"/>
     </row>
     <row r="878" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B878" s="33"/>
+      <c r="B878" s="29"/>
       <c r="C878" s="9"/>
       <c r="D878" s="18"/>
       <c r="E878" s="9"/>
@@ -26338,7 +26338,7 @@
       <c r="AA878" s="9"/>
     </row>
     <row r="879" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B879" s="33"/>
+      <c r="B879" s="29"/>
       <c r="C879" s="9"/>
       <c r="D879" s="18"/>
       <c r="E879" s="9"/>
@@ -26366,7 +26366,7 @@
       <c r="AA879" s="9"/>
     </row>
     <row r="880" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B880" s="33"/>
+      <c r="B880" s="29"/>
       <c r="C880" s="9"/>
       <c r="D880" s="18"/>
       <c r="E880" s="9"/>
@@ -26394,7 +26394,7 @@
       <c r="AA880" s="9"/>
     </row>
     <row r="881" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B881" s="33"/>
+      <c r="B881" s="29"/>
       <c r="C881" s="9"/>
       <c r="D881" s="18"/>
       <c r="E881" s="9"/>
@@ -26422,7 +26422,7 @@
       <c r="AA881" s="9"/>
     </row>
     <row r="882" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B882" s="33"/>
+      <c r="B882" s="29"/>
       <c r="C882" s="9"/>
       <c r="D882" s="18"/>
       <c r="E882" s="9"/>
@@ -26450,7 +26450,7 @@
       <c r="AA882" s="9"/>
     </row>
     <row r="883" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B883" s="33"/>
+      <c r="B883" s="29"/>
       <c r="C883" s="9"/>
       <c r="D883" s="18"/>
       <c r="E883" s="9"/>
@@ -26478,7 +26478,7 @@
       <c r="AA883" s="9"/>
     </row>
     <row r="884" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B884" s="33"/>
+      <c r="B884" s="29"/>
       <c r="C884" s="9"/>
       <c r="D884" s="18"/>
       <c r="E884" s="9"/>
@@ -26506,7 +26506,7 @@
       <c r="AA884" s="9"/>
     </row>
     <row r="885" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B885" s="33"/>
+      <c r="B885" s="29"/>
       <c r="C885" s="9"/>
       <c r="D885" s="18"/>
       <c r="E885" s="9"/>
@@ -26534,7 +26534,7 @@
       <c r="AA885" s="9"/>
     </row>
     <row r="886" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B886" s="33"/>
+      <c r="B886" s="29"/>
       <c r="C886" s="9"/>
       <c r="D886" s="18"/>
       <c r="E886" s="9"/>
@@ -26562,7 +26562,7 @@
       <c r="AA886" s="9"/>
     </row>
     <row r="887" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B887" s="33"/>
+      <c r="B887" s="29"/>
       <c r="C887" s="9"/>
       <c r="D887" s="18"/>
       <c r="E887" s="9"/>
@@ -26590,7 +26590,7 @@
       <c r="AA887" s="9"/>
     </row>
     <row r="888" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B888" s="33"/>
+      <c r="B888" s="29"/>
       <c r="C888" s="9"/>
       <c r="D888" s="18"/>
       <c r="E888" s="9"/>
@@ -26618,7 +26618,7 @@
       <c r="AA888" s="9"/>
     </row>
     <row r="889" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B889" s="33"/>
+      <c r="B889" s="29"/>
       <c r="C889" s="9"/>
       <c r="D889" s="18"/>
       <c r="E889" s="9"/>
@@ -26646,7 +26646,7 @@
       <c r="AA889" s="9"/>
     </row>
     <row r="890" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B890" s="33"/>
+      <c r="B890" s="29"/>
       <c r="C890" s="9"/>
       <c r="D890" s="18"/>
       <c r="E890" s="9"/>
@@ -26674,7 +26674,7 @@
       <c r="AA890" s="9"/>
     </row>
     <row r="891" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B891" s="33"/>
+      <c r="B891" s="29"/>
       <c r="C891" s="9"/>
       <c r="D891" s="18"/>
       <c r="E891" s="9"/>
@@ -26702,7 +26702,7 @@
       <c r="AA891" s="9"/>
     </row>
     <row r="892" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B892" s="33"/>
+      <c r="B892" s="29"/>
       <c r="C892" s="9"/>
       <c r="D892" s="18"/>
       <c r="E892" s="9"/>
@@ -26730,7 +26730,7 @@
       <c r="AA892" s="9"/>
     </row>
     <row r="893" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B893" s="33"/>
+      <c r="B893" s="29"/>
       <c r="C893" s="9"/>
       <c r="D893" s="18"/>
       <c r="E893" s="9"/>
@@ -26758,7 +26758,7 @@
       <c r="AA893" s="9"/>
     </row>
     <row r="894" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B894" s="33"/>
+      <c r="B894" s="29"/>
       <c r="C894" s="9"/>
       <c r="D894" s="18"/>
       <c r="E894" s="9"/>
@@ -26786,7 +26786,7 @@
       <c r="AA894" s="9"/>
     </row>
     <row r="895" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B895" s="33"/>
+      <c r="B895" s="29"/>
       <c r="C895" s="9"/>
       <c r="D895" s="18"/>
       <c r="E895" s="9"/>
@@ -26814,7 +26814,7 @@
       <c r="AA895" s="9"/>
     </row>
     <row r="896" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B896" s="33"/>
+      <c r="B896" s="29"/>
       <c r="C896" s="9"/>
       <c r="D896" s="18"/>
       <c r="E896" s="9"/>
@@ -26842,7 +26842,7 @@
       <c r="AA896" s="9"/>
     </row>
     <row r="897" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B897" s="33"/>
+      <c r="B897" s="29"/>
       <c r="C897" s="9"/>
       <c r="D897" s="18"/>
       <c r="E897" s="9"/>
@@ -26870,7 +26870,7 @@
       <c r="AA897" s="9"/>
     </row>
     <row r="898" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B898" s="33"/>
+      <c r="B898" s="29"/>
       <c r="C898" s="9"/>
       <c r="D898" s="18"/>
       <c r="E898" s="9"/>
@@ -26898,7 +26898,7 @@
       <c r="AA898" s="9"/>
     </row>
     <row r="899" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B899" s="33"/>
+      <c r="B899" s="29"/>
       <c r="C899" s="9"/>
       <c r="D899" s="18"/>
       <c r="E899" s="9"/>
@@ -26926,7 +26926,7 @@
       <c r="AA899" s="9"/>
     </row>
     <row r="900" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B900" s="33"/>
+      <c r="B900" s="29"/>
       <c r="C900" s="9"/>
       <c r="D900" s="18"/>
       <c r="E900" s="9"/>
@@ -26954,7 +26954,7 @@
       <c r="AA900" s="9"/>
     </row>
     <row r="901" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B901" s="33"/>
+      <c r="B901" s="29"/>
       <c r="C901" s="9"/>
       <c r="D901" s="18"/>
       <c r="E901" s="9"/>
@@ -26982,7 +26982,7 @@
       <c r="AA901" s="9"/>
     </row>
     <row r="902" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B902" s="33"/>
+      <c r="B902" s="29"/>
       <c r="C902" s="9"/>
       <c r="D902" s="18"/>
       <c r="E902" s="9"/>
@@ -27010,7 +27010,7 @@
       <c r="AA902" s="9"/>
     </row>
     <row r="903" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B903" s="33"/>
+      <c r="B903" s="29"/>
       <c r="C903" s="9"/>
       <c r="D903" s="18"/>
       <c r="E903" s="9"/>
@@ -27038,7 +27038,7 @@
       <c r="AA903" s="9"/>
     </row>
     <row r="904" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B904" s="33"/>
+      <c r="B904" s="29"/>
       <c r="C904" s="9"/>
       <c r="D904" s="18"/>
       <c r="E904" s="9"/>
@@ -27066,7 +27066,7 @@
       <c r="AA904" s="9"/>
     </row>
     <row r="905" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B905" s="33"/>
+      <c r="B905" s="29"/>
       <c r="C905" s="9"/>
       <c r="D905" s="18"/>
       <c r="E905" s="9"/>
@@ -27094,7 +27094,7 @@
       <c r="AA905" s="9"/>
     </row>
     <row r="906" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B906" s="33"/>
+      <c r="B906" s="29"/>
       <c r="C906" s="9"/>
       <c r="D906" s="18"/>
       <c r="E906" s="9"/>
@@ -27122,7 +27122,7 @@
       <c r="AA906" s="9"/>
     </row>
     <row r="907" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B907" s="33"/>
+      <c r="B907" s="29"/>
       <c r="C907" s="9"/>
       <c r="D907" s="18"/>
       <c r="E907" s="9"/>
@@ -27150,7 +27150,7 @@
       <c r="AA907" s="9"/>
     </row>
     <row r="908" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B908" s="33"/>
+      <c r="B908" s="29"/>
       <c r="C908" s="9"/>
       <c r="D908" s="18"/>
       <c r="E908" s="9"/>
@@ -27178,7 +27178,7 @@
       <c r="AA908" s="9"/>
     </row>
     <row r="909" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B909" s="33"/>
+      <c r="B909" s="29"/>
       <c r="C909" s="9"/>
       <c r="D909" s="18"/>
       <c r="E909" s="9"/>
@@ -27206,7 +27206,7 @@
       <c r="AA909" s="9"/>
     </row>
     <row r="910" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B910" s="33"/>
+      <c r="B910" s="29"/>
       <c r="C910" s="9"/>
       <c r="D910" s="18"/>
       <c r="E910" s="9"/>
@@ -27234,7 +27234,7 @@
       <c r="AA910" s="9"/>
     </row>
     <row r="911" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B911" s="33"/>
+      <c r="B911" s="29"/>
       <c r="C911" s="9"/>
       <c r="D911" s="18"/>
       <c r="E911" s="9"/>
@@ -27262,7 +27262,7 @@
       <c r="AA911" s="9"/>
     </row>
     <row r="912" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B912" s="33"/>
+      <c r="B912" s="29"/>
       <c r="C912" s="9"/>
       <c r="D912" s="18"/>
       <c r="E912" s="9"/>
@@ -27290,7 +27290,7 @@
       <c r="AA912" s="9"/>
     </row>
     <row r="913" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B913" s="33"/>
+      <c r="B913" s="29"/>
       <c r="C913" s="9"/>
       <c r="D913" s="18"/>
       <c r="E913" s="9"/>
@@ -27318,7 +27318,7 @@
       <c r="AA913" s="9"/>
     </row>
     <row r="914" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B914" s="33"/>
+      <c r="B914" s="29"/>
       <c r="C914" s="9"/>
       <c r="D914" s="18"/>
       <c r="E914" s="9"/>
@@ -27346,7 +27346,7 @@
       <c r="AA914" s="9"/>
     </row>
     <row r="915" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B915" s="33"/>
+      <c r="B915" s="29"/>
       <c r="C915" s="9"/>
       <c r="D915" s="18"/>
       <c r="E915" s="9"/>
@@ -27374,7 +27374,7 @@
       <c r="AA915" s="9"/>
     </row>
     <row r="916" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B916" s="33"/>
+      <c r="B916" s="29"/>
       <c r="C916" s="9"/>
       <c r="D916" s="18"/>
       <c r="E916" s="9"/>
@@ -27402,7 +27402,7 @@
       <c r="AA916" s="9"/>
     </row>
     <row r="917" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B917" s="33"/>
+      <c r="B917" s="29"/>
       <c r="C917" s="9"/>
       <c r="D917" s="18"/>
       <c r="E917" s="9"/>
@@ -27430,7 +27430,7 @@
       <c r="AA917" s="9"/>
     </row>
     <row r="918" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B918" s="33"/>
+      <c r="B918" s="29"/>
       <c r="C918" s="9"/>
       <c r="D918" s="18"/>
       <c r="E918" s="9"/>
@@ -27458,7 +27458,7 @@
       <c r="AA918" s="9"/>
     </row>
     <row r="919" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B919" s="33"/>
+      <c r="B919" s="29"/>
       <c r="C919" s="9"/>
       <c r="D919" s="18"/>
       <c r="E919" s="9"/>
@@ -27486,7 +27486,7 @@
       <c r="AA919" s="9"/>
     </row>
     <row r="920" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B920" s="33"/>
+      <c r="B920" s="29"/>
       <c r="C920" s="9"/>
       <c r="D920" s="18"/>
       <c r="E920" s="9"/>
@@ -27514,7 +27514,7 @@
       <c r="AA920" s="9"/>
     </row>
     <row r="921" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B921" s="33"/>
+      <c r="B921" s="29"/>
       <c r="C921" s="9"/>
       <c r="D921" s="18"/>
       <c r="E921" s="9"/>
@@ -27542,7 +27542,7 @@
       <c r="AA921" s="9"/>
     </row>
     <row r="922" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B922" s="33"/>
+      <c r="B922" s="29"/>
       <c r="C922" s="9"/>
       <c r="D922" s="18"/>
       <c r="E922" s="9"/>
@@ -27570,7 +27570,7 @@
       <c r="AA922" s="9"/>
     </row>
     <row r="923" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B923" s="33"/>
+      <c r="B923" s="29"/>
       <c r="C923" s="9"/>
       <c r="D923" s="18"/>
       <c r="E923" s="9"/>
@@ -27598,7 +27598,7 @@
       <c r="AA923" s="9"/>
     </row>
     <row r="924" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B924" s="33"/>
+      <c r="B924" s="29"/>
       <c r="C924" s="9"/>
       <c r="D924" s="18"/>
       <c r="E924" s="9"/>
@@ -27626,7 +27626,7 @@
       <c r="AA924" s="9"/>
     </row>
     <row r="925" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B925" s="33"/>
+      <c r="B925" s="29"/>
       <c r="C925" s="9"/>
       <c r="D925" s="18"/>
       <c r="E925" s="9"/>
@@ -27654,7 +27654,7 @@
       <c r="AA925" s="9"/>
     </row>
     <row r="926" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B926" s="33"/>
+      <c r="B926" s="29"/>
       <c r="C926" s="9"/>
       <c r="D926" s="18"/>
       <c r="E926" s="9"/>
@@ -27682,7 +27682,7 @@
       <c r="AA926" s="9"/>
     </row>
     <row r="927" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B927" s="33"/>
+      <c r="B927" s="29"/>
       <c r="C927" s="9"/>
       <c r="D927" s="18"/>
       <c r="E927" s="9"/>
@@ -27710,7 +27710,7 @@
       <c r="AA927" s="9"/>
     </row>
     <row r="928" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B928" s="33"/>
+      <c r="B928" s="29"/>
       <c r="C928" s="9"/>
       <c r="D928" s="18"/>
       <c r="E928" s="9"/>
@@ -27738,7 +27738,7 @@
       <c r="AA928" s="9"/>
     </row>
     <row r="929" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B929" s="33"/>
+      <c r="B929" s="29"/>
       <c r="C929" s="9"/>
       <c r="D929" s="18"/>
       <c r="E929" s="9"/>
@@ -27766,7 +27766,7 @@
       <c r="AA929" s="9"/>
     </row>
     <row r="930" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B930" s="33"/>
+      <c r="B930" s="29"/>
       <c r="C930" s="9"/>
       <c r="D930" s="18"/>
       <c r="E930" s="9"/>
@@ -27794,7 +27794,7 @@
       <c r="AA930" s="9"/>
     </row>
     <row r="931" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B931" s="33"/>
+      <c r="B931" s="29"/>
       <c r="C931" s="9"/>
       <c r="D931" s="18"/>
       <c r="E931" s="9"/>
@@ -27822,7 +27822,7 @@
       <c r="AA931" s="9"/>
     </row>
     <row r="932" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B932" s="33"/>
+      <c r="B932" s="29"/>
       <c r="C932" s="9"/>
       <c r="D932" s="18"/>
       <c r="E932" s="9"/>
@@ -27850,7 +27850,7 @@
       <c r="AA932" s="9"/>
     </row>
     <row r="933" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B933" s="33"/>
+      <c r="B933" s="29"/>
       <c r="C933" s="9"/>
       <c r="D933" s="18"/>
       <c r="E933" s="9"/>
@@ -27878,7 +27878,7 @@
       <c r="AA933" s="9"/>
     </row>
     <row r="934" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B934" s="33"/>
+      <c r="B934" s="29"/>
       <c r="C934" s="9"/>
       <c r="D934" s="18"/>
       <c r="E934" s="9"/>
@@ -27906,7 +27906,7 @@
       <c r="AA934" s="9"/>
     </row>
     <row r="935" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B935" s="33"/>
+      <c r="B935" s="29"/>
       <c r="C935" s="9"/>
       <c r="D935" s="18"/>
       <c r="E935" s="9"/>
@@ -27934,7 +27934,7 @@
       <c r="AA935" s="9"/>
     </row>
     <row r="936" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B936" s="33"/>
+      <c r="B936" s="29"/>
       <c r="C936" s="9"/>
       <c r="D936" s="18"/>
       <c r="E936" s="9"/>
@@ -27962,7 +27962,7 @@
       <c r="AA936" s="9"/>
     </row>
     <row r="937" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B937" s="33"/>
+      <c r="B937" s="29"/>
       <c r="C937" s="9"/>
       <c r="D937" s="18"/>
       <c r="E937" s="9"/>
@@ -27990,7 +27990,7 @@
       <c r="AA937" s="9"/>
     </row>
     <row r="938" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B938" s="33"/>
+      <c r="B938" s="29"/>
       <c r="C938" s="9"/>
       <c r="D938" s="18"/>
       <c r="E938" s="9"/>
@@ -28018,7 +28018,7 @@
       <c r="AA938" s="9"/>
     </row>
     <row r="939" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B939" s="33"/>
+      <c r="B939" s="29"/>
       <c r="C939" s="9"/>
       <c r="D939" s="18"/>
       <c r="E939" s="9"/>
@@ -28046,7 +28046,7 @@
       <c r="AA939" s="9"/>
     </row>
     <row r="940" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B940" s="33"/>
+      <c r="B940" s="29"/>
       <c r="C940" s="9"/>
       <c r="D940" s="18"/>
       <c r="E940" s="9"/>
@@ -28074,7 +28074,7 @@
       <c r="AA940" s="9"/>
     </row>
     <row r="941" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B941" s="33"/>
+      <c r="B941" s="29"/>
       <c r="C941" s="9"/>
       <c r="D941" s="18"/>
       <c r="E941" s="9"/>
@@ -28102,7 +28102,7 @@
       <c r="AA941" s="9"/>
     </row>
     <row r="942" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B942" s="33"/>
+      <c r="B942" s="29"/>
       <c r="C942" s="9"/>
       <c r="D942" s="18"/>
       <c r="E942" s="9"/>
@@ -28130,7 +28130,7 @@
       <c r="AA942" s="9"/>
     </row>
     <row r="943" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B943" s="33"/>
+      <c r="B943" s="29"/>
       <c r="C943" s="9"/>
       <c r="D943" s="18"/>
       <c r="E943" s="9"/>
@@ -28158,7 +28158,7 @@
       <c r="AA943" s="9"/>
     </row>
     <row r="944" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B944" s="33"/>
+      <c r="B944" s="29"/>
       <c r="C944" s="9"/>
       <c r="D944" s="18"/>
       <c r="E944" s="9"/>
@@ -28186,7 +28186,7 @@
       <c r="AA944" s="9"/>
     </row>
     <row r="945" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B945" s="33"/>
+      <c r="B945" s="29"/>
       <c r="C945" s="9"/>
       <c r="D945" s="18"/>
       <c r="E945" s="9"/>
@@ -28214,7 +28214,7 @@
       <c r="AA945" s="9"/>
     </row>
     <row r="946" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B946" s="33"/>
+      <c r="B946" s="29"/>
       <c r="C946" s="9"/>
       <c r="D946" s="18"/>
       <c r="E946" s="9"/>
@@ -28242,7 +28242,7 @@
       <c r="AA946" s="9"/>
     </row>
     <row r="947" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B947" s="33"/>
+      <c r="B947" s="29"/>
       <c r="C947" s="9"/>
       <c r="D947" s="18"/>
       <c r="E947" s="9"/>
@@ -28270,7 +28270,7 @@
       <c r="AA947" s="9"/>
     </row>
     <row r="948" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B948" s="33"/>
+      <c r="B948" s="29"/>
       <c r="C948" s="9"/>
       <c r="D948" s="18"/>
       <c r="E948" s="9"/>
@@ -28298,7 +28298,7 @@
       <c r="AA948" s="9"/>
     </row>
     <row r="949" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B949" s="33"/>
+      <c r="B949" s="29"/>
       <c r="C949" s="9"/>
       <c r="D949" s="18"/>
       <c r="E949" s="9"/>
@@ -28326,7 +28326,7 @@
       <c r="AA949" s="9"/>
     </row>
     <row r="950" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B950" s="33"/>
+      <c r="B950" s="29"/>
       <c r="C950" s="9"/>
       <c r="D950" s="18"/>
       <c r="E950" s="9"/>
@@ -28354,7 +28354,7 @@
       <c r="AA950" s="9"/>
     </row>
     <row r="951" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B951" s="33"/>
+      <c r="B951" s="29"/>
       <c r="C951" s="9"/>
       <c r="D951" s="18"/>
       <c r="E951" s="9"/>
@@ -28382,7 +28382,7 @@
       <c r="AA951" s="9"/>
     </row>
     <row r="952" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B952" s="33"/>
+      <c r="B952" s="29"/>
       <c r="C952" s="9"/>
       <c r="D952" s="18"/>
       <c r="E952" s="9"/>
@@ -28410,7 +28410,7 @@
       <c r="AA952" s="9"/>
     </row>
     <row r="953" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B953" s="33"/>
+      <c r="B953" s="29"/>
       <c r="C953" s="9"/>
       <c r="D953" s="18"/>
       <c r="E953" s="9"/>
@@ -28438,7 +28438,7 @@
       <c r="AA953" s="9"/>
     </row>
     <row r="954" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B954" s="33"/>
+      <c r="B954" s="29"/>
       <c r="C954" s="9"/>
       <c r="D954" s="18"/>
       <c r="E954" s="9"/>
@@ -28466,7 +28466,7 @@
       <c r="AA954" s="9"/>
     </row>
     <row r="955" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B955" s="33"/>
+      <c r="B955" s="29"/>
       <c r="C955" s="9"/>
       <c r="D955" s="18"/>
       <c r="E955" s="9"/>
@@ -28494,7 +28494,7 @@
       <c r="AA955" s="9"/>
     </row>
     <row r="956" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B956" s="33"/>
+      <c r="B956" s="29"/>
       <c r="C956" s="9"/>
       <c r="D956" s="18"/>
       <c r="E956" s="9"/>
@@ -28522,7 +28522,7 @@
       <c r="AA956" s="9"/>
     </row>
     <row r="957" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B957" s="33"/>
+      <c r="B957" s="29"/>
       <c r="C957" s="9"/>
       <c r="D957" s="18"/>
       <c r="E957" s="9"/>
@@ -28550,7 +28550,7 @@
       <c r="AA957" s="9"/>
     </row>
     <row r="958" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B958" s="33"/>
+      <c r="B958" s="29"/>
       <c r="C958" s="9"/>
       <c r="D958" s="18"/>
       <c r="E958" s="9"/>
@@ -28578,7 +28578,7 @@
       <c r="AA958" s="9"/>
     </row>
     <row r="959" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B959" s="33"/>
+      <c r="B959" s="29"/>
       <c r="C959" s="9"/>
       <c r="D959" s="18"/>
       <c r="E959" s="9"/>
@@ -28606,7 +28606,7 @@
       <c r="AA959" s="9"/>
     </row>
     <row r="960" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B960" s="33"/>
+      <c r="B960" s="29"/>
       <c r="C960" s="9"/>
       <c r="D960" s="18"/>
       <c r="E960" s="9"/>
@@ -28634,7 +28634,7 @@
       <c r="AA960" s="9"/>
     </row>
     <row r="961" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B961" s="33"/>
+      <c r="B961" s="29"/>
       <c r="C961" s="9"/>
       <c r="D961" s="18"/>
       <c r="E961" s="9"/>
@@ -28662,7 +28662,7 @@
       <c r="AA961" s="9"/>
     </row>
     <row r="962" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B962" s="33"/>
+      <c r="B962" s="29"/>
       <c r="C962" s="9"/>
       <c r="D962" s="18"/>
       <c r="E962" s="9"/>
@@ -28690,7 +28690,7 @@
       <c r="AA962" s="9"/>
     </row>
     <row r="963" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B963" s="33"/>
+      <c r="B963" s="29"/>
       <c r="C963" s="9"/>
       <c r="D963" s="18"/>
       <c r="E963" s="9"/>
@@ -28718,7 +28718,7 @@
       <c r="AA963" s="9"/>
     </row>
     <row r="964" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B964" s="33"/>
+      <c r="B964" s="29"/>
       <c r="C964" s="9"/>
       <c r="D964" s="18"/>
       <c r="E964" s="9"/>
@@ -28746,7 +28746,7 @@
       <c r="AA964" s="9"/>
     </row>
     <row r="965" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B965" s="33"/>
+      <c r="B965" s="29"/>
       <c r="C965" s="9"/>
       <c r="D965" s="18"/>
       <c r="E965" s="9"/>
@@ -28774,7 +28774,7 @@
       <c r="AA965" s="9"/>
     </row>
     <row r="966" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B966" s="33"/>
+      <c r="B966" s="29"/>
       <c r="C966" s="9"/>
       <c r="D966" s="18"/>
       <c r="E966" s="9"/>
@@ -28802,7 +28802,7 @@
       <c r="AA966" s="9"/>
     </row>
     <row r="967" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B967" s="33"/>
+      <c r="B967" s="29"/>
       <c r="C967" s="9"/>
       <c r="D967" s="18"/>
       <c r="E967" s="9"/>
@@ -28830,7 +28830,7 @@
       <c r="AA967" s="9"/>
     </row>
     <row r="968" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B968" s="33"/>
+      <c r="B968" s="29"/>
       <c r="C968" s="9"/>
       <c r="D968" s="18"/>
       <c r="E968" s="9"/>
@@ -28858,7 +28858,7 @@
       <c r="AA968" s="9"/>
     </row>
     <row r="969" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B969" s="33"/>
+      <c r="B969" s="29"/>
       <c r="C969" s="9"/>
       <c r="D969" s="18"/>
       <c r="E969" s="9"/>
@@ -28886,7 +28886,7 @@
       <c r="AA969" s="9"/>
     </row>
     <row r="970" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B970" s="33"/>
+      <c r="B970" s="29"/>
       <c r="C970" s="9"/>
       <c r="D970" s="18"/>
       <c r="E970" s="9"/>
@@ -28914,7 +28914,7 @@
       <c r="AA970" s="9"/>
     </row>
     <row r="971" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B971" s="33"/>
+      <c r="B971" s="29"/>
       <c r="C971" s="9"/>
       <c r="D971" s="18"/>
       <c r="E971" s="9"/>
@@ -28942,7 +28942,7 @@
       <c r="AA971" s="9"/>
     </row>
     <row r="972" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B972" s="33"/>
+      <c r="B972" s="29"/>
       <c r="C972" s="9"/>
       <c r="D972" s="18"/>
       <c r="E972" s="9"/>
@@ -28970,7 +28970,7 @@
       <c r="AA972" s="9"/>
     </row>
     <row r="973" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B973" s="33"/>
+      <c r="B973" s="29"/>
       <c r="C973" s="9"/>
       <c r="D973" s="18"/>
       <c r="E973" s="9"/>
@@ -28998,7 +28998,7 @@
       <c r="AA973" s="9"/>
     </row>
     <row r="974" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B974" s="33"/>
+      <c r="B974" s="29"/>
       <c r="C974" s="9"/>
       <c r="D974" s="18"/>
       <c r="E974" s="9"/>
@@ -29026,7 +29026,7 @@
       <c r="AA974" s="9"/>
     </row>
     <row r="975" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B975" s="33"/>
+      <c r="B975" s="29"/>
       <c r="C975" s="9"/>
       <c r="D975" s="18"/>
       <c r="E975" s="9"/>
@@ -29054,7 +29054,7 @@
       <c r="AA975" s="9"/>
     </row>
     <row r="976" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B976" s="33"/>
+      <c r="B976" s="29"/>
       <c r="C976" s="9"/>
       <c r="D976" s="18"/>
       <c r="E976" s="9"/>
@@ -29082,7 +29082,7 @@
       <c r="AA976" s="9"/>
     </row>
     <row r="977" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B977" s="33"/>
+      <c r="B977" s="29"/>
       <c r="C977" s="9"/>
       <c r="D977" s="18"/>
       <c r="E977" s="9"/>
@@ -29110,7 +29110,7 @@
       <c r="AA977" s="9"/>
     </row>
     <row r="978" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B978" s="33"/>
+      <c r="B978" s="29"/>
       <c r="C978" s="9"/>
       <c r="D978" s="18"/>
       <c r="E978" s="9"/>
@@ -29138,7 +29138,7 @@
       <c r="AA978" s="9"/>
     </row>
     <row r="979" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B979" s="33"/>
+      <c r="B979" s="29"/>
       <c r="C979" s="9"/>
       <c r="D979" s="18"/>
       <c r="E979" s="9"/>
@@ -29166,7 +29166,7 @@
       <c r="AA979" s="9"/>
     </row>
     <row r="980" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B980" s="33"/>
+      <c r="B980" s="29"/>
       <c r="C980" s="9"/>
       <c r="D980" s="18"/>
       <c r="E980" s="9"/>
@@ -29194,7 +29194,7 @@
       <c r="AA980" s="9"/>
     </row>
     <row r="981" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B981" s="33"/>
+      <c r="B981" s="29"/>
       <c r="C981" s="9"/>
       <c r="D981" s="18"/>
       <c r="E981" s="9"/>
@@ -29222,7 +29222,7 @@
       <c r="AA981" s="9"/>
     </row>
     <row r="982" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B982" s="33"/>
+      <c r="B982" s="29"/>
       <c r="C982" s="9"/>
       <c r="D982" s="18"/>
       <c r="E982" s="9"/>
@@ -29250,7 +29250,7 @@
       <c r="AA982" s="9"/>
     </row>
     <row r="983" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B983" s="33"/>
+      <c r="B983" s="29"/>
       <c r="C983" s="9"/>
       <c r="D983" s="18"/>
       <c r="E983" s="9"/>
@@ -29278,7 +29278,7 @@
       <c r="AA983" s="9"/>
     </row>
     <row r="984" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B984" s="33"/>
+      <c r="B984" s="29"/>
       <c r="C984" s="9"/>
       <c r="D984" s="18"/>
       <c r="E984" s="9"/>
@@ -29306,7 +29306,7 @@
       <c r="AA984" s="9"/>
     </row>
     <row r="985" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B985" s="33"/>
+      <c r="B985" s="29"/>
       <c r="C985" s="9"/>
       <c r="D985" s="18"/>
       <c r="E985" s="9"/>
@@ -29334,7 +29334,7 @@
       <c r="AA985" s="9"/>
     </row>
     <row r="986" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B986" s="33"/>
+      <c r="B986" s="29"/>
       <c r="C986" s="9"/>
       <c r="D986" s="18"/>
       <c r="E986" s="9"/>
@@ -29362,7 +29362,7 @@
       <c r="AA986" s="9"/>
     </row>
     <row r="987" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B987" s="33"/>
+      <c r="B987" s="29"/>
       <c r="C987" s="9"/>
       <c r="D987" s="18"/>
       <c r="E987" s="9"/>
@@ -29390,7 +29390,7 @@
       <c r="AA987" s="9"/>
     </row>
     <row r="988" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B988" s="33"/>
+      <c r="B988" s="29"/>
       <c r="C988" s="9"/>
       <c r="D988" s="18"/>
       <c r="E988" s="9"/>
@@ -29418,7 +29418,7 @@
       <c r="AA988" s="9"/>
     </row>
     <row r="989" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B989" s="33"/>
+      <c r="B989" s="29"/>
       <c r="C989" s="9"/>
       <c r="D989" s="18"/>
       <c r="E989" s="9"/>
@@ -29446,7 +29446,7 @@
       <c r="AA989" s="9"/>
     </row>
     <row r="990" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B990" s="33"/>
+      <c r="B990" s="29"/>
       <c r="C990" s="9"/>
       <c r="D990" s="18"/>
       <c r="E990" s="9"/>
@@ -29474,7 +29474,7 @@
       <c r="AA990" s="9"/>
     </row>
     <row r="991" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B991" s="33"/>
+      <c r="B991" s="29"/>
       <c r="C991" s="9"/>
       <c r="D991" s="18"/>
       <c r="E991" s="9"/>
@@ -29502,7 +29502,7 @@
       <c r="AA991" s="9"/>
     </row>
     <row r="992" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B992" s="33"/>
+      <c r="B992" s="29"/>
       <c r="C992" s="9"/>
       <c r="D992" s="18"/>
       <c r="E992" s="9"/>
@@ -29530,7 +29530,7 @@
       <c r="AA992" s="9"/>
     </row>
     <row r="993" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B993" s="33"/>
+      <c r="B993" s="29"/>
       <c r="C993" s="9"/>
       <c r="D993" s="18"/>
       <c r="E993" s="9"/>
@@ -29558,7 +29558,7 @@
       <c r="AA993" s="9"/>
     </row>
     <row r="994" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B994" s="33"/>
+      <c r="B994" s="29"/>
       <c r="C994" s="9"/>
       <c r="D994" s="18"/>
       <c r="E994" s="9"/>
@@ -29586,7 +29586,7 @@
       <c r="AA994" s="9"/>
     </row>
     <row r="995" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B995" s="33"/>
+      <c r="B995" s="29"/>
       <c r="C995" s="9"/>
       <c r="D995" s="18"/>
       <c r="E995" s="9"/>
@@ -29614,7 +29614,7 @@
       <c r="AA995" s="9"/>
     </row>
     <row r="996" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B996" s="33"/>
+      <c r="B996" s="29"/>
       <c r="C996" s="9"/>
       <c r="D996" s="18"/>
       <c r="E996" s="9"/>
@@ -29642,7 +29642,7 @@
       <c r="AA996" s="9"/>
     </row>
     <row r="997" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B997" s="33"/>
+      <c r="B997" s="29"/>
       <c r="C997" s="9"/>
       <c r="D997" s="18"/>
       <c r="E997" s="9"/>
@@ -29670,7 +29670,7 @@
       <c r="AA997" s="9"/>
     </row>
     <row r="998" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B998" s="33"/>
+      <c r="B998" s="29"/>
       <c r="C998" s="9"/>
       <c r="D998" s="18"/>
       <c r="E998" s="9"/>
@@ -29698,7 +29698,7 @@
       <c r="AA998" s="9"/>
     </row>
     <row r="999" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B999" s="33"/>
+      <c r="B999" s="29"/>
       <c r="C999" s="9"/>
       <c r="D999" s="18"/>
       <c r="E999" s="9"/>
@@ -29726,7 +29726,7 @@
       <c r="AA999" s="9"/>
     </row>
     <row r="1000" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1000" s="33"/>
+      <c r="B1000" s="29"/>
       <c r="C1000" s="9"/>
       <c r="D1000" s="18"/>
       <c r="E1000" s="9"/>
@@ -29754,7 +29754,7 @@
       <c r="AA1000" s="9"/>
     </row>
     <row r="1001" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1001" s="33"/>
+      <c r="B1001" s="29"/>
       <c r="C1001" s="9"/>
       <c r="D1001" s="18"/>
       <c r="E1001" s="9"/>
@@ -29782,7 +29782,7 @@
       <c r="AA1001" s="9"/>
     </row>
     <row r="1002" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1002" s="33"/>
+      <c r="B1002" s="29"/>
       <c r="C1002" s="9"/>
       <c r="D1002" s="18"/>
       <c r="E1002" s="9"/>
@@ -29810,7 +29810,7 @@
       <c r="AA1002" s="9"/>
     </row>
     <row r="1003" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1003" s="33"/>
+      <c r="B1003" s="29"/>
       <c r="C1003" s="9"/>
       <c r="D1003" s="18"/>
       <c r="E1003" s="9"/>
@@ -29838,7 +29838,7 @@
       <c r="AA1003" s="9"/>
     </row>
     <row r="1004" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B1004" s="33"/>
+      <c r="B1004" s="29"/>
       <c r="C1004" s="9"/>
       <c r="D1004" s="18"/>
       <c r="E1004" s="9"/>
